--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D813"/>
+  <dimension ref="A1:D811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,7 +1096,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>έτρου τσ̇'έτρου</t>
+          <t>έτρου τ͡σ'έτρου</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4578,7 +4578,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>γριτσ̇έα</t>
+          <t>γριτ͡σέα</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6540,7 +6540,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>καΐτσ̇ι</t>
+          <t>καΐτ͡σι</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7954,17 +7954,17 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>κρέμμου</t>
+          <t>κρέφου</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>κρεμμίδι</t>
+          <t>κλέβω</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -7974,17 +7974,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>κρέφου</t>
+          <t>κρέφτα</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>κλέβω</t>
+          <t>κλέφτης</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -7994,17 +7994,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>κρέφτα</t>
+          <t>κρίε</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>κλέφτης</t>
+          <t>κρέας</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Υ5</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -8014,17 +8014,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>κρίε</t>
+          <t>κρίμα</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>κρέας</t>
+          <t>κρίμα</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Υ5</t>
+          <t>Υ2</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -8034,19 +8034,15 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>κρίμα</t>
+          <t>κρίσε</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>κρίμα</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>Υ2</t>
-        </is>
-      </c>
+          <t>κριθάρι</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr"/>
       <c r="D391" t="n">
         <v>1</v>
       </c>
@@ -8054,15 +8050,19 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>κρίσε</t>
+          <t>κρασί</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>κριθάρι</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr"/>
+          <t>κρασί</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Υ3</t>
+        </is>
+      </c>
       <c r="D392" t="n">
         <v>1</v>
       </c>
@@ -8070,17 +8070,17 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>κρασί</t>
+          <t>κρασία</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>κρασί</t>
+          <t>κρασιά</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -8090,17 +8090,17 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>κρασία</t>
+          <t>κρεβάτ̇α</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>κρασιά</t>
+          <t>κρεβάτι</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -8110,17 +8110,17 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>κρεβάτ̇α</t>
+          <t>κωνά</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>κρεβάτι</t>
+          <t>κλωστή</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -8130,12 +8130,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>κωνά</t>
+          <t>κωσταρίνα</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>κλωστή</t>
+          <t>σαύρα</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -8150,17 +8150,17 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>κωσταρίνα</t>
+          <t>κόγκισμα</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>σαύρα</t>
+          <t>εικόνισμα</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Υ2</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -8170,17 +8170,17 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>κόγκισμα</t>
+          <t>κόκ̇ο</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>εικόνισμα</t>
+          <t>κουκί</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Υ2</t>
+          <t>Α4</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -8190,17 +8190,17 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>κόκ̇ο</t>
+          <t>κόκαλε</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>κουκί</t>
+          <t>κόκαλο</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Α4</t>
+          <t>Υ0</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -8210,19 +8210,15 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>κόκαλε</t>
+          <t>κόλημα</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>κόκαλο</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>Υ0</t>
-        </is>
-      </c>
+          <t xml:space="preserve">πανί </t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
       <c r="D400" t="n">
         <v>1</v>
       </c>
@@ -8230,15 +8226,19 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>κόλημα</t>
+          <t>κότ̇α</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t xml:space="preserve">πανί </t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr"/>
+          <t>κότα</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Θ1</t>
+        </is>
+      </c>
       <c r="D401" t="n">
         <v>1</v>
       </c>
@@ -8246,12 +8246,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>κότ̇α</t>
+          <t>κότσιτα</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>κότα</t>
+          <t>κολοκύθα</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -8266,17 +8266,17 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>κότσιτα</t>
+          <t>λαιμό</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>κολοκύθα</t>
+          <t>λαιμό</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -8286,17 +8286,17 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>λαιμό</t>
+          <t>λεµον̂ία</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>λαιμό</t>
+          <t>λεµονιά</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -8306,17 +8306,17 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>λεµον̇ία</t>
+          <t>λεκό</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>λεµονιά</t>
+          <t>λευκός</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Ε</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -8326,17 +8326,17 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>λεκό</t>
+          <t>λεξικό</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>λευκός</t>
+          <t>λεξικό</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Ε</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D406" t="n">
@@ -8346,12 +8346,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>λεξικό</t>
+          <t>λεωφορείε</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>λεξικό</t>
+          <t>λεωφορέιο</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -8366,12 +8366,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>λεωφορείε</t>
+          <t>λιβάδι</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>λεωφορέιο</t>
+          <t>λιβάδι</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8386,17 +8386,17 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>λιβάδι</t>
+          <t>λιγκόνι</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>λιβάδι</t>
+          <t>μυρμήγκι</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -8406,17 +8406,17 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>λιγκόνι</t>
+          <t>λιούκο</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>μυρμήγκι</t>
+          <t>λύκος</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -8426,17 +8426,17 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>λιούκο</t>
+          <t>λουλούδι</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>λύκος</t>
+          <t>λουλούδι</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -8446,17 +8446,17 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>λουλούδι</t>
+          <t>λουπάϊ</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>λουλούδι</t>
+          <t>τσουκάλι</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -8466,17 +8466,17 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>λουπάϊ</t>
+          <t>λυκείο</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>τσουκάλι</t>
+          <t>λυκείο</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -8486,17 +8486,17 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>λυκείο</t>
+          <t>λύχινε</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>λυκείο</t>
+          <t>λυχνάρι</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -8506,17 +8506,17 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>λύχινε</t>
+          <t>μ'έκεινι όλιου</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>λυχνάρι</t>
+          <t>παρ'όλα αυτά</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -8526,19 +8526,15 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>μ'έκεινι όλιου</t>
+          <t>μ'έν̂'αρέσουντα</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>παρ'όλα αυτά</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>Ζ</t>
-        </is>
-      </c>
+          <t>μ'αρέσει</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
       <c r="D416" t="n">
         <v>1</v>
       </c>
@@ -8546,12 +8542,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>μ'έν̇'αρέσουντα</t>
+          <t>μ'έτ̇ε συχωρούντε</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>μ'αρέσει</t>
+          <t>με συγχορείτε</t>
         </is>
       </c>
       <c r="C417" t="inlineStr"/>
@@ -8562,15 +8558,19 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>μ'έτ̇ε συχωρούντε</t>
+          <t>μάγουλε</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>με συγχορείτε</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr"/>
+          <t>μάγουλο</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Υ1</t>
+        </is>
+      </c>
       <c r="D418" t="n">
         <v>1</v>
       </c>
@@ -8578,17 +8578,17 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>μάγουλε</t>
+          <t>μάθημα</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>μάγουλο</t>
+          <t>μάθημα</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -8598,17 +8598,17 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>μάθημα</t>
+          <t>μάλ̣ι</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>μάθημα</t>
+          <t>μήλο</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Υ0</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -8618,19 +8618,15 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>μάλ̣ι</t>
+          <t>μάρμαρε</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>μήλο</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>Υ0</t>
-        </is>
-      </c>
+          <t>μάρμαρο</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
       <c r="D421" t="n">
         <v>1</v>
       </c>
@@ -8638,12 +8634,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>μάρμαρε</t>
+          <t>μάτζη</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>μάρμαρο</t>
+          <t>μάρτης</t>
         </is>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -8654,15 +8650,19 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>μάτζη</t>
+          <t>μάτη</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>μάρτης</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr"/>
+          <t>μητέρα</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Θ0</t>
+        </is>
+      </c>
       <c r="D423" t="n">
         <v>1</v>
       </c>
@@ -8670,17 +8670,17 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>μάτη</t>
+          <t>μάτουκα</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>μητέρα</t>
+          <t>τσάπα</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Θ0</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -8690,17 +8690,17 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>μάτουκα</t>
+          <t>μέλι</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>τσάπα</t>
+          <t>μέλι</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -8710,19 +8710,15 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>μέλι</t>
+          <t>μέχρι</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>μέλι</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>Υ</t>
-        </is>
-      </c>
+          <t>μέχρι</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
       <c r="D426" t="n">
         <v>1</v>
       </c>
@@ -8730,15 +8726,19 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>μέχρι</t>
+          <t>μαγαζί</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>μέχρι</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr"/>
+          <t>μαγαζί</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Υ</t>
+        </is>
+      </c>
       <c r="D427" t="n">
         <v>1</v>
       </c>
@@ -8746,17 +8746,17 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>μαγαζί</t>
+          <t>μακουνία</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>μαγαζί</t>
+          <t>παπαρούνα</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D428" t="n">
@@ -8766,17 +8766,17 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>μακουνία</t>
+          <t>μακούκ̇ου</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>παπαρούνα</t>
+          <t>μαλακώνω</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -8786,19 +8786,15 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>μακούκ̇ου</t>
+          <t>μακρία</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>μαλακώνω</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>Ρ</t>
-        </is>
-      </c>
+          <t>μακριά</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
       <c r="D430" t="n">
         <v>1</v>
       </c>
@@ -8806,15 +8802,19 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>μακρία</t>
+          <t>μαμού</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>μακριά</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr"/>
+          <t>γιαγιά</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Θ4</t>
+        </is>
+      </c>
       <c r="D431" t="n">
         <v>1</v>
       </c>
@@ -8822,17 +8822,17 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>μαμού</t>
+          <t>μανάβικο</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>γιαγιά</t>
+          <t>μανάβικο</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Θ4</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -8842,12 +8842,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>μανάβικο</t>
+          <t>μαντρί</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>μανάβικο</t>
+          <t>μαντρί</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -8862,17 +8862,17 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>μαντρί</t>
+          <t>μαρούλι</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>μαντρί</t>
+          <t>μαρούλι</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -8882,17 +8882,17 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>μαρούλι</t>
+          <t>με</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>μαρούλι</t>
+          <t>με</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -8902,17 +8902,17 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>με</t>
+          <t>μελισσά</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>με</t>
+          <t>μέλισσα</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Θ3</t>
         </is>
       </c>
       <c r="D436" t="n">
@@ -8922,59 +8922,55 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>μελισσά</t>
+          <t>μεριτζοί</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>μέλισσα</t>
+          <t>μερικοί</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Θ3</t>
+          <t>Ε</t>
         </is>
       </c>
       <c r="D437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>μεριτζοί</t>
+          <t>μετσ̌ού</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>μερικοί</t>
+          <t>μετρώ</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Ε</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>μετσ̌ού</t>
+          <t>μετσητά</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>μετρώ</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>Ρ</t>
-        </is>
-      </c>
+          <t>μετρητά</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
       <c r="D439" t="n">
         <v>1</v>
       </c>
@@ -8982,12 +8978,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>μετσητά</t>
+          <t>μην</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>μετρητά</t>
+          <t>μην</t>
         </is>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -8998,15 +8994,19 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>μην</t>
+          <t>μηχάνημα</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>μην</t>
-        </is>
-      </c>
-      <c r="C441" t="inlineStr"/>
+          <t>μηχάνημα</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Υ2</t>
+        </is>
+      </c>
       <c r="D441" t="n">
         <v>1</v>
       </c>
@@ -9014,17 +9014,17 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>μηχάνημα</t>
+          <t>μισά</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>μηχάνημα</t>
+          <t>μέση</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Υ2</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -9034,17 +9034,17 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>μισά</t>
+          <t>μιτσί</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>μέση</t>
+          <t>μικρός</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Ε9</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -9054,17 +9054,17 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>μιτσί</t>
+          <t>μιτσαίνου</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>μικρός</t>
+          <t>μικραίνω</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Ε9</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -9074,17 +9074,17 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>μιτσαίνου</t>
+          <t>μοίρα</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>μικραίνω</t>
+          <t>μοίρα</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D445" t="n">
@@ -9094,12 +9094,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>μοίρα</t>
+          <t>μοδίστρα</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>μοίρα</t>
+          <t>μοδίστρα</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -9114,17 +9114,17 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>μοδίστρα</t>
+          <t>μοζού</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>μοδίστρα</t>
+          <t>πονάω</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D447" t="n">
@@ -9134,17 +9134,17 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>μοζού</t>
+          <t>μονάρι</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>πονάω</t>
+          <t>μουλάρι</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -9154,17 +9154,17 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>μονάρι</t>
+          <t>μονέ</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>μουλάρι</t>
+          <t>μόνος</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Ε1</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -9174,7 +9174,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>μονέ</t>
+          <t>μοναχό</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -9182,11 +9182,7 @@
           <t>μόνος</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>Ε1</t>
-        </is>
-      </c>
+      <c r="C450" t="inlineStr"/>
       <c r="D450" t="n">
         <v>1</v>
       </c>
@@ -9194,12 +9190,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>μοναχό</t>
+          <t>μουάρι</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>μόνος</t>
+          <t>μουλάρι</t>
         </is>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -9210,15 +9206,19 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>μουάρι</t>
+          <t>μουνταλία</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>μουλάρι</t>
-        </is>
-      </c>
-      <c r="C452" t="inlineStr"/>
+          <t>µυρτιά</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Θ1</t>
+        </is>
+      </c>
       <c r="D452" t="n">
         <v>1</v>
       </c>
@@ -9226,12 +9226,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>μουνταλία</t>
+          <t>μουρία</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>µυρτιά</t>
+          <t>µουριά</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -9246,19 +9246,15 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>μουρία</t>
+          <t>μουστάτ͡σι</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>µουριά</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Θ1</t>
-        </is>
-      </c>
+          <t>μουστάκι</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
       <c r="D454" t="n">
         <v>1</v>
       </c>
@@ -9266,15 +9262,19 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>μουστάτσ̇ι</t>
+          <t>μούζα</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>μουστάκι</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr"/>
+          <t>μύγα</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Θ1</t>
+        </is>
+      </c>
       <c r="D455" t="n">
         <v>1</v>
       </c>
@@ -9282,17 +9282,17 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>μούζα</t>
+          <t>μπάνου</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>μύγα</t>
+          <t>βγάζω</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -9302,12 +9302,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>μπάνου</t>
+          <t>μπέχου</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>βγάζω</t>
+          <t>σκεπάζω</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -9322,17 +9322,17 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>μπέχου</t>
+          <t>μπίκο</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>σκεπάζω</t>
+          <t>κασµάς</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -9342,17 +9342,17 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>μπίκο</t>
+          <t>μπαΐνου</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>κασµάς</t>
+          <t>ανεβαίνω; Βγαίνω</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -9362,12 +9362,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>μπαΐνου</t>
+          <t>μπαΐχου</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>ανεβαίνω; Βγαίνω</t>
+          <t>εμπάζω, ανεβάζω</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -9376,18 +9376,18 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>μπαΐχου</t>
+          <t>μπαίνου</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>εμπάζω, ανεβάζω</t>
+          <t>μπαίνω</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -9396,23 +9396,23 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>μπαίνου</t>
+          <t>μπατάτα</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>μπαίνω</t>
+          <t>πατάτα</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -9422,19 +9422,15 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>μπατάτα</t>
+          <t>μπετσίμενε</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>πατάτα</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>Θ1</t>
-        </is>
-      </c>
+          <t>γαμπρό</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
       <c r="D463" t="n">
         <v>1</v>
       </c>
@@ -9442,15 +9438,19 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>μπετσίμενε</t>
+          <t>μπλέγγου</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>γαμπρό</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr"/>
+          <t>μπερδεύω, μπλέκω; διώχνω</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Ρ</t>
+        </is>
+      </c>
       <c r="D464" t="n">
         <v>1</v>
       </c>
@@ -9458,12 +9458,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>μπλέγγου</t>
+          <t>μπορού</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>μπερδεύω, μπλέκω; διώχνω</t>
+          <t>μπορώ</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -9478,17 +9478,17 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>μπορού</t>
+          <t>μπρακάτσ̇ι</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>μπορώ</t>
+          <t>μπρικάκι</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D466" t="n">
@@ -9498,17 +9498,17 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>μπρακάτσ̇ι</t>
+          <t>μπρου</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>μπρικάκι</t>
+          <t>πριν</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -9518,17 +9518,17 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>μπρου</t>
+          <t>μπρούσα</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>πριν</t>
+          <t>τσέπη</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D468" t="n">
@@ -9538,17 +9538,17 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>μπρούσα</t>
+          <t>μπόι</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>τσέπη</t>
+          <t>μπόι</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D469" t="n">
@@ -9558,17 +9558,17 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>μπόι</t>
+          <t>μυσ̌ί</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>μπόι</t>
+          <t>κουταλάκι</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -9578,17 +9578,17 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>μυσ̌ί</t>
+          <t>μόκ̇ο</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>κουταλάκι</t>
+          <t>μοσχάρι</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D471" t="n">
@@ -9598,19 +9598,15 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>μόκ̇ο</t>
+          <t>μόλις</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>μοσχάρι</t>
-        </is>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>Α1</t>
-        </is>
-      </c>
+          <t>μόλις</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr"/>
       <c r="D472" t="n">
         <v>1</v>
       </c>
@@ -9618,15 +9614,19 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>μόλις</t>
+          <t>μόνο</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>μόλις</t>
-        </is>
-      </c>
-      <c r="C473" t="inlineStr"/>
+          <t>μόνο</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Ζ</t>
+        </is>
+      </c>
       <c r="D473" t="n">
         <v>1</v>
       </c>
@@ -9634,17 +9634,17 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>μόνο</t>
+          <t>μύλε</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>μόνο</t>
+          <t>μύλο</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -9654,17 +9654,17 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>μύλε</t>
+          <t>μύσ̌α</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>μύλο</t>
+          <t>κουτάλι</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -9674,19 +9674,15 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>μύσ̌α</t>
+          <t>νάκια</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>κουτάλι</t>
-        </is>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>Θ1</t>
-        </is>
-      </c>
+          <t>αν</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
       <c r="D476" t="n">
         <v>1</v>
       </c>
@@ -9694,15 +9690,19 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>νάκια</t>
+          <t>νέμου</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>αν</t>
-        </is>
-      </c>
-      <c r="C477" t="inlineStr"/>
+          <t>βοσκώ</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Ρ</t>
+        </is>
+      </c>
       <c r="D477" t="n">
         <v>1</v>
       </c>
@@ -9710,17 +9710,17 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>νέμου</t>
+          <t>νίγδαλε</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>βοσκώ</t>
+          <t>μύγδαλο</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ0</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -9730,17 +9730,17 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>νίγδαλε</t>
+          <t>νίου</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>μύγδαλο</t>
+          <t>ακούω</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Υ0</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -9750,12 +9750,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>νίου</t>
+          <t>νίφου</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>ακούω</t>
+          <t>πλένω το πρόσωπο</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -9770,19 +9770,15 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>νίφου</t>
+          <t>να</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>πλένω το πρόσωπο</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>Ρ</t>
-        </is>
-      </c>
+          <t>να</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr"/>
       <c r="D481" t="n">
         <v>1</v>
       </c>
@@ -9790,66 +9786,70 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>να</t>
+          <t>ναι</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>να</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr"/>
-      <c r="D482" t="n">
-        <v>1</v>
-      </c>
+          <t>ναι</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Ζ</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ναι</t>
+          <t>νησί</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>ναι</t>
+          <t>νησί</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Ζ</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr"/>
+          <t>Υ</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>νησί</t>
+          <t>νικού</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>νησί</t>
+          <t>νικώ</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>νικού</t>
+          <t>νιουρίζου</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>νικώ</t>
+          <t>γνωρίζω</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -9858,18 +9858,18 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>νιουρίζου</t>
+          <t>νιού</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>γνωρίζω</t>
+          <t>μηλάω</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -9884,17 +9884,17 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>νιού</t>
+          <t>νιούτ̇α</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>μηλάω</t>
+          <t>νύχτα</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -9904,19 +9904,15 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>νιούτ̇α</t>
+          <t>νοέμπρη</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>νύχτα</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>Θ</t>
-        </is>
-      </c>
+          <t>νοέμβριος</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="n">
         <v>1</v>
       </c>
@@ -9924,15 +9920,19 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>νοέμπρη</t>
+          <t>νονά</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>νοέμβριος</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr"/>
+          <t>νονά</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Θ1</t>
+        </is>
+      </c>
       <c r="D489" t="n">
         <v>1</v>
       </c>
@@ -9940,17 +9940,17 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>νονά</t>
+          <t>νονέ</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>νονά</t>
+          <t>νονός</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -9960,17 +9960,17 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>νονέ</t>
+          <t>νούρα</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>νονός</t>
+          <t>νωρίς</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D491" t="n">
@@ -9980,17 +9980,17 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>νούρα</t>
+          <t>ντίου</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>νωρίς</t>
+          <t>χτυπώ</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -10000,12 +10000,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ντίου</t>
+          <t>ντιζικίχου</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>χτυπώ</t>
+          <t>πειράζω, ενοχλώ</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -10020,17 +10020,17 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ντιζικίχου</t>
+          <t>ντουµάτα</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>πειράζω, ενοχλώ</t>
+          <t>ντομάτα</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -10040,17 +10040,17 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ντουµάτα</t>
+          <t>ντούρμα</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>ντομάτα</t>
+          <t>μόλις</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -10060,17 +10060,17 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ντούρμα</t>
+          <t>ντρέα</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>μόλις</t>
+          <t>ζαλάδα</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -10080,17 +10080,17 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ντρέα</t>
+          <t>ντρυνικό</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>ζαλάδα</t>
+          <t>μεγάλο καλάθι, τρυγοκόφινο</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -10100,17 +10100,17 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ντρυνικό</t>
+          <t>ντόκιε</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>μεγάλο καλάθι, τρυγοκόφινο</t>
+          <t>ντόπιος</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Ε3</t>
         </is>
       </c>
       <c r="D498" t="n">
@@ -10120,17 +10120,17 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ντόκιε</t>
+          <t>νυγδαλ̣ία</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>ντόπιος</t>
+          <t>αμυγδαλιά</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Ε3</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D499" t="n">
@@ -10140,17 +10140,17 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>νυγδαλ̣ία</t>
+          <t>νύξα</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>αμυγδαλιά</t>
+          <t>μύξα</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -10160,17 +10160,17 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>νύξα</t>
+          <t>ξάφου</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>μύξα</t>
+          <t>χτυπώ ξαφνικά</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D501" t="n">
@@ -10180,19 +10180,15 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ξάφου</t>
+          <t>ξέρου</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>χτυπώ ξαφνικά</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>Ρ</t>
-        </is>
-      </c>
+          <t>ξέρω</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr"/>
       <c r="D502" t="n">
         <v>1</v>
       </c>
@@ -10200,15 +10196,19 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ξέρου</t>
+          <t>ξίδι</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>ξέρω</t>
-        </is>
-      </c>
-      <c r="C503" t="inlineStr"/>
+          <t>ξίδι</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Υ</t>
+        </is>
+      </c>
       <c r="D503" t="n">
         <v>1</v>
       </c>
@@ -10216,17 +10216,17 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ξίδι</t>
+          <t>ξεικάζου</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>ξίδι</t>
+          <t>κοιτάζω</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -10236,7 +10236,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ξεικάζου</t>
+          <t>ξεκάζου</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -10256,17 +10256,17 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ξεκάζου</t>
+          <t>ξενοδοχείο</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>κοιτάζω</t>
+          <t>ξενοδοχείο</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D506" t="n">
@@ -10276,17 +10276,17 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ξενοδοχείο</t>
+          <t>ξερίχου</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ξενοδοχείο</t>
+          <t>ρίχνω, πετάω</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -10296,12 +10296,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ξερίχου</t>
+          <t>ξεχαίνου</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>ρίχνω, πετάω</t>
+          <t>ξεχνάω</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -10316,17 +10316,17 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ξεχαίνου</t>
+          <t>ξημέρουμα</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>ξεχνάω</t>
+          <t>ξημέρομα</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D509" t="n">
@@ -10336,17 +10336,17 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ξημέρουμα</t>
+          <t>ξηούκ̇ου</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>ξημέρομα</t>
+          <t>ξηλώνω</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D510" t="n">
@@ -10356,17 +10356,17 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ξηούκ̇ου</t>
+          <t>ξωστάγι</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>ξηλώνω</t>
+          <t>εξώστης</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D511" t="n">
@@ -10376,19 +10376,15 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ξωστάγι</t>
+          <t>ο</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>εξώστης</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>Υ3</t>
-        </is>
-      </c>
+          <t>ο; Δεν</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr"/>
       <c r="D512" t="n">
         <v>1</v>
       </c>
@@ -10396,15 +10392,19 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ο</t>
+          <t>ογί</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ο; Δεν</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr"/>
+          <t>εδώ</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Ζ</t>
+        </is>
+      </c>
       <c r="D513" t="n">
         <v>1</v>
       </c>
@@ -10412,19 +10412,15 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ογί</t>
+          <t>οκτώμπρη</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>εδώ</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>Ζ</t>
-        </is>
-      </c>
+          <t>οκτώβριος</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr"/>
       <c r="D514" t="n">
         <v>1</v>
       </c>
@@ -10432,15 +10428,19 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>οκτώμπρη</t>
+          <t>οπά</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>οκτώβριος</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr"/>
+          <t>εκεί</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Ζ</t>
+        </is>
+      </c>
       <c r="D515" t="n">
         <v>1</v>
       </c>
@@ -10448,12 +10448,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>οπά</t>
+          <t>οπατζά</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>εκεί</t>
+          <t>απέναντι</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -10468,17 +10468,17 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>οπατζά</t>
+          <t>οργούκ̇ου</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>απέναντι</t>
+          <t>οργώνω</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -10488,12 +10488,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>οργούκ̇ου</t>
+          <t>ορού</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>οργώνω</t>
+          <t>βλέπω</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10508,12 +10508,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ορού</t>
+          <t>ορούμενε</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>βλέπω</t>
+          <t>φαίνομαι</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -10528,17 +10528,17 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ορούμενε</t>
+          <t>ουρίδα</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>φαίνομαι</t>
+          <t>λουρίδα</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -10548,17 +10548,17 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ουρίδα</t>
+          <t>ούθι</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>λουρίδα</t>
+          <t>φίδι</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Α0</t>
         </is>
       </c>
       <c r="D521" t="n">
@@ -10568,19 +10568,15 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ούθι</t>
+          <t>ούρα</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>φίδι</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>Α0</t>
-        </is>
-      </c>
+          <t>ώρα</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr"/>
       <c r="D522" t="n">
         <v>1</v>
       </c>
@@ -10588,15 +10584,19 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ούρα</t>
+          <t>ούτε</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>ώρα</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr"/>
+          <t>ούτε</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Ζ</t>
+        </is>
+      </c>
       <c r="D523" t="n">
         <v>1</v>
       </c>
@@ -10604,17 +10604,17 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ούτε</t>
+          <t>π̇άντι</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ούτε</t>
+          <t>σπάρτο</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -10624,17 +10624,17 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>π̇άντι</t>
+          <t>π̇έλεχα</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>σπάρτο</t>
+          <t>αρουραίος</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -10644,17 +10644,17 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>π̇έλεχα</t>
+          <t>π̇έντζικα</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>αρουραίος</t>
+          <t>πέρδικα</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D526" t="n">
@@ -10664,19 +10664,15 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>π̇έντζικα</t>
+          <t>π̇ίτια</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>πέρδικα</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>Θ1</t>
-        </is>
-      </c>
+          <t>χυλοπίτες</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr"/>
       <c r="D527" t="n">
         <v>1</v>
       </c>
@@ -10684,51 +10680,55 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>π̇ίτια</t>
+          <t>π̇είρου</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>χυλοπίτες</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="n">
-        <v>1</v>
-      </c>
+          <t>σπείρω</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Ρ</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>π̇είρου</t>
+          <t>π̇η</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>σπείρω</t>
+          <t>που</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Ρ</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
+          <t>Ζ</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>π̇η</t>
+          <t>π̇ιτόκαλε</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>που</t>
+          <t>πλάστης</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -10738,17 +10738,17 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>π̇ιτόκαλε</t>
+          <t>π̇ογκικό</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>πλάστης</t>
+          <t>ποντικός</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D531" t="n">
@@ -10758,17 +10758,17 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>π̇ογκικό</t>
+          <t>π̇ουντέχου</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>ποντικός</t>
+          <t>σβήνω</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -10778,17 +10778,17 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>π̇ουντέχου</t>
+          <t>πάκα</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>σβήνω</t>
+          <t>μεταλλική πλάκα</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -10798,17 +10798,17 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>πάκα</t>
+          <t>πάλι</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>μεταλλική πλάκα</t>
+          <t>πάλι</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -10818,17 +10818,17 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>πάλι</t>
+          <t>πάπουμα</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>πάλι</t>
+          <t>πάπλωμα</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D535" t="n">
@@ -10838,17 +10838,17 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>πάπουμα</t>
+          <t>πάσ̌ου</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>πάπλωμα</t>
+          <t>πολύ</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D536" t="n">
@@ -10858,53 +10858,53 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>πάσ̌ου</t>
+          <t>πάσα μέρα</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>πολύ</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>Ζ</t>
-        </is>
-      </c>
+          <t>καθημερινά</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
       <c r="D537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>πάσα μέρα</t>
+          <t>πάφου</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>καθημερινά</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr"/>
+          <t>παύω,σταματάω</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Ρ</t>
+        </is>
+      </c>
       <c r="D538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>πάφου</t>
+          <t>πέντανε</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>παύω,σταματάω</t>
+          <t>πέμπτος</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Ε3</t>
         </is>
       </c>
       <c r="D539" t="n">
@@ -10914,17 +10914,17 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>πέντανε</t>
+          <t>πέρε</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>πέμπτος</t>
+          <t>πέρα</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Ε3</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -10934,19 +10934,15 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>πέρε</t>
+          <t>πέτσ̌ε</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>πέρα</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>Ζ</t>
-        </is>
-      </c>
+          <t>πέτρα</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr"/>
       <c r="D541" t="n">
         <v>1</v>
       </c>
@@ -10954,12 +10950,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>πέτσ̌ε</t>
+          <t>πέφτα</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>πέτρα</t>
+          <t>Πέμπτη</t>
         </is>
       </c>
       <c r="C542" t="inlineStr"/>
@@ -10970,15 +10966,19 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>πέφτα</t>
+          <t>παιχνίδι</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Πέμπτη</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr"/>
+          <t>παιχνίδι</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Υ</t>
+        </is>
+      </c>
       <c r="D543" t="n">
         <v>1</v>
       </c>
@@ -10986,17 +10986,17 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>παιχνίδι</t>
+          <t>παναθούρι</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>παιχνίδι</t>
+          <t>παράθυρο</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D544" t="n">
@@ -11006,17 +11006,17 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>παναθούρι</t>
+          <t>παντέχου</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>παράθυρο</t>
+          <t>περιμένω</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D545" t="n">
@@ -11026,17 +11026,17 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>παντέχου</t>
+          <t>παντελόνι</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>περιμένω</t>
+          <t>παντελόνι</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D546" t="n">
@@ -11046,19 +11046,15 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>παντελόνι</t>
+          <t>παξιμάδι</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>παντελόνι</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>Υ</t>
-        </is>
-      </c>
+          <t>παξιμάδι</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr"/>
       <c r="D547" t="n">
         <v>1</v>
       </c>
@@ -11066,53 +11062,53 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>παξιμάδι</t>
+          <t>παπά</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>παξιμάδι</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr"/>
-      <c r="D548" t="n">
-        <v>1</v>
-      </c>
+          <t>παπάς</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Α</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>παπά</t>
+          <t>παππού</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>παπάς</t>
+          <t>παππούς</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Α</t>
-        </is>
-      </c>
-      <c r="D549" t="inlineStr"/>
+          <t>Α5</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>παππού</t>
+          <t>παράστσι</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>παππούς</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>Α5</t>
-        </is>
-      </c>
+          <t>Παρασκευή</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr"/>
       <c r="D550" t="n">
         <v>1</v>
       </c>
@@ -11120,15 +11116,19 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>παράστσι</t>
+          <t>παρέα</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Παρασκευή</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr"/>
+          <t>παρέα</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Θ</t>
+        </is>
+      </c>
       <c r="D551" t="n">
         <v>1</v>
       </c>
@@ -11136,17 +11136,17 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>παρέα</t>
+          <t>παρίου</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>παρέα</t>
+          <t>έρχομαι</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D552" t="n">
@@ -11156,12 +11156,12 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>παρίου</t>
+          <t>παραθαρρού</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>έρχομαι</t>
+          <t>χαλαρώνω την προσοχή μου</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -11176,17 +11176,17 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>παραθαρρού</t>
+          <t>παρανύθι</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>χαλαρώνω την προσοχή μου</t>
+          <t>παραμύθι</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D554" t="n">
@@ -11196,17 +11196,17 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>παρανύθι</t>
+          <t>παρατάνου</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>παραμύθι</t>
+          <t>παραπάνω, πιο πάνω</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -11216,17 +11216,17 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>παρατάνου</t>
+          <t>παστσήρι</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>παραπάνω, πιο πάνω</t>
+          <t>πλαστήρι</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D556" t="n">
@@ -11236,17 +11236,17 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>παστσήρι</t>
+          <t>παχιού</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>πλαστήρι</t>
+          <t>παχύς</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ε7</t>
         </is>
       </c>
       <c r="D557" t="n">
@@ -11256,17 +11256,17 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>παχιού</t>
+          <t>πεάγο</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>παχύς</t>
+          <t>πέλαγος</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Ε7</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -11276,17 +11276,17 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>πεάγο</t>
+          <t>πενάκ̇ου</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>πέλαγος</t>
+          <t>πεθαίνω</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -11296,17 +11296,17 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>πενάκ̇ου</t>
+          <t>πεντακάθαρε</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>πεθαίνω</t>
+          <t>πεντακάθαρος</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Ε3</t>
         </is>
       </c>
       <c r="D560" t="n">
@@ -11316,17 +11316,17 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>πεντακάθαρε</t>
+          <t>περαΐχου</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>πεντακάθαρος</t>
+          <t>περνάω</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Ε3</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D561" t="n">
@@ -11336,12 +11336,12 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>περαΐχου</t>
+          <t>περού</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>περνάω</t>
+          <t>περνώ</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -11356,17 +11356,17 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>περού</t>
+          <t>πετραχήλι</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>περνώ</t>
+          <t>πετραχήλι</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D563" t="n">
@@ -11376,32 +11376,30 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>πετραχήλι</t>
+          <t>πιο</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>πετραχήλι</t>
+          <t>πιο</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Υ</t>
-        </is>
-      </c>
-      <c r="D564" t="n">
-        <v>1</v>
-      </c>
+          <t>Ζ</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>πιο</t>
+          <t>πλέα</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>πιο</t>
+          <t>πιά, επιτέλους</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -11409,17 +11407,19 @@
           <t>Ζ</t>
         </is>
       </c>
-      <c r="D565" t="inlineStr"/>
+      <c r="D565" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>πλέα</t>
+          <t>πλέτερα</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>πιά, επιτέλους</t>
+          <t>περισσότερα</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -11428,38 +11428,34 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>πλέτερα</t>
+          <t>πλέτερε</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>περισσότερα</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>Ζ</t>
-        </is>
-      </c>
+          <t>περισσότερος</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr"/>
       <c r="D567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>πλέτερε</t>
+          <t>πλέτεριου</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>περισσότερος</t>
+          <t>περισσότερο</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
@@ -11470,15 +11466,19 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>πλέτεριου</t>
+          <t>πλερωνή</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>περισσότερο</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr"/>
+          <t>πληρομή</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Θ</t>
+        </is>
+      </c>
       <c r="D569" t="n">
         <v>1</v>
       </c>
@@ -11486,12 +11486,12 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>πλερωνή</t>
+          <t>πλεύρα</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>πληρομή</t>
+          <t>πλεύρα</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -11499,19 +11499,17 @@
           <t>Θ</t>
         </is>
       </c>
-      <c r="D570" t="n">
-        <v>1</v>
-      </c>
+      <c r="D570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>πλεύρα</t>
+          <t>πληροφορία</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>πλεύρα</t>
+          <t>πληροφορία</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -11519,42 +11517,44 @@
           <t>Θ</t>
         </is>
       </c>
-      <c r="D571" t="inlineStr"/>
+      <c r="D571" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>πληροφορία</t>
+          <t>ποίου</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>πληροφορία</t>
+          <t>κάνω</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D572" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ποίου</t>
+          <t>ποκήρι</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>κάνω</t>
+          <t>ποτήρι</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D573" t="n">
@@ -11564,17 +11564,17 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ποκήρι</t>
+          <t>ποκίχου</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>ποτήρι</t>
+          <t>ποτίζω</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D574" t="n">
@@ -11584,17 +11584,17 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ποκίχου</t>
+          <t>πολίτα</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>ποτίζω</t>
+          <t>πολίτης</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D575" t="n">
@@ -11604,52 +11604,52 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>πολίτα</t>
+          <t>πομονή</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>πολίτης</t>
+          <t>υπομονή</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D576" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>πομονή</t>
+          <t>πορεία</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>υπομονή</t>
+          <t>δρόμος</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>πορεία</t>
+          <t>πορτοκαλ̣ία</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>δρόμος</t>
+          <t>πορτοκαλιά</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -11664,17 +11664,17 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>πορτοκαλ̣ία</t>
+          <t>ποτάσσου</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>πορτοκαλιά</t>
+          <t>φτουράω</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D579" t="n">
@@ -11684,17 +11684,17 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ποτάσσου</t>
+          <t>ποταμό</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>φτουράω</t>
+          <t>ποταμός</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D580" t="n">
@@ -11704,17 +11704,17 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ποταμό</t>
+          <t>ποτσούνου</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>ποταμός</t>
+          <t>φορτώνω</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D581" t="n">
@@ -11724,12 +11724,12 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ποτσούνου</t>
+          <t>που</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>φορτώνω</t>
+          <t>πουλάω</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -11744,19 +11744,15 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>που</t>
+          <t>πουλί</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>πουλάω</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>Ρ</t>
-        </is>
-      </c>
+          <t>πουλί</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr"/>
       <c r="D583" t="n">
         <v>1</v>
       </c>
@@ -11764,15 +11760,19 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>πουλί</t>
+          <t>πουρτέσε</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>πουλί</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
+          <t>μπροστά</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Ζ</t>
+        </is>
+      </c>
       <c r="D584" t="n">
         <v>1</v>
       </c>
@@ -11780,17 +11780,17 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>πουρτέσε</t>
+          <t>πούα</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>μπροστά</t>
+          <t>πόδι</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Α2</t>
         </is>
       </c>
       <c r="D585" t="n">
@@ -11800,17 +11800,17 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>πούα</t>
+          <t>πράμα</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>πόδι</t>
+          <t>πράγμα</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Α2</t>
+          <t>Υ2</t>
         </is>
       </c>
       <c r="D586" t="n">
@@ -11820,17 +11820,17 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>πράμα</t>
+          <t>πράνα</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>πράγμα</t>
+          <t>κόπανος</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Υ2</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D587" t="n">
@@ -11840,19 +11840,15 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>πράνα</t>
+          <t>πρέσ̌ου</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>κόπανος</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>Θ1</t>
-        </is>
-      </c>
+          <t>πολύ</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr"/>
       <c r="D588" t="n">
         <v>1</v>
       </c>
@@ -11860,15 +11856,19 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>πρέσ̌ου</t>
+          <t>πρίγγου</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>πολύ</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
+          <t>πνίγω</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Ρ</t>
+        </is>
+      </c>
       <c r="D589" t="n">
         <v>1</v>
       </c>
@@ -11876,17 +11876,17 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>πρίγγου</t>
+          <t>πρίνε</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>πνίγω</t>
+          <t>πουρνάρι</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α3</t>
         </is>
       </c>
       <c r="D590" t="n">
@@ -11896,17 +11896,17 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>πρίνε</t>
+          <t>πρακιού</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>πουρνάρι</t>
+          <t>πλατύς</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Α3</t>
+          <t>Ε7</t>
         </is>
       </c>
       <c r="D591" t="n">
@@ -11916,17 +11916,17 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>πρακιού</t>
+          <t>πρακτορείε</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>πλατύς</t>
+          <t>πρακτορείο</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Ε7</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D592" t="n">
@@ -11936,17 +11936,17 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>πρακτορείε</t>
+          <t>πρεσ̌ού</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>πρακτορείο</t>
+          <t>πολύ</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D593" t="n">
@@ -11956,17 +11956,17 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>πρεσ̌ού</t>
+          <t>πρεσσέ</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>πολύ</t>
+          <t>πολύς</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Ε1</t>
         </is>
       </c>
       <c r="D594" t="n">
@@ -11976,17 +11976,17 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>πρεσσέ</t>
+          <t>προίκα</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>πολύς</t>
+          <t>προίκα</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Ε1</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D595" t="n">
@@ -11996,12 +11996,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>προίκα</t>
+          <t>προφορά</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>προίκα</t>
+          <t>προφορά</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -12010,61 +12010,61 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>προφορά</t>
+          <t>προχωρού</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>προφορά</t>
+          <t>προχωράω</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Θ</t>
-        </is>
-      </c>
-      <c r="D597" t="n">
-        <v>2</v>
-      </c>
+          <t>Ρ</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>προχωρού</t>
+          <t>προϊόν</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>προχωράω</t>
+          <t>προϊόν</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Ρ</t>
-        </is>
-      </c>
-      <c r="D598" t="inlineStr"/>
+          <t>Υ6</t>
+        </is>
+      </c>
+      <c r="D598" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>προϊόν</t>
+          <t>προύατε</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>προϊόν</t>
+          <t>πρόβατο</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Υ6</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D599" t="n">
@@ -12074,55 +12074,55 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>προύατε</t>
+          <t>πρόσφορα</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>πρόβατο</t>
+          <t>πρόσφορα</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Υ1</t>
-        </is>
-      </c>
-      <c r="D600" t="n">
-        <v>1</v>
-      </c>
+          <t>Θ</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>πρόσφορα</t>
+          <t>πρώτε</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>πρόσφορα</t>
+          <t>πρότος</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Θ</t>
-        </is>
-      </c>
-      <c r="D601" t="inlineStr"/>
+          <t>Ε2</t>
+        </is>
+      </c>
+      <c r="D601" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>πρώτε</t>
+          <t>πόρε</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>πρότος</t>
+          <t>πόρτα</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Ε2</t>
+          <t>Α3</t>
         </is>
       </c>
       <c r="D602" t="n">
@@ -12132,19 +12132,15 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>πόρε</t>
+          <t>πόσ̌ου</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>πόρτα</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr">
-        <is>
-          <t>Α3</t>
-        </is>
-      </c>
+          <t>πόσο</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr"/>
       <c r="D603" t="n">
         <v>1</v>
       </c>
@@ -12152,15 +12148,19 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>πόσ̌ου</t>
+          <t>ροΐδι</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>πόσο</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
+          <t>ρόδι</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Υ</t>
+        </is>
+      </c>
       <c r="D604" t="n">
         <v>1</v>
       </c>
@@ -12168,12 +12168,12 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ροΐδι</t>
+          <t>ρολόγι</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>ρόδι</t>
+          <t>ρολοϊ</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -12188,17 +12188,17 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>ρολόγι</t>
+          <t>ρουφάλι</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>ρολοϊ</t>
+          <t>κατσικάκι</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D606" t="n">
@@ -12208,17 +12208,17 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ρουφάλι</t>
+          <t>ρωτού</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>κατσικάκι</t>
+          <t>ρωτάω</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D607" t="n">
@@ -12228,17 +12228,17 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>ρωτού</t>
+          <t>σ̌ίνα</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>ρωτάω</t>
+          <t>βουνό</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D608" t="n">
@@ -12248,17 +12248,17 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>σ̌ίνα</t>
+          <t>σ̌ίνακα</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>βουνό</t>
+          <t>δικριάνι</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>Α3</t>
         </is>
       </c>
       <c r="D609" t="n">
@@ -12268,17 +12268,17 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>σ̌ίνακα</t>
+          <t>σ̌ίντα</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>δικριάνι</t>
+          <t>ρίζα</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Α3</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D610" t="n">
@@ -12288,17 +12288,17 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>σ̌ίντα</t>
+          <t>σ̌κόκι</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>ρίζα</t>
+          <t>σηκώτι</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D611" t="n">
@@ -12308,19 +12308,15 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>σ̌κόκι</t>
+          <t>σ̌οβά</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>σηκώτι</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>Υ3</t>
-        </is>
-      </c>
+          <t>στραβά, λοξά, αριστερά</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr"/>
       <c r="D612" t="n">
         <v>1</v>
       </c>
@@ -12328,15 +12324,19 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>σ̌οβά</t>
+          <t>σ̌ομό</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>στραβά, λοξά, αριστερά</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
+          <t>φαγητό, φαΐ</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Υ1</t>
+        </is>
+      </c>
       <c r="D613" t="n">
         <v>1</v>
       </c>
@@ -12344,17 +12344,17 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>σ̌ομό</t>
+          <t>σ̌ονίχου</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>φαγητό, φαΐ</t>
+          <t>ζεσταίνω</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D614" t="n">
@@ -12364,17 +12364,17 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>σ̌ονίχου</t>
+          <t>σ̌ουκο</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>ζεσταίνω</t>
+          <t>μύτι</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -12384,17 +12384,17 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>σ̌ουκο</t>
+          <t>σάκ̇ο</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>μύτι</t>
+          <t>σακί</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Α3</t>
         </is>
       </c>
       <c r="D616" t="n">
@@ -12404,17 +12404,17 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>σάκ̇ο</t>
+          <t>σάματσι</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>σακί</t>
+          <t>μήπως</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Α3</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D617" t="n">
@@ -12424,12 +12424,12 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>σάματσι</t>
+          <t>σάμερε</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>μήπως</t>
+          <t>σήμερα</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -12444,19 +12444,15 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>σάμερε</t>
+          <t>σάμπα</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>σήμερα</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>Ζ</t>
-        </is>
-      </c>
+          <t>Σάββατο</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr"/>
       <c r="D619" t="n">
         <v>1</v>
       </c>
@@ -12464,15 +12460,19 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>σάμπα</t>
+          <t>σάτη</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Σάββατο</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
+          <t>κόρη</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Θ0</t>
+        </is>
+      </c>
       <c r="D620" t="n">
         <v>1</v>
       </c>
@@ -12480,17 +12480,17 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>σάτη</t>
+          <t>σάτσι</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>κόρη</t>
+          <t>φέτος</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Θ0</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D621" t="n">
@@ -12500,17 +12500,17 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>σάτσι</t>
+          <t>σίδερε</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>φέτος</t>
+          <t>σίδερο</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D622" t="n">
@@ -12520,17 +12520,17 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>σίδερε</t>
+          <t>σακάτ͡σι</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>σίδερο</t>
+          <t>σακάκι</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D623" t="n">
@@ -12540,17 +12540,17 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>σακάτσ̇ι</t>
+          <t>σαλέγγου</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>σακάκι</t>
+          <t>κινούμαι</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D624" t="n">
@@ -12560,55 +12560,55 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>σαλέγγου</t>
+          <t>σαμάρι</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>κινούμαι</t>
+          <t>σαμάρι</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Ρ</t>
-        </is>
-      </c>
-      <c r="D625" t="n">
-        <v>1</v>
-      </c>
+          <t>Υ</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>σαμάρι</t>
+          <t>σαν</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>σαμάρι</t>
+          <t>σαν</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Υ</t>
-        </is>
-      </c>
-      <c r="D626" t="inlineStr"/>
+          <t>Ζ</t>
+        </is>
+      </c>
+      <c r="D626" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>σαν</t>
+          <t>σαπρίου</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>σαν</t>
+          <t>σαπίζω</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D627" t="n">
@@ -12618,17 +12618,17 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>σαπρίου</t>
+          <t>σαρακοστά</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>σαπίζω</t>
+          <t>σαρακοστή</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D628" t="n">
@@ -12638,17 +12638,17 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>σαρακοστά</t>
+          <t>σατσινέ</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>σαρακοστή</t>
+          <t>φετινός</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Ε1</t>
         </is>
       </c>
       <c r="D629" t="n">
@@ -12658,19 +12658,15 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>σατσινέ</t>
+          <t>σερικ̇ή</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>φετινός</t>
-        </is>
-      </c>
-      <c r="C630" t="inlineStr">
-        <is>
-          <t>Ε1</t>
-        </is>
-      </c>
+          <t>ιούνιος</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr"/>
       <c r="D630" t="n">
         <v>1</v>
       </c>
@@ -12683,10 +12679,14 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>ιούνιος</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr"/>
+          <t>θεριστής</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Α</t>
+        </is>
+      </c>
       <c r="D631" t="n">
         <v>1</v>
       </c>
@@ -12694,19 +12694,15 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>σερικ̇ή</t>
+          <t>σετέμπρη</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>θεριστής</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr">
-        <is>
-          <t>Α</t>
-        </is>
-      </c>
+          <t>σεπτέμβριος</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr"/>
       <c r="D632" t="n">
         <v>1</v>
       </c>
@@ -12714,15 +12710,19 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>σετέμπρη</t>
+          <t>σιδερόμισ̌α</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>σεπτέμβριος</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr"/>
+          <t>τρυπητή</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Θ1</t>
+        </is>
+      </c>
       <c r="D633" t="n">
         <v>1</v>
       </c>
@@ -12730,17 +12730,17 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>σιδερόμισ̌α</t>
+          <t>σιρόπι</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>τρυπητή</t>
+          <t>σιρόπι</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D634" t="n">
@@ -12750,17 +12750,17 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>σιρόπι</t>
+          <t>σκα</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>σιρόπι</t>
+          <t>σκάλα</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Θ2</t>
         </is>
       </c>
       <c r="D635" t="n">
@@ -12770,17 +12770,17 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>σκα</t>
+          <t>σκαρμούκ̇ου</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>σκάλα</t>
+          <t>ξαφνιάζω, τρομάζω</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Θ2</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D636" t="n">
@@ -12790,19 +12790,15 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>σκαρμούκ̇ου</t>
+          <t>σκορδαλ̣ία</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>ξαφνιάζω, τρομάζω</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr">
-        <is>
-          <t>Ρ</t>
-        </is>
-      </c>
+          <t>σκορδαλιά</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr"/>
       <c r="D637" t="n">
         <v>1</v>
       </c>
@@ -12810,15 +12806,19 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>σκορδαλ̣ία</t>
+          <t>σκουπίζου</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>σκορδαλιά</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr"/>
+          <t>σκουπίζω</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Ρ</t>
+        </is>
+      </c>
       <c r="D638" t="n">
         <v>1</v>
       </c>
@@ -12826,17 +12826,17 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>σκουπίζου</t>
+          <t>σκουτέα</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>σκουπίζω</t>
+          <t>βαθύ πιάτο</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ2</t>
         </is>
       </c>
       <c r="D639" t="n">
@@ -12846,17 +12846,17 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>σκουτέα</t>
+          <t>σκούντι</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>βαθύ πιάτο</t>
+          <t>σκόρδο</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Θ2</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D640" t="n">
@@ -12866,17 +12866,17 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>σκούντι</t>
+          <t>σκωρού</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>σκόρδο</t>
+          <t>συγχωρώ</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D641" t="n">
@@ -12886,17 +12886,17 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>σκωρού</t>
+          <t>σκόπουλε</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>συγχωρώ</t>
+          <t>τουλούμι</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D642" t="n">
@@ -12906,17 +12906,17 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>σκόπουλε</t>
+          <t>σοβαρέ</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>τουλούμι</t>
+          <t>σοβαρός</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Ε</t>
         </is>
       </c>
       <c r="D643" t="n">
@@ -12926,17 +12926,17 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>σοβαρέ</t>
+          <t>σουσκούμενε</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>σοβαρός</t>
+          <t>τελειώνω</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Ε</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D644" t="n">
@@ -12946,17 +12946,17 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>σουσκούμενε</t>
+          <t>σοφρά</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>τελειώνω</t>
+          <t>χαμηλό τραπέζι</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α5</t>
         </is>
       </c>
       <c r="D645" t="n">
@@ -12966,17 +12966,17 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>σοφρά</t>
+          <t>σούκο</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>χαμηλό τραπέζι</t>
+          <t>σύκο</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Α5</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D646" t="n">
@@ -12986,17 +12986,17 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>σούκο</t>
+          <t>σούνου</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>σύκο</t>
+          <t>φτάνω; σώζω</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D647" t="n">
@@ -13006,17 +13006,17 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>σούνου</t>
+          <t>σπήλ̣ι</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>φτάνω; σώζω</t>
+          <t>σπηλιά</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D648" t="n">
@@ -13026,17 +13026,17 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>σπήλ̣ι</t>
+          <t>σπιθαμιά</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>σπηλιά</t>
+          <t>πιθαμή</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D649" t="n">
@@ -13046,12 +13046,12 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>σπιθαμιά</t>
+          <t>στέφανα</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>πιθαμή</t>
+          <t>στέφανα</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -13066,17 +13066,17 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>στέφανα</t>
+          <t>σταγόνι</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>στέφανα</t>
+          <t>σαγόνι</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D651" t="n">
@@ -13086,17 +13086,17 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>σταγόνι</t>
+          <t>στενοχωρέγγου</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>σαγόνι</t>
+          <t>στενοχωρώ</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Υ3</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D652" t="n">
@@ -13106,7 +13106,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>στενοχωρέγγου</t>
+          <t>στενοχωρού</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -13120,43 +13120,43 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>στενοχωρού</t>
+          <t>στερέουση</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>στενοχωρώ</t>
+          <t>στερέωση</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>στερέουση</t>
+          <t>στοίχημα</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>στερέωση</t>
+          <t>στοίχημα</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Υ2</t>
         </is>
       </c>
       <c r="D655" t="n">
@@ -13166,17 +13166,17 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>στοίχημα</t>
+          <t>στομάχι</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>στοίχημα</t>
+          <t>στομάχι</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Υ2</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D656" t="n">
@@ -13186,12 +13186,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>στομάχι</t>
+          <t>στρέμμα</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>στομάχι</t>
+          <t>στρέμμα</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -13206,57 +13206,53 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>στρέμμα</t>
+          <t>στσεγκουμένε</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>στρέμμα</t>
+          <t>σκέφτομαι</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Υ</t>
-        </is>
-      </c>
-      <c r="D658" t="n">
-        <v>1</v>
-      </c>
+          <t>Ρ</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>στσεγκουμένε</t>
+          <t>στσεπή</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>σκέφτομαι</t>
+          <t>σκεπή</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Ρ</t>
-        </is>
-      </c>
-      <c r="D659" t="inlineStr"/>
+          <t>Θ1</t>
+        </is>
+      </c>
+      <c r="D659" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>στσεπή</t>
+          <t>συγγενήδε</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>σκεπή</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>Θ1</t>
-        </is>
-      </c>
+          <t>συγγενείς</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
       <c r="D660" t="n">
         <v>1</v>
       </c>
@@ -13264,15 +13260,19 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>συγγενήδε</t>
+          <t>συμφωνού</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>συγγενείς</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr"/>
+          <t>συμφωνώ</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Ρ</t>
+        </is>
+      </c>
       <c r="D661" t="n">
         <v>1</v>
       </c>
@@ -13280,17 +13280,17 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>συμφωνού</t>
+          <t>συντζά</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>συμφωνώ</t>
+          <t>συκιά</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ3</t>
         </is>
       </c>
       <c r="D662" t="n">
@@ -13300,17 +13300,17 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>συντζά</t>
+          <t>συντζενικά</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>συκιά</t>
+          <t>κουνιάδα</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Θ3</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -13320,17 +13320,17 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>συντζενικά</t>
+          <t>συντζενικό</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>κουνιάδα</t>
+          <t>κουνιάδος</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D664" t="n">
@@ -13340,19 +13340,15 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>συντζενικό</t>
+          <t>συχωρού</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>κουνιάδος</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr">
-        <is>
-          <t>Α1</t>
-        </is>
-      </c>
+          <t>συγχωρώ</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
       <c r="D665" t="n">
         <v>1</v>
       </c>
@@ -13360,15 +13356,19 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>συχωρού</t>
+          <t>σχέδιε</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>συγχωρώ</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr"/>
+          <t>σχέδιο</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Υ</t>
+        </is>
+      </c>
       <c r="D666" t="n">
         <v>1</v>
       </c>
@@ -13376,17 +13376,17 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>σχέδιε</t>
+          <t>σχεδόν</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>σχέδιο</t>
+          <t>σχεδόν</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D667" t="n">
@@ -13396,17 +13396,17 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>σχεδόν</t>
+          <t>σχολείε</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>σχεδόν</t>
+          <t>σχολείο</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D668" t="n">
@@ -13416,17 +13416,17 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>σχολείε</t>
+          <t>σύμφωνος</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>σχολείο</t>
+          <t>σύμφωνε</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ε</t>
         </is>
       </c>
       <c r="D669" t="n">
@@ -13436,17 +13436,17 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>σύμφωνος</t>
+          <t>σύνταχα</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>σύμφωνε</t>
+          <t>πρωί</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Ε</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D670" t="n">
@@ -13456,17 +13456,17 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>σύνταχα</t>
+          <t>τ̇αΐχου</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>πρωί</t>
+          <t>σηκώνω</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D671" t="n">
@@ -13476,12 +13476,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>τ̇αΐχου</t>
+          <t>τ̇αίνου</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>σηκώνω</t>
+          <t>σηκώνομαι</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -13496,17 +13496,17 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>τ̇αίνου</t>
+          <t>τ̇ούμα</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>σηκώνομαι</t>
+          <t>στόμα</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ2</t>
         </is>
       </c>
       <c r="D673" t="n">
@@ -13516,17 +13516,17 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>τ̇ούμα</t>
+          <t>τ͡σέα</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>στόμα</t>
+          <t>σπίτι</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Υ2</t>
+          <t>Θ2</t>
         </is>
       </c>
       <c r="D674" t="n">
@@ -13536,17 +13536,17 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>τάνου</t>
+          <t>τ͡σέραμο</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>πάνω</t>
+          <t>κεραμίδι</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Α3</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -13556,17 +13556,17 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>τάσου</t>
+          <t>τ͡σίνου</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>μέσα</t>
+          <t>ξεκινάω</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D676" t="n">
@@ -13576,19 +13576,15 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>τάτσου</t>
+          <t>τ͡σαι</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>έξω</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>Ζ</t>
-        </is>
-      </c>
+          <t>και</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr"/>
       <c r="D677" t="n">
         <v>1</v>
       </c>
@@ -13596,17 +13592,17 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>τέγανε</t>
+          <t>τ͡σαιρέ</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>τηγάνι</t>
+          <t>καιρός</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D678" t="n">
@@ -13616,17 +13612,17 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>τέντζερε</t>
+          <t>τ͡συδωνία</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>τέντζερο</t>
+          <t>κυδωνιά</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -13636,19 +13632,15 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>τέχρα</t>
+          <t>τ͡σόα</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>τέχνη</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>Θ</t>
-        </is>
-      </c>
+          <t>κιόλας</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr"/>
       <c r="D680" t="n">
         <v>1</v>
       </c>
@@ -13656,15 +13648,19 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>τίτιντα</t>
+          <t>τάνου</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Τέταρτη</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
+          <t>πάνω</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Ζ</t>
+        </is>
+      </c>
       <c r="D681" t="n">
         <v>1</v>
       </c>
@@ -13672,17 +13668,17 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>ταβά</t>
+          <t>τάσου</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>ταψί</t>
+          <t>μέσα</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Α5</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D682" t="n">
@@ -13692,35 +13688,37 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>ταγάρι</t>
+          <t>τάτσου</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>ταγάρι</t>
+          <t>έξω</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Υ</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
+          <t>Ζ</t>
+        </is>
+      </c>
+      <c r="D683" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>ταγίχου</t>
+          <t>τέγανε</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>ταΐζω</t>
+          <t>τηγάνι</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D684" t="n">
@@ -13730,17 +13728,17 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>τανασκ̇ρία</t>
+          <t>τέντζερε</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>μεθαύριο</t>
+          <t>τέντζερο</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D685" t="n">
@@ -13750,17 +13748,17 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>ταξί</t>
+          <t>τέχρα</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>ταξί</t>
+          <t>τέχνη</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D686" t="n">
@@ -13770,19 +13768,15 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>ταξίδι</t>
+          <t>τίτιντα</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>ταξίδι</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>Υ</t>
-        </is>
-      </c>
+          <t>Τέταρτη</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr"/>
       <c r="D687" t="n">
         <v>1</v>
       </c>
@@ -13790,17 +13784,17 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>τατσιπέρι</t>
+          <t>ταβά</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>προχθές</t>
+          <t>ταψί</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Α5</t>
         </is>
       </c>
       <c r="D688" t="n">
@@ -13810,37 +13804,35 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>ταχία</t>
+          <t>ταγάρι</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>αύριο</t>
+          <t>ταγάρι</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Ζ</t>
-        </is>
-      </c>
-      <c r="D689" t="n">
-        <v>1</v>
-      </c>
+          <t>Υ</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>τεγάνε</t>
+          <t>ταγίχου</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>τηγάνι</t>
+          <t>ταΐζω</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D690" t="n">
@@ -13850,17 +13842,17 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>τεμπελία</t>
+          <t>τανασκ̇ρία</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>τεμπελιά</t>
+          <t>μεθαύριο</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D691" t="n">
@@ -13870,17 +13862,17 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>τεσσάρατε</t>
+          <t>ταξί</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>τέταρτος</t>
+          <t>ταξί</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Ε3</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D692" t="n">
@@ -13890,17 +13882,17 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>τεσσεράδιπλε</t>
+          <t>ταξίδι</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>τετραπλός</t>
+          <t>ταξίδι</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Ε3</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D693" t="n">
@@ -13910,17 +13902,17 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>τιμωρού</t>
+          <t>τατσιπέρι</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>τιμωρώ</t>
+          <t>προχθές</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D694" t="n">
@@ -13930,15 +13922,19 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>το</t>
+          <t>ταχία</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>το</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
+          <t>αύριο</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Ζ</t>
+        </is>
+      </c>
       <c r="D695" t="n">
         <v>1</v>
       </c>
@@ -13946,17 +13942,17 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>το πέρατσε</t>
+          <t>τεγάνε</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>πέρυσι</t>
+          <t>τηγάνι</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D696" t="n">
@@ -13966,17 +13962,17 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>τοίχο</t>
+          <t>τεμπελία</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>τοίχος</t>
+          <t>τεμπελιά</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D697" t="n">
@@ -13986,17 +13982,17 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>του τσαιρού</t>
+          <t>τεσσάρατε</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>του χρόνου</t>
+          <t>τέταρτος</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Ε3</t>
         </is>
       </c>
       <c r="D698" t="n">
@@ -14006,15 +14002,19 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>τουρισμό</t>
+          <t>τεσσεράδιπλε</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>τουρισμός</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
+          <t>τετραπλός</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Ε3</t>
+        </is>
+      </c>
       <c r="D699" t="n">
         <v>1</v>
       </c>
@@ -14022,17 +14022,17 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>τρίδιπλε</t>
+          <t>τιμωρού</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>τριπλός</t>
+          <t>τιμωρώ</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Ε3</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D700" t="n">
@@ -14042,19 +14042,15 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>τρίτε</t>
+          <t>το</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>τρίτος</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>Ε3</t>
-        </is>
-      </c>
+          <t>το</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
       <c r="D701" t="n">
         <v>1</v>
       </c>
@@ -14062,17 +14058,17 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>τραβίντου</t>
+          <t>το πέρατσε</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>τραβάω</t>
+          <t>πέρυσι</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D702" t="n">
@@ -14082,12 +14078,12 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>τραγούδι</t>
+          <t>τοίχο</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>τραγούδι</t>
+          <t>τοίχος</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -14102,17 +14098,17 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>τραπέζι</t>
+          <t>του τσαιρού</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>τραπέζι</t>
+          <t>του χρόνου</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D704" t="n">
@@ -14122,19 +14118,15 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>τραχανά</t>
+          <t>τουρισμό</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>τραχανάς</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>Α</t>
-        </is>
-      </c>
+          <t>τουρισμός</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
       <c r="D705" t="n">
         <v>1</v>
       </c>
@@ -14142,17 +14134,17 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>τριχία</t>
+          <t>τρίδιπλε</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>τριχιά</t>
+          <t>τριπλός</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>Θ2</t>
+          <t>Ε3</t>
         </is>
       </c>
       <c r="D706" t="n">
@@ -14162,17 +14154,17 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>τρόπο</t>
+          <t>τρίτε</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>τρόπος</t>
+          <t>τρίτος</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Ε3</t>
         </is>
       </c>
       <c r="D707" t="n">
@@ -14182,17 +14174,17 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>τσ̇έα</t>
+          <t>τραβίντου</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>σπίτι</t>
+          <t>τραβάω</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Θ2</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -14202,17 +14194,17 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>τσ̇έραμο</t>
+          <t>τραγούδι</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>κεραμίδι</t>
+          <t>τραγούδι</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Α3</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D709" t="n">
@@ -14222,17 +14214,17 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>τσ̇ίνου</t>
+          <t>τραπέζι</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>ξεκινάω</t>
+          <t>τραπέζι</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D710" t="n">
@@ -14242,15 +14234,19 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>τσ̇αι</t>
+          <t>τραχανά</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>και</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
+          <t>τραχανάς</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Α</t>
+        </is>
+      </c>
       <c r="D711" t="n">
         <v>1</v>
       </c>
@@ -14258,17 +14254,17 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>τσ̇αιρέ</t>
+          <t>τριχία</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>καιρός</t>
+          <t>τριχιά</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Θ2</t>
         </is>
       </c>
       <c r="D712" t="n">
@@ -14278,17 +14274,17 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>τσ̇υδωνία</t>
+          <t>τρόπο</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>κυδωνιά</t>
+          <t>τρόπος</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D713" t="n">
@@ -14298,15 +14294,19 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>τσ̇όα</t>
+          <t>τσ̌άο</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>κιόλας</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
+          <t>τραγί</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Α2</t>
+        </is>
+      </c>
       <c r="D714" t="n">
         <v>1</v>
       </c>
@@ -14314,17 +14314,17 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>τσ̌άο</t>
+          <t>τσ̌άχημα</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>τραγί</t>
+          <t>περπάτημα</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Α2</t>
+          <t>Υ2</t>
         </is>
       </c>
       <c r="D715" t="n">
@@ -14334,17 +14334,17 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>τσ̌άχημα</t>
+          <t>τσ̌άχου</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>περπάτημα</t>
+          <t>τρέχω</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Υ2</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D716" t="n">
@@ -14354,17 +14354,17 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>τσ̌άχου</t>
+          <t>τσ̌έρβουλε</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>τρέχω</t>
+          <t>παπούτσι</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ0</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -14374,19 +14374,15 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>τσ̌έρβουλε</t>
+          <t>τσ̌ίτα</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>παπούτσι</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr">
-        <is>
-          <t>Υ0</t>
-        </is>
-      </c>
+          <t>Τρίτη</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr"/>
       <c r="D718" t="n">
         <v>1</v>
       </c>
@@ -14394,15 +14390,19 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>τσ̌ίτα</t>
+          <t>τσ̌ίφου</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Τρίτη</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr"/>
+          <t>τρίβω</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Ρ</t>
+        </is>
+      </c>
       <c r="D719" t="n">
         <v>1</v>
       </c>
@@ -14410,17 +14410,17 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>τσ̌ίφου</t>
+          <t>τσ̌ίχα</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>τρίβω</t>
+          <t>τρίχα</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D720" t="n">
@@ -14430,17 +14430,17 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>τσ̌ίχα</t>
+          <t>τσ̌αθία</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>τρίχα</t>
+          <t>βελόνα</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D721" t="n">
@@ -14450,17 +14450,17 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>τσ̌αθία</t>
+          <t>τσ̌ινά</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>βελόνα</t>
+          <t>σφήκα</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Θ3</t>
         </is>
       </c>
       <c r="D722" t="n">
@@ -14470,17 +14470,17 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>τσ̌ινά</t>
+          <t>τσ̌ιφου</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>σφήκα</t>
+          <t>τρίβω</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Θ3</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D723" t="n">
@@ -14490,12 +14490,12 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>τσ̌ιφου</t>
+          <t>τσ̌ου</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>τρίβω</t>
+          <t>τρώω</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -14510,17 +14510,17 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>τσ̌ου</t>
+          <t>τσ̌ούα</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>τρώω</t>
+          <t>βελανιδιά</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D725" t="n">
@@ -14530,17 +14530,17 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>τσ̌ούα</t>
+          <t>τσ̌υγού</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>βελανιδιά</t>
+          <t>τρυγώ</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D726" t="n">
@@ -14550,17 +14550,17 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>τσ̌υγού</t>
+          <t>τσάδεφο</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>τρυγώ</t>
+          <t>ξάδελφος</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D727" t="n">
@@ -14570,17 +14570,17 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>τσάδεφο</t>
+          <t>τσία</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>ξάδελφος</t>
+          <t>θεία</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Θ4</t>
         </is>
       </c>
       <c r="D728" t="n">
@@ -14590,17 +14590,17 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>τσία</t>
+          <t>τσίε</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>θεία</t>
+          <t>θείος</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>Θ4</t>
+          <t>Α4</t>
         </is>
       </c>
       <c r="D729" t="n">
@@ -14610,17 +14610,17 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>τσίε</t>
+          <t>τσίνε</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>θείος</t>
+          <t>σχίντο</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>Α4</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D730" t="n">
@@ -14630,17 +14630,17 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>τσίνε</t>
+          <t>τσίπτα</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>σχίντο</t>
+          <t>τίποτα</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D731" t="n">
@@ -14650,12 +14650,12 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>τσίπτα</t>
+          <t>τσαι</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>τίποτα</t>
+          <t>και</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -14670,17 +14670,17 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>τσαι</t>
+          <t>τσαιρέ</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>και</t>
+          <t>καιρός</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D733" t="n">
@@ -14690,17 +14690,17 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>τσαιρέ</t>
+          <t>τσαμπό</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>καιρός</t>
+          <t>μηρός</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D734" t="n">
@@ -14710,32 +14710,30 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>τσαμπό</t>
+          <t>τσαπρούκ̇ου</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>μηρός</t>
+          <t>ξαπλώνω</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>Α1</t>
-        </is>
-      </c>
-      <c r="D735" t="n">
-        <v>1</v>
-      </c>
+          <t>Ρ</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>τσαπρούκ̇ου</t>
+          <t>τσαφήνου</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>ξαπλώνω</t>
+          <t>αφήνω, ελευθερώνω</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -14743,22 +14741,24 @@
           <t>Ρ</t>
         </is>
       </c>
-      <c r="D736" t="inlineStr"/>
+      <c r="D736" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>τσαφήνου</t>
+          <t>τσεία</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>αφήνω, ελευθερώνω</t>
+          <t>θεία</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ5</t>
         </is>
       </c>
       <c r="D737" t="n">
@@ -14768,17 +14768,17 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>τσεία</t>
+          <t>τσιταίντου</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>θεία</t>
+          <t>πέφτω</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>Θ5</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D738" t="n">
@@ -14788,19 +14788,15 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>τσιταίντου</t>
+          <t>τσουρακά</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>πέφτω</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>Ρ</t>
-        </is>
-      </c>
+          <t>Κυριακή</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr"/>
       <c r="D739" t="n">
         <v>1</v>
       </c>
@@ -14808,15 +14804,19 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>τσουρακά</t>
+          <t>τσουφά</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Κυριακή</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr"/>
+          <t>κεφάλι</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Θ2</t>
+        </is>
+      </c>
       <c r="D740" t="n">
         <v>1</v>
       </c>
@@ -14824,17 +14824,17 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>τσουφά</t>
+          <t>τσούτα</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>κεφάλι</t>
+          <t>τρίφτης</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>Θ2</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D741" t="n">
@@ -14844,17 +14844,17 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>τσούτα</t>
+          <t>τσόα</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>τρίφτης</t>
+          <t>κιόλας</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D742" t="n">
@@ -14864,17 +14864,17 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>τσόα</t>
+          <t>τυχερέ</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>κιόλας</t>
+          <t>τυχερός</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D743" t="n">
@@ -14884,17 +14884,17 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>τυχερέ</t>
+          <t>τότ̇ε</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>τυχερός</t>
+          <t>τότε</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D744" t="n">
@@ -14904,17 +14904,17 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>τότ̇ε</t>
+          <t>υζέ</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>τότε</t>
+          <t>γιος</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D745" t="n">
@@ -14924,17 +14924,17 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>υζέ</t>
+          <t>φάβα</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>γιος</t>
+          <t>φάβα</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D746" t="n">
@@ -14944,17 +14944,17 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>φάβα</t>
+          <t>φίλ̣υτσ̌ε</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>φάβα</t>
+          <t>γλαντινιά</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Α3</t>
         </is>
       </c>
       <c r="D747" t="n">
@@ -14964,17 +14964,17 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>φίλ̣υτσ̌ε</t>
+          <t>φαέ</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>γλαντινιά</t>
+          <t>σιτάρι</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>Α3</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D748" t="n">
@@ -14984,17 +14984,17 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>φαέ</t>
+          <t>φακά</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>σιτάρι</t>
+          <t>φακή</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D749" t="n">
@@ -15004,17 +15004,17 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>φακά</t>
+          <t>φανίλια</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>φακή</t>
+          <t>οικογένεια</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D750" t="n">
@@ -15024,12 +15024,12 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>φανίλια</t>
+          <t>φασουλάδα</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>οικογένεια</t>
+          <t>φασολάδα</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -15044,17 +15044,17 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>φασουλάδα</t>
+          <t>φεγγάρι</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>φασολάδα</t>
+          <t>φεγγάρι</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D752" t="n">
@@ -15064,17 +15064,17 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>φεγγάρι</t>
+          <t>φκηνέ</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>φεγγάρι</t>
+          <t>στηνός</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Ε</t>
         </is>
       </c>
       <c r="D753" t="n">
@@ -15084,17 +15084,17 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>φκηνέ</t>
+          <t>φκιάρι</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>στηνός</t>
+          <t>φτυάρι</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>Ε</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D754" t="n">
@@ -15104,19 +15104,15 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>φκιάρι</t>
+          <t>φλεβάρη</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>φτυάρι</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr">
-        <is>
-          <t>Υ3</t>
-        </is>
-      </c>
+          <t>φλεβάρης</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr"/>
       <c r="D755" t="n">
         <v>1</v>
       </c>
@@ -15124,15 +15120,19 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>φλεβάρη</t>
+          <t>φοζαΐχου</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>φλεβάρης</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr"/>
+          <t>φοβίζω</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Ρ</t>
+        </is>
+      </c>
       <c r="D756" t="n">
         <v>1</v>
       </c>
@@ -15140,12 +15140,12 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>φοζαΐχου</t>
+          <t>φορού</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>φοβίζω</t>
+          <t>φοράω</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -15160,17 +15160,17 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>φορού</t>
+          <t>φορτακά</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>φοράω</t>
+          <t>βάτραχος</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α5</t>
         </is>
       </c>
       <c r="D758" t="n">
@@ -15180,17 +15180,17 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>φορτακά</t>
+          <t>φουρτούνα</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>βάτραχος</t>
+          <t>φουρτούνα</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>Α5</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D759" t="n">
@@ -15200,17 +15200,17 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>φουρτούνα</t>
+          <t>φουσού</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>φουρτούνα</t>
+          <t>φυσάω</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D760" t="n">
@@ -15220,17 +15220,17 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>φουσού</t>
+          <t>φουστάνι</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>φυσάω</t>
+          <t>φόρεμα</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ</t>
         </is>
       </c>
       <c r="D761" t="n">
@@ -15240,17 +15240,17 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>φουστάνι</t>
+          <t>φούκ̇α</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>φόρεμα</t>
+          <t>κοιλιά</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D762" t="n">
@@ -15260,17 +15260,17 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>φούκ̇α</t>
+          <t>φούρνε</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>κοιλιά</t>
+          <t>φόυρνος</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D763" t="n">
@@ -15280,17 +15280,17 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>φούρνε</t>
+          <t>φρύδι</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>φόυρνος</t>
+          <t>φρύδι</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D764" t="n">
@@ -15300,17 +15300,17 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>φρύδι</t>
+          <t>φταίνου</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>φρύδι</t>
+          <t>ψήνω</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D765" t="n">
@@ -15320,12 +15320,12 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>φταίνου</t>
+          <t>φταίου</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>ψήνω</t>
+          <t>φταίω</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -15340,12 +15340,12 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>φταίνω</t>
+          <t>φταινούμενε</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>ψήνω</t>
+          <t>ψήνομαι</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -15360,17 +15360,17 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>φταίου</t>
+          <t>φτερένισε</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>φταίω</t>
+          <t>κοκορεβιθιά</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α3</t>
         </is>
       </c>
       <c r="D768" t="n">
@@ -15380,17 +15380,17 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>φταινούμενε</t>
+          <t>φωνά</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>ψήνομαι</t>
+          <t>φωνή</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D769" t="n">
@@ -15400,17 +15400,17 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>φτερένισε</t>
+          <t>φωνιάντου</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>κοκορεβιθιά</t>
+          <t>φωνάζω</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>Α3</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D770" t="n">
@@ -15420,12 +15420,12 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>φωνά</t>
+          <t>φόλα</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>φωνή</t>
+          <t>φόλα</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -15433,19 +15433,17 @@
           <t>Θ</t>
         </is>
       </c>
-      <c r="D771" t="n">
-        <v>1</v>
-      </c>
+      <c r="D771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>φωνιάντου</t>
+          <t>φύου</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>φωνάζω</t>
+          <t>φεύγω</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -15460,30 +15458,32 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>φόλα</t>
+          <t>χάμου</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>φόλα</t>
+          <t>κάτω</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>Θ</t>
-        </is>
-      </c>
-      <c r="D773" t="inlineStr"/>
+          <t>Ζ</t>
+        </is>
+      </c>
+      <c r="D773" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>φύου</t>
+          <t>χάνου</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>φεύγω</t>
+          <t>χάνω</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -15498,17 +15498,17 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>χάμου</t>
+          <t>χέρα</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>κάτω</t>
+          <t>χέρι</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D775" t="n">
@@ -15518,17 +15518,17 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>χάνου</t>
+          <t>χαμελέ</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>χάνω</t>
+          <t>χαμηλός</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Ε1</t>
         </is>
       </c>
       <c r="D776" t="n">
@@ -15538,17 +15538,17 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>χέρα</t>
+          <t>χαμεούκ̇ου</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>χέρι</t>
+          <t>χαμηλώνω</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>Θ1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D777" t="n">
@@ -15558,17 +15558,17 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>χαμελέ</t>
+          <t>χαού</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>χαμηλός</t>
+          <t>χαλάω</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>Ε1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D778" t="n">
@@ -15578,17 +15578,17 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>χαμεούκ̇ου</t>
+          <t>χαρκί</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>χαμηλώνω</t>
+          <t>βιβλίο</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Υ3</t>
         </is>
       </c>
       <c r="D779" t="n">
@@ -15598,17 +15598,17 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>χαού</t>
+          <t>χαρουπία</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>χαλάω</t>
+          <t>χαρουπιά</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Θ1</t>
         </is>
       </c>
       <c r="D780" t="n">
@@ -15618,19 +15618,15 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>χαρκί</t>
+          <t>χείλι</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>βιβλίο</t>
-        </is>
-      </c>
-      <c r="C781" t="inlineStr">
-        <is>
-          <t>Υ3</t>
-        </is>
-      </c>
+          <t>χείλος</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr"/>
       <c r="D781" t="n">
         <v>1</v>
       </c>
@@ -15638,19 +15634,15 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>χαρουπία</t>
+          <t>χειμωνικό</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>χαρουπιά</t>
-        </is>
-      </c>
-      <c r="C782" t="inlineStr">
-        <is>
-          <t>Θ1</t>
-        </is>
-      </c>
+          <t>χειμώνας</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr"/>
       <c r="D782" t="n">
         <v>1</v>
       </c>
@@ -15658,15 +15650,19 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>χείλι</t>
+          <t>χεούνα</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>χείλος</t>
-        </is>
-      </c>
-      <c r="C783" t="inlineStr"/>
+          <t>χελώνα</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Θ</t>
+        </is>
+      </c>
       <c r="D783" t="n">
         <v>1</v>
       </c>
@@ -15674,12 +15670,12 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>χειμωνικό</t>
+          <t>χινόπωρε</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>χειμώνας</t>
+          <t>φθινόπωρο</t>
         </is>
       </c>
       <c r="C784" t="inlineStr"/>
@@ -15690,17 +15686,17 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>χεούνα</t>
+          <t>χιούρε</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>χελώνα</t>
+          <t>γουρούνι</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Α1</t>
         </is>
       </c>
       <c r="D785" t="n">
@@ -15710,15 +15706,19 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>χινόπωρε</t>
+          <t>χιόνα</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>φθινόπωρο</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr"/>
+          <t>χιόνι</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Υ</t>
+        </is>
+      </c>
       <c r="D786" t="n">
         <v>1</v>
       </c>
@@ -15726,17 +15726,17 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>χιούρε</t>
+          <t>χορέ</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>γουρούνι</t>
+          <t>χορός</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>Α1</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D787" t="n">
@@ -15746,17 +15746,17 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>χιόνα</t>
+          <t>χούρα</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>χιόνι</t>
+          <t>χωράφι</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>Υ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D788" t="n">
@@ -15766,17 +15766,17 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>χορέ</t>
+          <t>χρόνου πάσοι</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>χορός</t>
+          <t>χρόνια πολλά</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>Α</t>
+          <t>ΕΚ</t>
         </is>
       </c>
       <c r="D789" t="n">
@@ -15786,17 +15786,17 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>χούρα</t>
+          <t>χωρέ</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>χωράφι</t>
+          <t>χλορός</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Ε1</t>
         </is>
       </c>
       <c r="D790" t="n">
@@ -15806,17 +15806,17 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>χρόνου πάσοι</t>
+          <t>χόντι</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>χρόνια πολλά</t>
+          <t>χόρτο</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>ΕΚ</t>
+          <t>Υ1</t>
         </is>
       </c>
       <c r="D791" t="n">
@@ -15826,17 +15826,17 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>χωρέ</t>
+          <t>ψαίνου</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>χλορός</t>
+          <t>σφουγγίζω, σκουπίζω</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>Ε1</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D792" t="n">
@@ -15846,17 +15846,17 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>χόντι</t>
+          <t>ψαρά</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>χόρτο</t>
+          <t>ψαράς</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>Υ1</t>
+          <t>Α5</t>
         </is>
       </c>
       <c r="D793" t="n">
@@ -15866,12 +15866,12 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>ψαίνου</t>
+          <t>ψαφού</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>σφουγγίζω, σκουπίζω</t>
+          <t>ψάχνω</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -15886,17 +15886,17 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>ψαρά</t>
+          <t>ψαχνίζου</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>ψαράς</t>
+          <t>στεγνώνω</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>Α5</t>
+          <t>Ρ</t>
         </is>
       </c>
       <c r="D795" t="n">
@@ -15906,17 +15906,17 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>ψαφού</t>
+          <t>ψιλέ</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>ψάχνω</t>
+          <t>μάτι</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Α</t>
         </is>
       </c>
       <c r="D796" t="n">
@@ -15926,17 +15926,17 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>ψαχνίζου</t>
+          <t>ψουχρέ</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>στεγνώνω</t>
+          <t>κρύος</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>Ρ</t>
+          <t>Ε</t>
         </is>
       </c>
       <c r="D797" t="n">
@@ -15946,37 +15946,35 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>ψιλέ</t>
+          <t>ψοφού</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>μάτι</t>
+          <t>ψοφώ</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>Α</t>
-        </is>
-      </c>
-      <c r="D798" t="n">
-        <v>1</v>
-      </c>
+          <t>Ρ</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>ψουχρέ</t>
+          <t>ψούχα</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>κρύος</t>
+          <t>ψυχή</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>Ε</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="D799" t="n">
@@ -15986,35 +15984,37 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>ψοφού</t>
+          <t>όγκιουμα</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>ψοφώ</t>
+          <t>πουκάμισο</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>Ρ</t>
-        </is>
-      </c>
-      <c r="D800" t="inlineStr"/>
+          <t>Υ2</t>
+        </is>
+      </c>
+      <c r="D800" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>ψούχα</t>
+          <t>όζακα</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>ψυχή</t>
+          <t>είδος μυρμηγκιού</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>Θ</t>
+          <t>Α3</t>
         </is>
       </c>
       <c r="D801" t="n">
@@ -16024,17 +16024,17 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>όγκιουμα</t>
+          <t>όκια</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>πουκάμισο</t>
+          <t>όπου</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>Υ2</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D802" t="n">
@@ -16044,17 +16044,17 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>όζακα</t>
+          <t>όμως</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>είδος μυρμηγκιού</t>
+          <t>όμως</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>Α3</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D803" t="n">
@@ -16064,17 +16064,17 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>όκια</t>
+          <t>όνε</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>όπου</t>
+          <t>γάιδαρος</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Α3</t>
         </is>
       </c>
       <c r="D804" t="n">
@@ -16084,17 +16084,17 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>όμως</t>
+          <t>όντα</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>όμως</t>
+          <t>δόντι</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Α3</t>
         </is>
       </c>
       <c r="D805" t="n">
@@ -16104,17 +16104,17 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>όνε</t>
+          <t>όρεγι</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>γάιδαρος</t>
+          <t>εδώ ακριβώς</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>Α3</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D806" t="n">
@@ -16124,17 +16124,17 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>όντα</t>
+          <t>όρπα</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>δόντι</t>
+          <t>εκεί</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>Α3</t>
+          <t>Ζ</t>
         </is>
       </c>
       <c r="D807" t="n">
@@ -16144,12 +16144,12 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>όρεγι</t>
+          <t>όσ̌ου</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>εδώ ακριβώς</t>
+          <t>όσο</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -16164,12 +16164,12 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>όρπα</t>
+          <t>όταν</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>εκεί</t>
+          <t>όταν</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -16184,12 +16184,12 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>όσ̌ου</t>
+          <t>ότσι</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>όσο</t>
+          <t>ότι</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -16204,60 +16204,20 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>όταν</t>
+          <t>ύο</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>όταν</t>
+          <t>νερό</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>Ζ</t>
+          <t>Υ0</t>
         </is>
       </c>
       <c r="D811" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>ότσι</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>ότι</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr">
-        <is>
-          <t>Ζ</t>
-        </is>
-      </c>
-      <c r="D812" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>ύο</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>νερό</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr">
-        <is>
-          <t>Υ0</t>
-        </is>
-      </c>
-      <c r="D813" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\tsakonian_dictionary_app\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4103E9-5F00-4389-A4AA-74DDDF36636B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F3432-D28D-4F58-9FBE-7EA695411581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="0" windowWidth="15645" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="1957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="1957">
   <si>
     <t>tsakonian</t>
   </si>
@@ -6255,8 +6255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1047" zoomScale="131" workbookViewId="0">
-      <selection activeCell="A1073" sqref="A1073"/>
+    <sheetView tabSelected="1" topLeftCell="A583" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C616" sqref="C616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14621,6 +14621,9 @@
       <c r="B615" t="s">
         <v>1168</v>
       </c>
+      <c r="C615" t="s">
+        <v>44</v>
+      </c>
       <c r="D615">
         <v>1</v>
       </c>

--- a/data/tables/main.xlsx
+++ b/data/tables/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\tsakonian_dictionary_app\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05203675-563A-4D93-9A2E-FE2FA709C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62D5DCC-CA06-4DF4-AA4C-2852E72E34C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="2064">
   <si>
     <t>tsakonian</t>
   </si>
@@ -5916,6 +5916,318 @@
   </si>
   <si>
     <t>φον̇ία</t>
+  </si>
+  <si>
+    <t>άρτουμα</t>
+  </si>
+  <si>
+    <t>κράμα</t>
+  </si>
+  <si>
+    <t>κλήμα</t>
+  </si>
+  <si>
+    <t>σ̌άψιμο</t>
+  </si>
+  <si>
+    <t>ράψιμο</t>
+  </si>
+  <si>
+    <t>γράψιμο</t>
+  </si>
+  <si>
+    <t>άχουρε</t>
+  </si>
+  <si>
+    <t>άχυρο</t>
+  </si>
+  <si>
+    <t>δοχύρι</t>
+  </si>
+  <si>
+    <t>γεφύρι</t>
+  </si>
+  <si>
+    <t>καμπζί</t>
+  </si>
+  <si>
+    <t>παιδί</t>
+  </si>
+  <si>
+    <t>βάρι</t>
+  </si>
+  <si>
+    <t>βάρος</t>
+  </si>
+  <si>
+    <t>Υ4</t>
+  </si>
+  <si>
+    <t>θάρρι</t>
+  </si>
+  <si>
+    <t>θάρρος</t>
+  </si>
+  <si>
+    <t>όνειρε</t>
+  </si>
+  <si>
+    <t>όνειρος</t>
+  </si>
+  <si>
+    <t>βούκιουρε</t>
+  </si>
+  <si>
+    <t>βούτυρο</t>
+  </si>
+  <si>
+    <t>κρέμμου</t>
+  </si>
+  <si>
+    <t>κρεμμίδι</t>
+  </si>
+  <si>
+    <t>κάζ̌ου</t>
+  </si>
+  <si>
+    <t>λίγο</t>
+  </si>
+  <si>
+    <t>λίγος</t>
+  </si>
+  <si>
+    <t>Ε5</t>
+  </si>
+  <si>
+    <t>κακός</t>
+  </si>
+  <si>
+    <t>ξένε</t>
+  </si>
+  <si>
+    <t>ξένος</t>
+  </si>
+  <si>
+    <t>άραχλε</t>
+  </si>
+  <si>
+    <t>άδεξε</t>
+  </si>
+  <si>
+    <t>άσχημος</t>
+  </si>
+  <si>
+    <t>άδικο</t>
+  </si>
+  <si>
+    <t>άδικος</t>
+  </si>
+  <si>
+    <t>ανέφταιγο</t>
+  </si>
+  <si>
+    <t>αθώος</t>
+  </si>
+  <si>
+    <t>γρινιάρη</t>
+  </si>
+  <si>
+    <t>γρινιάρης</t>
+  </si>
+  <si>
+    <t>Ε8</t>
+  </si>
+  <si>
+    <t>ζηλιάρη</t>
+  </si>
+  <si>
+    <t>ζηλιάρης</t>
+  </si>
+  <si>
+    <t>μαζί</t>
+  </si>
+  <si>
+    <t>όχι</t>
+  </si>
+  <si>
+    <t>έντεν̇ι</t>
+  </si>
+  <si>
+    <t>αυτός</t>
+  </si>
+  <si>
+    <t>δώρι</t>
+  </si>
+  <si>
+    <t>δώρο</t>
+  </si>
+  <si>
+    <t>κ̇αρίχου</t>
+  </si>
+  <si>
+    <t>θάκια</t>
+  </si>
+  <si>
+    <t>υποθετικό μόριο</t>
+  </si>
+  <si>
+    <t>αλλά</t>
+  </si>
+  <si>
+    <t>αγαπού</t>
+  </si>
+  <si>
+    <t>αγαπάω</t>
+  </si>
+  <si>
+    <t>αβάλ̣ητε</t>
+  </si>
+  <si>
+    <t>άβαλτος, αφόρετος</t>
+  </si>
+  <si>
+    <t>αβαν̇ία</t>
+  </si>
+  <si>
+    <t>αβάνης</t>
+  </si>
+  <si>
+    <t>αβάρετε</t>
+  </si>
+  <si>
+    <t>ακούραστος, αεικίνητος</t>
+  </si>
+  <si>
+    <t>αβάσταχτε</t>
+  </si>
+  <si>
+    <t>αβάσταχτος, ακράτητος, ανυπόφορος</t>
+  </si>
+  <si>
+    <t>αβαστήμητε</t>
+  </si>
+  <si>
+    <t>αβλαστήμητος</t>
+  </si>
+  <si>
+    <t>αβούτανα</t>
+  </si>
+  <si>
+    <t>αφτί</t>
+  </si>
+  <si>
+    <t>άβρετ̇ε</t>
+  </si>
+  <si>
+    <t>άβρεχτος, στεγνός</t>
+  </si>
+  <si>
+    <t>αγαθέ</t>
+  </si>
+  <si>
+    <t>αγαθός</t>
+  </si>
+  <si>
+    <t>αγάλι</t>
+  </si>
+  <si>
+    <t>αργά, σιγά</t>
+  </si>
+  <si>
+    <t>αγγούρι</t>
+  </si>
+  <si>
+    <t>αγγουρία</t>
+  </si>
+  <si>
+    <t>φοζούμενε</t>
+  </si>
+  <si>
+    <t>φοβάμαι</t>
+  </si>
+  <si>
+    <t>ντίνου</t>
+  </si>
+  <si>
+    <t>χτυπάω</t>
+  </si>
+  <si>
+    <t>καμαρούνου</t>
+  </si>
+  <si>
+    <t>καμαρώνω</t>
+  </si>
+  <si>
+    <t>κειράζου</t>
+  </si>
+  <si>
+    <t>πειράζω</t>
+  </si>
+  <si>
+    <t>δροπή</t>
+  </si>
+  <si>
+    <t>τροκή</t>
+  </si>
+  <si>
+    <t>όψι</t>
+  </si>
+  <si>
+    <t>πρόσωπος</t>
+  </si>
+  <si>
+    <t>άμα</t>
+  </si>
+  <si>
+    <t>γιουρίζου</t>
+  </si>
+  <si>
+    <t>γυρίζω</t>
+  </si>
+  <si>
+    <t>παραμονή</t>
+  </si>
+  <si>
+    <t>χορέγγου</t>
+  </si>
+  <si>
+    <t>χορεύω</t>
+  </si>
+  <si>
+    <t>καθούς</t>
+  </si>
+  <si>
+    <t>καθώς</t>
+  </si>
+  <si>
+    <t>ψιουχρέ</t>
+  </si>
+  <si>
+    <t>παστρισκό</t>
+  </si>
+  <si>
+    <t>καθαρός</t>
+  </si>
+  <si>
+    <t>προ πάντω</t>
+  </si>
+  <si>
+    <t>κοτρόνι</t>
+  </si>
+  <si>
+    <t>χαμομήλι</t>
+  </si>
+  <si>
+    <t>ρώμι</t>
+  </si>
+  <si>
+    <t>ρούμι</t>
+  </si>
+  <si>
+    <t>τσινήνου</t>
+  </si>
+  <si>
+    <t>αλάργα</t>
   </si>
 </sst>
 </file>
@@ -6132,7 +6444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6175,6 +6487,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6510,10 +6825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1075"/>
+  <dimension ref="A1:H1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A1105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1139" sqref="B1139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6564,7 +6879,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="13" t="s">
         <v>1956</v>
       </c>
@@ -6606,11 +6921,11 @@
         <v>άβατ̇ε</v>
       </c>
       <c r="G4" s="8" t="str">
-        <f>_xlfn.CONCAT(B4,"-",C4)</f>
+        <f t="shared" ref="G4:G67" si="0">_xlfn.CONCAT(B4,"-",C4)</f>
         <v>άβατ̇ε-άκλαυτος</v>
       </c>
       <c r="H4" s="8" t="str">
-        <f>_xlfn.CONCAT(B4,"-",C4,"-",D4)</f>
+        <f t="shared" ref="H4:H67" si="1">_xlfn.CONCAT(B4,"-",C4,"-",D4)</f>
         <v>άβατ̇ε-άκλαυτος-Ε</v>
       </c>
     </row>
@@ -6629,15 +6944,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f t="shared" ref="F5:F43" si="0">_xlfn.CONCAT(B5)</f>
+        <f t="shared" ref="F5:F43" si="2">_xlfn.CONCAT(B5)</f>
         <v>άγιε</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ref="G5:G43" si="1">_xlfn.CONCAT(B5,"-",C5)</f>
+        <f t="shared" si="0"/>
         <v>άγιε-εκκλησία</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f t="shared" ref="H5:H43" si="2">_xlfn.CONCAT(B5,"-",C5,"-",D5)</f>
+        <f t="shared" si="1"/>
         <v>άγιε-εκκλησία-Α4</v>
       </c>
     </row>
@@ -6656,15 +6971,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άγο</v>
+      </c>
+      <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άγο</v>
-      </c>
-      <c r="G6" s="3" t="str">
+        <v>άγο-άλογο</v>
+      </c>
+      <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άγο-άλογο</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άγο-άλογο-Α0</v>
       </c>
     </row>
@@ -6681,15 +6996,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άγουστε</v>
+      </c>
+      <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άγουστε</v>
-      </c>
-      <c r="G7" s="3" t="str">
+        <v>άγουστε-αύγουστος</v>
+      </c>
+      <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άγουστε-αύγουστος</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άγουστε-αύγουστος-</v>
       </c>
     </row>
@@ -6706,15 +7021,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άζ̌α</v>
+      </c>
+      <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άζ̌α</v>
-      </c>
-      <c r="G8" s="3" t="str">
+        <v>άζ̌α-αραία, όχι συχνά</v>
+      </c>
+      <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άζ̌α-αραία, όχι συχνά</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άζ̌α-αραία, όχι συχνά-</v>
       </c>
     </row>
@@ -6733,15 +7048,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άθρωπο</v>
+      </c>
+      <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άθρωπο</v>
-      </c>
-      <c r="G9" s="3" t="str">
+        <v>άθρωπο-άνθροπος</v>
+      </c>
+      <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άθρωπο-άνθροπος</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άθρωπο-άνθροπος-Α6</v>
       </c>
     </row>
@@ -6760,15 +7075,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άι</v>
+      </c>
+      <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άι</v>
-      </c>
-      <c r="G10" s="3" t="str">
+        <v>άι-λάδι</v>
+      </c>
+      <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άι-λάδι</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άι-λάδι-Υ0</v>
       </c>
     </row>
@@ -6787,15 +7102,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άκ̇ρυστε</v>
+      </c>
+      <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άκ̇ρυστε</v>
-      </c>
-      <c r="G11" s="3" t="str">
+        <v>άκ̇ρυστε-άπλυτος</v>
+      </c>
+      <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άκ̇ρυστε-άπλυτος</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άκ̇ρυστε-άπλυτος-Ε</v>
       </c>
     </row>
@@ -6814,15 +7129,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άκρα</v>
+      </c>
+      <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άκρα</v>
-      </c>
-      <c r="G12" s="3" t="str">
+        <v>άκρα-άκρη</v>
+      </c>
+      <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άκρα-άκρη</v>
-      </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άκρα-άκρη-Θ1</v>
       </c>
     </row>
@@ -6841,15 +7156,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άλητε</v>
+      </c>
+      <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άλητε</v>
-      </c>
-      <c r="G13" s="3" t="str">
+        <v>άλητε-αλεύρι</v>
+      </c>
+      <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άλητε-αλεύρι</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άλητε-αλεύρι-Υ1</v>
       </c>
     </row>
@@ -6868,15 +7183,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άλλε</v>
+      </c>
+      <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άλλε</v>
-      </c>
-      <c r="G14" s="3" t="str">
+        <v>άλλε-άλλος</v>
+      </c>
+      <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άλλε-άλλος</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άλλε-άλλος-Ε2</v>
       </c>
     </row>
@@ -6893,15 +7208,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άνε</v>
+      </c>
+      <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άνε</v>
-      </c>
-      <c r="G15" s="3" t="str">
+        <v>άνε-να</v>
+      </c>
+      <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άνε-να</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άνε-να-</v>
       </c>
     </row>
@@ -6918,15 +7233,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άνοιξη</v>
+      </c>
+      <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άνοιξη</v>
-      </c>
-      <c r="G16" s="3" t="str">
+        <v>άνοιξη-άνοιξη</v>
+      </c>
+      <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άνοιξη-άνοιξη</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άνοιξη-άνοιξη-</v>
       </c>
     </row>
@@ -6945,15 +7260,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άντε</v>
+      </c>
+      <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άντε</v>
-      </c>
-      <c r="G17" s="3" t="str">
+        <v>άντε-ψωμί</v>
+      </c>
+      <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άντε-ψωμί</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άντε-ψωμί-Α3</v>
       </c>
     </row>
@@ -6972,15 +7287,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άξιε</v>
+      </c>
+      <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άξιε</v>
-      </c>
-      <c r="G18" s="3" t="str">
+        <v>άξιε-άξιος</v>
+      </c>
+      <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άξιε-άξιος</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άξιε-άξιος-Ε</v>
       </c>
     </row>
@@ -6999,15 +7314,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άουνα</v>
+      </c>
+      <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άουνα</v>
-      </c>
-      <c r="G19" s="3" t="str">
+        <v>άουνα-αλώνι</v>
+      </c>
+      <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άουνα-αλώνι</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άουνα-αλώνι-Θ</v>
       </c>
     </row>
@@ -7026,15 +7341,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άπλυτος</v>
+      </c>
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άπλυτος</v>
-      </c>
-      <c r="G20" s="3" t="str">
+        <v>άπλυτος-άκ̇ρυστε</v>
+      </c>
+      <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άπλυτος-άκ̇ρυστε</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άπλυτος-άκ̇ρυστε-Ε</v>
       </c>
     </row>
@@ -7053,15 +7368,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άρρωστε</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άρρωστε</v>
-      </c>
-      <c r="G21" s="3" t="str">
+        <v>άρρωστε-άρρωστος</v>
+      </c>
+      <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άρρωστε-άρρωστος</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άρρωστε-άρρωστος-Ε</v>
       </c>
     </row>
@@ -7080,15 +7395,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άρτουµα</v>
+      </c>
+      <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άρτουµα</v>
-      </c>
-      <c r="G22" s="3" t="str">
+        <v>άρτουµα-τυρί</v>
+      </c>
+      <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άρτουµα-τυρί</v>
-      </c>
-      <c r="H22" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άρτουµα-τυρί-Υ2</v>
       </c>
     </row>
@@ -7107,15 +7422,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άσ̌ι</v>
+      </c>
+      <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άσ̌ι</v>
-      </c>
-      <c r="G23" s="3" t="str">
+        <v>άσ̌ι-άστρο</v>
+      </c>
+      <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άσ̌ι-άστρο</v>
-      </c>
-      <c r="H23" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άσ̌ι-άστρο-Υ3</v>
       </c>
     </row>
@@ -7134,15 +7449,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άσ̌τε</v>
+      </c>
+      <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άσ̌τε</v>
-      </c>
-      <c r="G24" s="3" t="str">
+        <v>άσ̌τε-αδράχτι</v>
+      </c>
+      <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άσ̌τε-αδράχτι</v>
-      </c>
-      <c r="H24" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άσ̌τε-αδράχτι-A6</v>
       </c>
     </row>
@@ -7161,15 +7476,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άσγο</v>
+      </c>
+      <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άσγο</v>
-      </c>
-      <c r="G25" s="3" t="str">
+        <v>άσγο-ασβός</v>
+      </c>
+      <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άσγο-ασβός</v>
-      </c>
-      <c r="H25" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άσγο-ασβός-Α1</v>
       </c>
     </row>
@@ -7188,15 +7503,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άσσου</v>
+      </c>
+      <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άσσου</v>
-      </c>
-      <c r="G26" s="3" t="str">
+        <v>άσσου-αλλάζω</v>
+      </c>
+      <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άσσου-αλλάζω</v>
-      </c>
-      <c r="H26" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άσσου-αλλάζω-Ρ</v>
       </c>
     </row>
@@ -7215,15 +7530,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άτσ̌ωπο</v>
+      </c>
+      <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άτσ̌ωπο</v>
-      </c>
-      <c r="G27" s="3" t="str">
+        <v>άτσ̌ωπο-άνδρας</v>
+      </c>
+      <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άτσ̌ωπο-άνδρας</v>
-      </c>
-      <c r="H27" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άτσ̌ωπο-άνδρας-Α1</v>
       </c>
     </row>
@@ -7242,15 +7557,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>άτσι</v>
+      </c>
+      <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>άτσι</v>
-      </c>
-      <c r="G28" s="3" t="str">
+        <v>άτσι-αλάτι</v>
+      </c>
+      <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>άτσι-αλάτι</v>
-      </c>
-      <c r="H28" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>άτσι-αλάτι-Υ</v>
       </c>
     </row>
@@ -7269,15 +7584,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έατε</v>
+      </c>
+      <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έατε</v>
-      </c>
-      <c r="G29" s="3" t="str">
+        <v>έατε-έλατο</v>
+      </c>
+      <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έατε-έλατο</v>
-      </c>
-      <c r="H29" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έατε-έλατο-A6</v>
       </c>
     </row>
@@ -7296,15 +7611,15 @@
         <v>1</v>
       </c>
       <c r="F30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έαφο</v>
+      </c>
+      <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έαφο</v>
-      </c>
-      <c r="G30" s="3" t="str">
+        <v>έαφο-ελάφι</v>
+      </c>
+      <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έαφο-ελάφι</v>
-      </c>
-      <c r="H30" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έαφο-ελάφι-Θ</v>
       </c>
     </row>
@@ -7323,15 +7638,15 @@
         <v>1</v>
       </c>
       <c r="F31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έγγονε</v>
+      </c>
+      <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έγγονε</v>
-      </c>
-      <c r="G31" s="3" t="str">
+        <v>έγγονε-εγγονός</v>
+      </c>
+      <c r="H31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έγγονε-εγγονός</v>
-      </c>
-      <c r="H31" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έγγονε-εγγονός-A6</v>
       </c>
     </row>
@@ -7350,15 +7665,15 @@
         <v>1</v>
       </c>
       <c r="F32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έγγου</v>
+      </c>
+      <c r="G32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έγγου</v>
-      </c>
-      <c r="G32" s="3" t="str">
+        <v>έγγου-πηγαίνω</v>
+      </c>
+      <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έγγου-πηγαίνω</v>
-      </c>
-      <c r="H32" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έγγου-πηγαίνω-Ρ0</v>
       </c>
     </row>
@@ -7377,15 +7692,15 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έδαρι</v>
+      </c>
+      <c r="G33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έδαρι</v>
-      </c>
-      <c r="G33" s="3" t="str">
+        <v>έδαρι-τώρα</v>
+      </c>
+      <c r="H33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έδαρι-τώρα</v>
-      </c>
-      <c r="H33" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έδαρι-τώρα-Ζ</v>
       </c>
     </row>
@@ -7404,15 +7719,15 @@
         <v>1</v>
       </c>
       <c r="F34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έμισε</v>
+      </c>
+      <c r="G34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έμισε</v>
-      </c>
-      <c r="G34" s="3" t="str">
+        <v>έμισε-μισός</v>
+      </c>
+      <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έμισε-μισός</v>
-      </c>
-      <c r="H34" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έμισε-μισός-Ε4</v>
       </c>
     </row>
@@ -7431,15 +7746,15 @@
         <v>1</v>
       </c>
       <c r="F35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ένι</v>
+      </c>
+      <c r="G35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ένι</v>
-      </c>
-      <c r="G35" s="3" t="str">
+        <v>ένι-είμαι</v>
+      </c>
+      <c r="H35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ένι-είμαι</v>
-      </c>
-      <c r="H35" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>ένι-είμαι-Ρ</v>
       </c>
     </row>
@@ -7458,15 +7773,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έξατε</v>
+      </c>
+      <c r="G36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έξατε</v>
-      </c>
-      <c r="G36" s="3" t="str">
+        <v>έξατε-έκτος</v>
+      </c>
+      <c r="H36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έξατε-έκτος</v>
-      </c>
-      <c r="H36" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έξατε-έκτος-Ε3</v>
       </c>
     </row>
@@ -7485,15 +7800,15 @@
         <v>1</v>
       </c>
       <c r="F37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έρατσ̌ε</v>
+      </c>
+      <c r="G37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έρατσ̌ε</v>
-      </c>
-      <c r="G37" s="3" t="str">
+        <v>έρατσ̌ε-αλέτρι</v>
+      </c>
+      <c r="H37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έρατσ̌ε-αλέτρι</v>
-      </c>
-      <c r="H37" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έρατσ̌ε-αλέτρι-Υ1</v>
       </c>
     </row>
@@ -7512,15 +7827,15 @@
         <v>1</v>
       </c>
       <c r="F38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έριφο</v>
+      </c>
+      <c r="G38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έριφο</v>
-      </c>
-      <c r="G38" s="3" t="str">
+        <v>έριφο-κατσίκι</v>
+      </c>
+      <c r="H38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έριφο-κατσίκι</v>
-      </c>
-      <c r="H38" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έριφο-κατσίκι-Α1</v>
       </c>
     </row>
@@ -7537,15 +7852,15 @@
         <v>1</v>
       </c>
       <c r="F39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έσ̌ιντα</v>
+      </c>
+      <c r="G39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έσ̌ιντα</v>
-      </c>
-      <c r="G39" s="3" t="str">
+        <v>έσ̌ιντα-σύρριζα</v>
+      </c>
+      <c r="H39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έσ̌ιντα-σύρριζα</v>
-      </c>
-      <c r="H39" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έσ̌ιντα-σύρριζα-</v>
       </c>
     </row>
@@ -7564,15 +7879,15 @@
         <v>1</v>
       </c>
       <c r="F40" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έτρου</v>
+      </c>
+      <c r="G40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έτρου</v>
-      </c>
-      <c r="G40" s="3" t="str">
+        <v>έτρου-έτσι</v>
+      </c>
+      <c r="H40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έτρου-έτσι</v>
-      </c>
-      <c r="H40" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έτρου-έτσι-Ζ</v>
       </c>
     </row>
@@ -7589,15 +7904,15 @@
         <v>1</v>
       </c>
       <c r="F41" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έτρου τ͡σ'έτρου</v>
+      </c>
+      <c r="G41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έτρου τ͡σ'έτρου</v>
-      </c>
-      <c r="G41" s="3" t="str">
+        <v>έτρου τ͡σ'έτρου-έτσι κι έτσι</v>
+      </c>
+      <c r="H41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έτρου τ͡σ'έτρου-έτσι κι έτσι</v>
-      </c>
-      <c r="H41" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έτρου τ͡σ'έτρου-έτσι κι έτσι-</v>
       </c>
     </row>
@@ -7614,15 +7929,15 @@
         <v>1</v>
       </c>
       <c r="F42" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έχε γεία</v>
+      </c>
+      <c r="G42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έχε γεία</v>
-      </c>
-      <c r="G42" s="3" t="str">
+        <v>έχε γεία-γεια σου</v>
+      </c>
+      <c r="H42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έχε γεία-γεια σου</v>
-      </c>
-      <c r="H42" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έχε γεία-γεια σου-</v>
       </c>
     </row>
@@ -7641,15 +7956,15 @@
         <v>1</v>
       </c>
       <c r="F43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>έχου</v>
+      </c>
+      <c r="G43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>έχου</v>
-      </c>
-      <c r="G43" s="3" t="str">
+        <v>έχου-έχω</v>
+      </c>
+      <c r="H43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>έχου-έχω</v>
-      </c>
-      <c r="H43" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>έχου-έχω-Ρ</v>
       </c>
     </row>
@@ -7672,11 +7987,11 @@
         <v>βότσ̌ε</v>
       </c>
       <c r="G44" s="3" t="str">
-        <f t="shared" ref="G44:G107" si="4">_xlfn.CONCAT(B44,"-",C44)</f>
+        <f t="shared" si="0"/>
         <v>βότσ̌ε-σταφύλι</v>
       </c>
       <c r="H44" s="3" t="str">
-        <f t="shared" ref="H44:H107" si="5">_xlfn.CONCAT(B44,"-",C44,"-",D44)</f>
+        <f t="shared" si="1"/>
         <v>βότσ̌ε-σταφύλι-Α3</v>
       </c>
     </row>
@@ -7699,11 +8014,11 @@
         <v>ήσυχο</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>ήσυχο-ήσυχος</v>
       </c>
       <c r="H45" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>ήσυχο-ήσυχος-Ε</v>
       </c>
     </row>
@@ -7726,11 +8041,11 @@
         <v>ίκ̇ου</v>
       </c>
       <c r="G46" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>ίκ̇ου-κρατώ, βαστώ</v>
       </c>
       <c r="H46" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>ίκ̇ου-κρατώ, βαστώ-Ρ</v>
       </c>
     </row>
@@ -7753,11 +8068,11 @@
         <v>ίσ̌α</v>
       </c>
       <c r="G47" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>ίσ̌α-πλάτη</v>
       </c>
       <c r="H47" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>ίσ̌α-πλάτη-Θ1</v>
       </c>
     </row>
@@ -7778,11 +8093,11 @@
         <v>ίσα</v>
       </c>
       <c r="G48" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>ίσα-ίσια, κατευθείαν</v>
       </c>
       <c r="H48" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>ίσα-ίσια, κατευθείαν-</v>
       </c>
     </row>
@@ -7805,11 +8120,11 @@
         <v>ίσαμε</v>
       </c>
       <c r="G49" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>ίσαμε-μέχρι</v>
       </c>
       <c r="H49" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>ίσαμε-μέχρι-Ζ</v>
       </c>
     </row>
@@ -7832,11 +8147,11 @@
         <v>ίσουμα</v>
       </c>
       <c r="G50" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>ίσουμα-ίσωμα</v>
       </c>
       <c r="H50" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>ίσουμα-ίσωμα-Υ2</v>
       </c>
     </row>
@@ -7857,11 +8172,11 @@
         <v>α</v>
       </c>
       <c r="G51" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>α-η</v>
       </c>
       <c r="H51" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>α-η-</v>
       </c>
     </row>
@@ -7884,11 +8199,11 @@
         <v>αέρα</v>
       </c>
       <c r="G52" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αέρα-αέρας</v>
       </c>
       <c r="H52" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αέρα-αέρας-Α</v>
       </c>
     </row>
@@ -7911,11 +8226,11 @@
         <v>αβαίνου</v>
       </c>
       <c r="G53" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αβαίνου-λαβαίνω</v>
       </c>
       <c r="H53" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αβαίνου-λαβαίνω-Ρ</v>
       </c>
     </row>
@@ -7938,11 +8253,11 @@
         <v>αβανία</v>
       </c>
       <c r="G54" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αβανία-συκοφαντία</v>
       </c>
       <c r="H54" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αβανία-συκοφαντία-Θ</v>
       </c>
     </row>
@@ -7965,11 +8280,11 @@
         <v>αβζ̌ύντου</v>
       </c>
       <c r="G55" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αβζ̌ύντου-υποφέρω από δίψα, ουρλιάζω</v>
       </c>
       <c r="H55" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αβζ̌ύντου-υποφέρω από δίψα, ουρλιάζω-Ρ</v>
       </c>
     </row>
@@ -7992,11 +8307,11 @@
         <v>αβουτάνα</v>
       </c>
       <c r="G56" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αβουτάνα-αυτί</v>
       </c>
       <c r="H56" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αβουτάνα-αυτί-Θ1</v>
       </c>
     </row>
@@ -8019,11 +8334,11 @@
         <v>αβούκ̇ου</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αβούκ̇ου-λαβώνω</v>
       </c>
       <c r="H57" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αβούκ̇ου-λαβώνω-Ρ</v>
       </c>
     </row>
@@ -8046,11 +8361,11 @@
         <v>αβράχου</v>
       </c>
       <c r="G58" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αβράχου-αρπάζω</v>
       </c>
       <c r="H58" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αβράχου-αρπάζω-Ρ</v>
       </c>
     </row>
@@ -8073,11 +8388,11 @@
         <v>αγανίου</v>
       </c>
       <c r="G59" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αγανίου-παθαίνω οξείδωση</v>
       </c>
       <c r="H59" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αγανίου-παθαίνω οξείδωση-Ρ</v>
       </c>
     </row>
@@ -8100,11 +8415,11 @@
         <v>αγκίαλε</v>
       </c>
       <c r="G60" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αγκίαλε-αντίλαλος</v>
       </c>
       <c r="H60" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αγκίαλε-αντίλαλος-Α</v>
       </c>
     </row>
@@ -8127,11 +8442,11 @@
         <v>αγκαστού</v>
       </c>
       <c r="G61" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αγκαστού-φράσσω</v>
       </c>
       <c r="H61" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αγκαστού-φράσσω-ΡΒ2</v>
       </c>
     </row>
@@ -8152,11 +8467,11 @@
         <v>αγκατέ</v>
       </c>
       <c r="G62" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αγκατέ-φράχτης</v>
       </c>
       <c r="H62" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αγκατέ-φράχτης-</v>
       </c>
     </row>
@@ -8179,11 +8494,11 @@
         <v>αγκατού</v>
       </c>
       <c r="G63" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αγκατού-φράσσω</v>
       </c>
       <c r="H63" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αγκατού-φράσσω-Ρ</v>
       </c>
     </row>
@@ -8204,11 +8519,11 @@
         <v>αγκιοή</v>
       </c>
       <c r="G64" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αγκιοή-πολύ πικρό</v>
       </c>
       <c r="H64" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αγκιοή-πολύ πικρό-</v>
       </c>
     </row>
@@ -8231,11 +8546,11 @@
         <v>αγκοδέρου</v>
       </c>
       <c r="G65" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αγκοδέρου-υποφέρου από δύσπνοια</v>
       </c>
       <c r="H65" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αγκοδέρου-υποφέρου από δύσπνοια-Ρ</v>
       </c>
     </row>
@@ -8258,11 +8573,11 @@
         <v>αγκραΐτσ̌α</v>
       </c>
       <c r="G66" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αγκραΐτσ̌α-μάγκούρα</v>
       </c>
       <c r="H66" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αγκραΐτσ̌α-μάγκούρα-Θ</v>
       </c>
     </row>
@@ -8285,11 +8600,11 @@
         <v>αγκραίνου</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>αγκραίνου-μπλέκομαι</v>
       </c>
       <c r="H67" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>αγκραίνου-μπλέκομαι-Ρ</v>
       </c>
     </row>
@@ -8310,11 +8625,11 @@
         <v>αγκωνάρι</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G68:G131" si="4">_xlfn.CONCAT(B68,"-",C68)</f>
         <v>αγκωνάρι-αγκωνάρι</v>
       </c>
       <c r="H68" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H68:H131" si="5">_xlfn.CONCAT(B68,"-",C68,"-",D68)</f>
         <v>αγκωνάρι-αγκωνάρι-</v>
       </c>
     </row>
@@ -9380,11 +9695,11 @@
         <v>αν</v>
       </c>
       <c r="G108" s="3" t="str">
-        <f t="shared" ref="G108:G171" si="7">_xlfn.CONCAT(B108,"-",C108)</f>
+        <f t="shared" si="4"/>
         <v>αν-αν</v>
       </c>
       <c r="H108" s="3" t="str">
-        <f t="shared" ref="H108:H171" si="8">_xlfn.CONCAT(B108,"-",C108,"-",D108)</f>
+        <f t="shared" si="5"/>
         <v>αν-αν-Ζ</v>
       </c>
     </row>
@@ -9407,11 +9722,11 @@
         <v>ανάκοντα</v>
       </c>
       <c r="G109" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>ανάκοντα-κοντά</v>
       </c>
       <c r="H109" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>ανάκοντα-κοντά-Ζ</v>
       </c>
     </row>
@@ -9432,11 +9747,11 @@
         <v>ανάστσεα</v>
       </c>
       <c r="G110" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>ανάστσεα-ανάσκελα, ύπτια</v>
       </c>
       <c r="H110" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>ανάστσεα-ανάσκελα, ύπτια-</v>
       </c>
     </row>
@@ -9459,11 +9774,11 @@
         <v>αναλλεγούμενε</v>
       </c>
       <c r="G111" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>αναλλεγούμενε-αναλογίζομαι, στοχάζομαι</v>
       </c>
       <c r="H111" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>αναλλεγούμενε-αναλογίζομαι, στοχάζομαι-Ρ</v>
       </c>
     </row>
@@ -9486,11 +9801,11 @@
         <v>ανανοιρίζου</v>
       </c>
       <c r="G112" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>ανανοιρίζου-αναγνωρίζω</v>
       </c>
       <c r="H112" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>ανανοιρίζου-αναγνωρίζω-Ρ</v>
       </c>
     </row>
@@ -9513,11 +9828,11 @@
         <v>ανεμούκ̇ου</v>
       </c>
       <c r="G113" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>ανεμούκ̇ου-πετάω</v>
       </c>
       <c r="H113" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>ανεμούκ̇ου-πετάω-Ρ</v>
       </c>
     </row>
@@ -9540,11 +9855,11 @@
         <v>ανοίντου</v>
       </c>
       <c r="G114" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>ανοίντου-ανοίγω</v>
       </c>
       <c r="H114" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>ανοίντου-ανοίγω-Ρ</v>
       </c>
     </row>
@@ -9567,11 +9882,11 @@
         <v>αντζά</v>
       </c>
       <c r="G115" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>αντζά-απέναντι</v>
       </c>
       <c r="H115" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>αντζά-απέναντι-Ζ</v>
       </c>
     </row>
@@ -9594,11 +9909,11 @@
         <v>αντζάζου</v>
       </c>
       <c r="G116" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>αντζάζου-ακουμοώ την πληγή και την ερεθίζω</v>
       </c>
       <c r="H116" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>αντζάζου-ακουμοώ την πληγή και την ερεθίζω-Ρ</v>
       </c>
     </row>
@@ -9621,11 +9936,11 @@
         <v>αντζίναρε</v>
       </c>
       <c r="G117" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>αντζίναρε-αγκινάρα</v>
       </c>
       <c r="H117" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>αντζίναρε-αγκινάρα-Α3</v>
       </c>
     </row>
@@ -9648,11 +9963,11 @@
         <v>αντζίχου</v>
       </c>
       <c r="G118" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>αντζίχου-εγγίζω</v>
       </c>
       <c r="H118" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>αντζίχου-εγγίζω-Ρ</v>
       </c>
     </row>
@@ -9675,11 +9990,11 @@
         <v>αού</v>
       </c>
       <c r="G119" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>αού-λέω</v>
       </c>
       <c r="H119" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>αού-λέω-Ρ0</v>
       </c>
     </row>
@@ -9702,11 +10017,11 @@
         <v>απ̇άρα</v>
       </c>
       <c r="G120" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>απ̇άρα-πράσο</v>
       </c>
       <c r="H120" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>απ̇άρα-πράσο-Θ1</v>
       </c>
     </row>
@@ -9729,11 +10044,11 @@
         <v>απ̇αλία</v>
       </c>
       <c r="G121" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>απ̇αλία-σφαλάχτρι</v>
       </c>
       <c r="H121" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>απ̇αλία-σφαλάχτρι-Θ1</v>
       </c>
     </row>
@@ -9756,11 +10071,11 @@
         <v>απ̇αρα</v>
       </c>
       <c r="G122" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>απ̇αρα-πράσο</v>
       </c>
       <c r="H122" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>απ̇αρα-πράσο-Θ1</v>
       </c>
     </row>
@@ -9783,11 +10098,11 @@
         <v>απέ</v>
       </c>
       <c r="G123" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>απέ-λοιπόν</v>
       </c>
       <c r="H123" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>απέ-λοιπόν-Ζ</v>
       </c>
     </row>
@@ -9810,11 +10125,11 @@
         <v>απανούσε</v>
       </c>
       <c r="G124" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>απανούσε-από πάνω</v>
       </c>
       <c r="H124" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>απανούσε-από πάνω-Ζ</v>
       </c>
     </row>
@@ -9835,11 +10150,11 @@
         <v>απατζά</v>
       </c>
       <c r="G125" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>απατζά-απέναντι</v>
       </c>
       <c r="H125" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>απατζά-απέναντι-Ζ</v>
       </c>
     </row>
@@ -9862,11 +10177,11 @@
         <v>απλέου</v>
       </c>
       <c r="G126" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>απλέου-πλέω, κολυμβώ</v>
       </c>
       <c r="H126" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>απλέου-πλέω, κολυμβώ-Ρ</v>
       </c>
     </row>
@@ -9889,11 +10204,11 @@
         <v>αποβάνου</v>
       </c>
       <c r="G127" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>αποβάνου-αποβάλλω</v>
       </c>
       <c r="H127" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>αποβάνου-αποβάλλω-Ρ</v>
       </c>
     </row>
@@ -9916,11 +10231,11 @@
         <v>απογιάζου</v>
       </c>
       <c r="G128" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>απογιάζου-ξεγελώ την πείνα με κάτι</v>
       </c>
       <c r="H128" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>απογιάζου-ξεγελώ την πείνα με κάτι-Ρ</v>
       </c>
     </row>
@@ -9943,11 +10258,11 @@
         <v>αποδενάχου</v>
       </c>
       <c r="G129" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>αποδενάχου-αποδεικνύω, αποδείχνω</v>
       </c>
       <c r="H129" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>αποδενάχου-αποδεικνύω, αποδείχνω-Ρ</v>
       </c>
     </row>
@@ -9970,11 +10285,11 @@
         <v>αποού</v>
       </c>
       <c r="G130" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>αποού-στέλνω</v>
       </c>
       <c r="H130" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>αποού-στέλνω-Ρ</v>
       </c>
     </row>
@@ -9997,11 +10312,11 @@
         <v>αποσούκ̇ου</v>
       </c>
       <c r="G131" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>αποσούκ̇ου-πηγαίνω, μεταφέρω</v>
       </c>
       <c r="H131" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>αποσούκ̇ου-πηγαίνω, μεταφέρω-Ρ</v>
       </c>
     </row>
@@ -10024,11 +10339,11 @@
         <v>αποτσούνου</v>
       </c>
       <c r="G132" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G132:G195" si="7">_xlfn.CONCAT(B132,"-",C132)</f>
         <v>αποτσούνου-αποξέω, αποξύνω</v>
       </c>
       <c r="H132" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H132:H195" si="8">_xlfn.CONCAT(B132,"-",C132,"-",D132)</f>
         <v>αποτσούνου-αποξέω, αποξύνω-Ρ</v>
       </c>
     </row>
@@ -10466,7 +10781,9 @@
       <c r="C149" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D149" s="3"/>
+      <c r="D149" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E149" s="3">
         <v>1</v>
       </c>
@@ -10480,7 +10797,7 @@
       </c>
       <c r="H149" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>αργά-βράδυ-</v>
+        <v>αργά-βράδυ-Υ</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -11094,11 +11411,11 @@
         <v>αφόκιουρη</v>
       </c>
       <c r="G172" s="3" t="str">
-        <f t="shared" ref="G172:G235" si="10">_xlfn.CONCAT(B172,"-",C172)</f>
+        <f t="shared" si="7"/>
         <v>αφόκιουρη-μυζήθρα</v>
       </c>
       <c r="H172" s="3" t="str">
-        <f t="shared" ref="H172:H235" si="11">_xlfn.CONCAT(B172,"-",C172,"-",D172)</f>
+        <f t="shared" si="8"/>
         <v>αφόκιουρη-μυζήθρα-Θ</v>
       </c>
     </row>
@@ -11121,11 +11438,11 @@
         <v>αχρά</v>
       </c>
       <c r="G173" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>αχρά-αχλάδι</v>
       </c>
       <c r="H173" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>αχρά-αχλάδι-Θ3</v>
       </c>
     </row>
@@ -11148,11 +11465,11 @@
         <v>αχό</v>
       </c>
       <c r="G174" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>αχό-ήχος, μελωδία</v>
       </c>
       <c r="H174" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>αχό-ήχος, μελωδία-Α</v>
       </c>
     </row>
@@ -11175,11 +11492,11 @@
         <v>αψελέ</v>
       </c>
       <c r="G175" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>αψελέ-ψηλός</v>
       </c>
       <c r="H175" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>αψελέ-ψηλός-Ε1</v>
       </c>
     </row>
@@ -11200,11 +11517,11 @@
         <v>αωνάρη</v>
       </c>
       <c r="G176" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>αωνάρη-ιούλιος</v>
       </c>
       <c r="H176" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>αωνάρη-ιούλιος-</v>
       </c>
     </row>
@@ -11227,11 +11544,11 @@
         <v>αωνού</v>
       </c>
       <c r="G177" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>αωνού-αλωνίζω</v>
       </c>
       <c r="H177" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>αωνού-αλωνίζω-Ρ</v>
       </c>
     </row>
@@ -11254,11 +11571,11 @@
         <v>αϊθη</v>
       </c>
       <c r="G178" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>αϊθη-αδελφός</v>
       </c>
       <c r="H178" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>αϊθη-αδελφός-Α0</v>
       </c>
     </row>
@@ -11281,11 +11598,11 @@
         <v>βάνε</v>
       </c>
       <c r="G179" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βάνε-αρνί</v>
       </c>
       <c r="H179" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βάνε-αρνί-Α1</v>
       </c>
     </row>
@@ -11308,11 +11625,11 @@
         <v>βάνου</v>
       </c>
       <c r="G180" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βάνου-βάζω</v>
       </c>
       <c r="H180" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βάνου-βάζω-Ρ</v>
       </c>
     </row>
@@ -11335,11 +11652,11 @@
         <v>βάρκα</v>
       </c>
       <c r="G181" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βάρκα-βάρκα</v>
       </c>
       <c r="H181" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βάρκα-βάρκα-Θ1</v>
       </c>
     </row>
@@ -11360,11 +11677,11 @@
         <v>βίκο</v>
       </c>
       <c r="G182" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βίκο-βίκο</v>
       </c>
       <c r="H182" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βίκο-βίκο-</v>
       </c>
     </row>
@@ -11387,11 +11704,11 @@
         <v>βαΰζου</v>
       </c>
       <c r="G183" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βαΰζου-σκούζω, φωνάζω</v>
       </c>
       <c r="H183" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βαΰζου-σκούζω, φωνάζω-Ρ</v>
       </c>
     </row>
@@ -11414,11 +11731,11 @@
         <v>βαθαίνου</v>
       </c>
       <c r="G184" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βαθαίνου-βαθύνω</v>
       </c>
       <c r="H184" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βαθαίνου-βαθύνω-Ρ</v>
       </c>
     </row>
@@ -11441,11 +11758,11 @@
         <v>βαθιού</v>
       </c>
       <c r="G185" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βαθιού-βαθύς</v>
       </c>
       <c r="H185" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βαθιού-βαθύς-Ε7</v>
       </c>
     </row>
@@ -11468,11 +11785,11 @@
         <v>βανί</v>
       </c>
       <c r="G186" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βανί-αρνάκι</v>
       </c>
       <c r="H186" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βανί-αρνάκι-Υ</v>
       </c>
     </row>
@@ -11495,11 +11812,11 @@
         <v>βαρέλι</v>
       </c>
       <c r="G187" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βαρέλι-βαρέλι</v>
       </c>
       <c r="H187" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βαρέλι-βαρέλι-Υ</v>
       </c>
     </row>
@@ -11522,11 +11839,11 @@
         <v>βαριού</v>
       </c>
       <c r="G188" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βαριού-βαρύς</v>
       </c>
       <c r="H188" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βαριού-βαρύς-Ε7</v>
       </c>
     </row>
@@ -11549,11 +11866,11 @@
         <v>βασανίζου</v>
       </c>
       <c r="G189" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βασανίζου-βασανίζω, τυραννώ</v>
       </c>
       <c r="H189" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βασανίζου-βασανίζω, τυραννώ-Ρ</v>
       </c>
     </row>
@@ -11576,11 +11893,11 @@
         <v>βαφκίζου</v>
       </c>
       <c r="G190" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βαφκίζου-βαπτίζω</v>
       </c>
       <c r="H190" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βαφκίζου-βαπτίζω-Ρ</v>
       </c>
     </row>
@@ -11603,11 +11920,11 @@
         <v>βαφκισκό</v>
       </c>
       <c r="G191" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βαφκισκό-βαφτισιμιός</v>
       </c>
       <c r="H191" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βαφκισκό-βαφτισιμιός-Α1</v>
       </c>
     </row>
@@ -11630,11 +11947,11 @@
         <v>βδιμά</v>
       </c>
       <c r="G192" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βδιμά-εβδομάδα</v>
       </c>
       <c r="H192" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βδιμά-εβδομάδα-Θ3</v>
       </c>
     </row>
@@ -11657,11 +11974,11 @@
         <v>βοά</v>
       </c>
       <c r="G193" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βοά-φορά</v>
       </c>
       <c r="H193" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βοά-φορά-Θ</v>
       </c>
     </row>
@@ -11684,11 +12001,11 @@
         <v>βογού</v>
       </c>
       <c r="G194" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βογού-ευλογώ</v>
       </c>
       <c r="H194" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βογού-ευλογώ-Ρ</v>
       </c>
     </row>
@@ -11711,11 +12028,11 @@
         <v>βοτανίζου</v>
       </c>
       <c r="G195" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>βοτανίζου-βοτανίζω</v>
       </c>
       <c r="H195" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>βοτανίζου-βοτανίζω-Ρ</v>
       </c>
     </row>
@@ -11738,11 +12055,11 @@
         <v>βου</v>
       </c>
       <c r="G196" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G196:G259" si="10">_xlfn.CONCAT(B196,"-",C196)</f>
         <v>βου-κλαίω</v>
       </c>
       <c r="H196" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H196:H259" si="11">_xlfn.CONCAT(B196,"-",C196,"-",D196)</f>
         <v>βου-κλαίω-Ρ</v>
       </c>
     </row>
@@ -12804,11 +13121,11 @@
         <v>γκριουφούμενε</v>
       </c>
       <c r="G236" s="3" t="str">
-        <f t="shared" ref="G236:G299" si="13">_xlfn.CONCAT(B236,"-",C236)</f>
+        <f t="shared" si="10"/>
         <v>γκριουφούμενε-γκριουφτού</v>
       </c>
       <c r="H236" s="3" t="str">
-        <f t="shared" ref="H236:H299" si="14">_xlfn.CONCAT(B236,"-",C236,"-",D236)</f>
+        <f t="shared" si="11"/>
         <v>γκριουφούμενε-γκριουφτού-Ρ</v>
       </c>
     </row>
@@ -12831,11 +13148,11 @@
         <v>γκριούφου</v>
       </c>
       <c r="G237" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γκριούφου-κρύβω</v>
       </c>
       <c r="H237" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γκριούφου-κρύβω-Ρ</v>
       </c>
     </row>
@@ -12858,11 +13175,11 @@
         <v>γλεγκίχου</v>
       </c>
       <c r="G238" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γλεγκίχου-γλεντάω</v>
       </c>
       <c r="H238" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γλεγκίχου-γλεντάω-ΡΑ4</v>
       </c>
     </row>
@@ -12885,11 +13202,11 @@
         <v>γον̇ία</v>
       </c>
       <c r="G239" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γον̇ία-γονιός</v>
       </c>
       <c r="H239" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γον̇ία-γονιός-Α</v>
       </c>
     </row>
@@ -12912,11 +13229,11 @@
         <v>γον̇ία</v>
       </c>
       <c r="G240" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γον̇ία-γονιός</v>
       </c>
       <c r="H240" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γον̇ία-γονιός-Α2</v>
       </c>
     </row>
@@ -12939,11 +13256,11 @@
         <v>γουναίκα</v>
       </c>
       <c r="G241" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γουναίκα-γυναίκα</v>
       </c>
       <c r="H241" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γουναίκα-γυναίκα-Θ1</v>
       </c>
     </row>
@@ -12966,11 +13283,11 @@
         <v>γούνα</v>
       </c>
       <c r="G242" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γούνα-γόνατο</v>
       </c>
       <c r="H242" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γούνα-γόνατο-Υ</v>
       </c>
     </row>
@@ -12993,11 +13310,11 @@
         <v>γράμμα</v>
       </c>
       <c r="G243" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γράμμα-γράμμα</v>
       </c>
       <c r="H243" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γράμμα-γράμμα-Υ</v>
       </c>
     </row>
@@ -13020,11 +13337,11 @@
         <v>γράφου</v>
       </c>
       <c r="G244" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γράφου-γράφω</v>
       </c>
       <c r="H244" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γράφου-γράφω-Ρ</v>
       </c>
     </row>
@@ -13047,11 +13364,11 @@
         <v>γρία</v>
       </c>
       <c r="G245" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γρία-γριά</v>
       </c>
       <c r="H245" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γρία-γριά-Θ1</v>
       </c>
     </row>
@@ -13074,11 +13391,11 @@
         <v>γρίππη</v>
       </c>
       <c r="G246" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γρίππη-γρίπη</v>
       </c>
       <c r="H246" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γρίππη-γρίπη-Θ</v>
       </c>
     </row>
@@ -13101,11 +13418,11 @@
         <v>γραμμακική</v>
       </c>
       <c r="G247" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γραμμακική-γραμματική</v>
       </c>
       <c r="H247" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γραμμακική-γραμματική-Θ</v>
       </c>
     </row>
@@ -13128,11 +13445,11 @@
         <v>γρασίδι</v>
       </c>
       <c r="G248" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γρασίδι-γρασίδι</v>
       </c>
       <c r="H248" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γρασίδι-γρασίδι-Υ</v>
       </c>
     </row>
@@ -13155,11 +13472,11 @@
         <v>γριτ͡σέα</v>
       </c>
       <c r="G249" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γριτ͡σέα-κουλούρα</v>
       </c>
       <c r="H249" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γριτ͡σέα-κουλούρα-Θ2</v>
       </c>
     </row>
@@ -13182,11 +13499,11 @@
         <v>γρούσσα</v>
       </c>
       <c r="G250" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γρούσσα-γλώσσα</v>
       </c>
       <c r="H250" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γρούσσα-γλώσσα-Θ1</v>
       </c>
     </row>
@@ -13207,11 +13524,11 @@
         <v>γυαλία</v>
       </c>
       <c r="G251" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γυαλία-γυαλιά</v>
       </c>
       <c r="H251" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γυαλία-γυαλιά-</v>
       </c>
     </row>
@@ -13234,11 +13551,11 @@
         <v>γων̇ία</v>
       </c>
       <c r="G252" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>γων̇ία-γωνιά</v>
       </c>
       <c r="H252" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>γων̇ία-γωνιά-Θ1</v>
       </c>
     </row>
@@ -13261,11 +13578,11 @@
         <v>δάμακα</v>
       </c>
       <c r="G253" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>δάμακα-λαχίδα</v>
       </c>
       <c r="H253" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>δάμακα-λαχίδα-Α</v>
       </c>
     </row>
@@ -13288,11 +13605,11 @@
         <v>δάσκαλε</v>
       </c>
       <c r="G254" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>δάσκαλε-δάσκαλος</v>
       </c>
       <c r="H254" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>δάσκαλε-δάσκαλος-Α</v>
       </c>
     </row>
@@ -13315,11 +13632,11 @@
         <v>δάτ̇υλε</v>
       </c>
       <c r="G255" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>δάτ̇υλε-δάκτυλος</v>
       </c>
       <c r="H255" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>δάτ̇υλε-δάκτυλος-Α1</v>
       </c>
     </row>
@@ -13342,11 +13659,11 @@
         <v>δέηµα</v>
       </c>
       <c r="G256" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>δέηµα-κοντό κολοκύθι</v>
       </c>
       <c r="H256" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>δέηµα-κοντό κολοκύθι-Υ2</v>
       </c>
     </row>
@@ -13369,11 +13686,11 @@
         <v>δέρου</v>
       </c>
       <c r="G257" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>δέρου-δέρνω, χτυπώ</v>
       </c>
       <c r="H257" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>δέρου-δέρνω, χτυπώ-ΡΑ13</v>
       </c>
     </row>
@@ -13396,11 +13713,11 @@
         <v>δίγκα</v>
       </c>
       <c r="G258" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>δίγκα-ίγκλα</v>
       </c>
       <c r="H258" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>δίγκα-ίγκλα-Θ1</v>
       </c>
     </row>
@@ -13423,11 +13740,11 @@
         <v>δίου</v>
       </c>
       <c r="G259" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>δίου-δίνω</v>
       </c>
       <c r="H259" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>δίου-δίνω-Ρ</v>
       </c>
     </row>
@@ -13448,11 +13765,11 @@
         <v>δίπα</v>
       </c>
       <c r="G260" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G260:G323" si="13">_xlfn.CONCAT(B260,"-",C260)</f>
         <v>δίπα-δίπλα</v>
       </c>
       <c r="H260" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H260:H323" si="14">_xlfn.CONCAT(B260,"-",C260,"-",D260)</f>
         <v>δίπα-δίπλα-</v>
       </c>
     </row>
@@ -14512,11 +14829,11 @@
         <v>εξόν</v>
       </c>
       <c r="G300" s="3" t="str">
-        <f t="shared" ref="G300:G363" si="16">_xlfn.CONCAT(B300,"-",C300)</f>
+        <f t="shared" si="13"/>
         <v>εξόν-εκτός</v>
       </c>
       <c r="H300" s="3" t="str">
-        <f t="shared" ref="H300:H363" si="17">_xlfn.CONCAT(B300,"-",C300,"-",D300)</f>
+        <f t="shared" si="14"/>
         <v>εξόν-εκτός-</v>
       </c>
     </row>
@@ -14539,11 +14856,11 @@
         <v>επ̇έρι</v>
       </c>
       <c r="G301" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>επ̇έρι-χθες</v>
       </c>
       <c r="H301" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>επ̇έρι-χθες-Ζ</v>
       </c>
     </row>
@@ -14566,11 +14883,11 @@
         <v>ερέχου</v>
       </c>
       <c r="G302" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ερέχου-βρίσκω</v>
       </c>
       <c r="H302" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ερέχου-βρίσκω-Ρ</v>
       </c>
     </row>
@@ -14593,11 +14910,11 @@
         <v>ερίκ̇ου</v>
       </c>
       <c r="G303" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ερίκ̇ου-βρίσκω</v>
       </c>
       <c r="H303" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ερίκ̇ου-βρίσκω-Ρ</v>
       </c>
     </row>
@@ -14620,11 +14937,11 @@
         <v>ερικ̇ούμενε</v>
       </c>
       <c r="G304" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ερικ̇ούμενε-βρίσκομαι</v>
       </c>
       <c r="H304" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ερικ̇ούμενε-βρίσκομαι-Ρ</v>
       </c>
     </row>
@@ -14647,11 +14964,11 @@
         <v>εστιατόριο</v>
       </c>
       <c r="G305" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>εστιατόριο-εστιατόριο</v>
       </c>
       <c r="H305" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>εστιατόριο-εστιατόριο-Υ1</v>
       </c>
     </row>
@@ -14674,11 +14991,11 @@
         <v>ευτσή</v>
       </c>
       <c r="G306" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ευτσή-ευχή</v>
       </c>
       <c r="H306" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ευτσή-ευχή-Θ</v>
       </c>
     </row>
@@ -14701,11 +15018,11 @@
         <v>ευχαριστού</v>
       </c>
       <c r="G307" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ευχαριστού-ευχαριστώ</v>
       </c>
       <c r="H307" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ευχαριστού-ευχαριστώ-Ρ</v>
       </c>
     </row>
@@ -14728,11 +15045,11 @@
         <v>ζ̌ογκό</v>
       </c>
       <c r="G308" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζ̌ογκό-τζοχός</v>
       </c>
       <c r="H308" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζ̌ογκό-τζοχός-Α1</v>
       </c>
     </row>
@@ -14755,11 +15072,11 @@
         <v>ζ̌ούγανη</v>
       </c>
       <c r="G309" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζ̌ούγανη-ρίγανη</v>
       </c>
       <c r="H309" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζ̌ούγανη-ρίγανη-Θ1</v>
       </c>
     </row>
@@ -14782,11 +15099,11 @@
         <v>ζαλέγγου</v>
       </c>
       <c r="G310" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζαλέγγου-διαλέγω</v>
       </c>
       <c r="H310" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζαλέγγου-διαλέγω-Ρ</v>
       </c>
     </row>
@@ -14807,11 +15124,11 @@
         <v>ζαρζαβατικά</v>
       </c>
       <c r="G311" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζαρζαβατικά-λαχανικά</v>
       </c>
       <c r="H311" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζαρζαβατικά-λαχανικά-</v>
       </c>
     </row>
@@ -14834,11 +15151,11 @@
         <v>ζβαΐχου</v>
       </c>
       <c r="G312" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζβαΐχου-διαβάζω</v>
       </c>
       <c r="H312" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζβαΐχου-διαβάζω-Ρ</v>
       </c>
     </row>
@@ -14861,11 +15178,11 @@
         <v>ζευγοάτα</v>
       </c>
       <c r="G313" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζευγοάτα-ζαυγολάτης</v>
       </c>
       <c r="H313" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζευγοάτα-ζαυγολάτης-Α</v>
       </c>
     </row>
@@ -14888,11 +15205,11 @@
         <v>ζηνία</v>
       </c>
       <c r="G314" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζηνία-ζημιά</v>
       </c>
       <c r="H314" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζηνία-ζημιά-Θ</v>
       </c>
     </row>
@@ -14915,11 +15232,11 @@
         <v>ζυγούνου</v>
       </c>
       <c r="G315" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζυγούνου-πλησιάζω</v>
       </c>
       <c r="H315" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζυγούνου-πλησιάζω-Ρ</v>
       </c>
     </row>
@@ -14942,11 +15259,11 @@
         <v>ζυρογού</v>
       </c>
       <c r="G316" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζυρογού-βρωμοκοπάω</v>
       </c>
       <c r="H316" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζυρογού-βρωμοκοπάω-Ρ</v>
       </c>
     </row>
@@ -14969,11 +15286,11 @@
         <v>ζωή</v>
       </c>
       <c r="G317" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζωή-ζωή</v>
       </c>
       <c r="H317" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζωή-ζωή-Θ</v>
       </c>
     </row>
@@ -14996,11 +15313,11 @@
         <v>ζύμουμα</v>
       </c>
       <c r="G318" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζύμουμα-ζύμωμα</v>
       </c>
       <c r="H318" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζύμουμα-ζύμωμα-Υ2</v>
       </c>
     </row>
@@ -15023,11 +15340,11 @@
         <v>ζώο</v>
       </c>
       <c r="G319" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>ζώο-ζώο</v>
       </c>
       <c r="H319" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>ζώο-ζώο-Υ1</v>
       </c>
     </row>
@@ -15050,11 +15367,11 @@
         <v>θάσσα</v>
       </c>
       <c r="G320" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>θάσσα-θάλασσα</v>
       </c>
       <c r="H320" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>θάσσα-θάλασσα-Θ</v>
       </c>
     </row>
@@ -15077,11 +15394,11 @@
         <v>θέου</v>
       </c>
       <c r="G321" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>θέου-θέλω</v>
       </c>
       <c r="H321" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>θέου-θέλω-Ρ</v>
       </c>
     </row>
@@ -15102,11 +15419,11 @@
         <v>θα</v>
       </c>
       <c r="G322" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>θα-θα</v>
       </c>
       <c r="H322" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>θα-θα-</v>
       </c>
     </row>
@@ -15129,11 +15446,11 @@
         <v>θαραπαή</v>
       </c>
       <c r="G323" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>θαραπαή-θεραπεία</v>
       </c>
       <c r="H323" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>θαραπαή-θεραπεία-Θ</v>
       </c>
     </row>
@@ -15156,11 +15473,11 @@
         <v>θελ̣ία</v>
       </c>
       <c r="G324" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="G324:G387" si="16">_xlfn.CONCAT(B324,"-",C324)</f>
         <v>θελ̣ία-θηλιά</v>
       </c>
       <c r="H324" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="H324:H387" si="17">_xlfn.CONCAT(B324,"-",C324,"-",D324)</f>
         <v>θελ̣ία-θηλιά-Θ</v>
       </c>
     </row>
@@ -16230,11 +16547,11 @@
         <v>κίσου</v>
       </c>
       <c r="G364" s="3" t="str">
-        <f t="shared" ref="G364:G427" si="19">_xlfn.CONCAT(B364,"-",C364)</f>
+        <f t="shared" si="16"/>
         <v>κίσου-πίσω</v>
       </c>
       <c r="H364" s="3" t="str">
-        <f t="shared" ref="H364:H427" si="20">_xlfn.CONCAT(B364,"-",C364,"-",D364)</f>
+        <f t="shared" si="17"/>
         <v>κίσου-πίσω-Ζ</v>
       </c>
     </row>
@@ -16257,11 +16574,11 @@
         <v>κίτ̇α</v>
       </c>
       <c r="G365" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>κίτ̇α-πίτα</v>
       </c>
       <c r="H365" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>κίτ̇α-πίτα-Θ</v>
       </c>
     </row>
@@ -16284,11 +16601,11 @@
         <v>καΐα</v>
       </c>
       <c r="G366" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καΐα-μεγάλη ζέστη</v>
       </c>
       <c r="H366" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καΐα-μεγάλη ζέστη-Θ</v>
       </c>
     </row>
@@ -16311,11 +16628,11 @@
         <v>καΐτ͡σι</v>
       </c>
       <c r="G367" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καΐτ͡σι-καΐκι</v>
       </c>
       <c r="H367" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καΐτ͡σι-καΐκι-Υ</v>
       </c>
     </row>
@@ -16338,11 +16655,11 @@
         <v>καγκήλι</v>
       </c>
       <c r="G368" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καγκήλι-καντήλι</v>
       </c>
       <c r="H368" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καγκήλι-καντήλι-Υ3</v>
       </c>
     </row>
@@ -16365,11 +16682,11 @@
         <v>καζ̌ά</v>
       </c>
       <c r="G369" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καζ̌ά-καρυδιά</v>
       </c>
       <c r="H369" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καζ̌ά-καρυδιά-Θ1</v>
       </c>
     </row>
@@ -16392,11 +16709,11 @@
         <v>καθόλου</v>
       </c>
       <c r="G370" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καθόλου-καθόλου</v>
       </c>
       <c r="H370" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καθόλου-καθόλου-Ζ</v>
       </c>
     </row>
@@ -16419,11 +16736,11 @@
         <v>κακίστρι</v>
       </c>
       <c r="G371" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>κακίστρι-καπίστρι</v>
       </c>
       <c r="H371" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>κακίστρι-καπίστρι-Υ3</v>
       </c>
     </row>
@@ -16446,11 +16763,11 @@
         <v>κακότ̇ο</v>
       </c>
       <c r="G372" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>κακότ̇ο-κακότοπος</v>
       </c>
       <c r="H372" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>κακότ̇ο-κακότοπος-Α</v>
       </c>
     </row>
@@ -16473,11 +16790,11 @@
         <v>καλέ</v>
       </c>
       <c r="G373" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καλέ-καλός</v>
       </c>
       <c r="H373" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καλέ-καλός-Ε1</v>
       </c>
     </row>
@@ -16500,11 +16817,11 @@
         <v>καμάσου</v>
       </c>
       <c r="G374" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καμάσου-είμαι ικανός</v>
       </c>
       <c r="H374" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καμάσου-είμαι ικανός-Ρ</v>
       </c>
     </row>
@@ -16527,11 +16844,11 @@
         <v>καμπαΐχου</v>
       </c>
       <c r="G375" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καμπαΐχου-κατεβαίνω</v>
       </c>
       <c r="H375" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καμπαΐχου-κατεβαίνω-Ρ</v>
       </c>
     </row>
@@ -16552,11 +16869,11 @@
         <v>κανένα</v>
       </c>
       <c r="G376" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>κανένα-κανένας</v>
       </c>
       <c r="H376" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>κανένα-κανένας-</v>
       </c>
     </row>
@@ -16579,11 +16896,11 @@
         <v>καουτσ̇αίρι</v>
       </c>
       <c r="G377" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καουτσ̇αίρι-καλοκαίρι</v>
       </c>
       <c r="H377" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καουτσ̇αίρι-καλοκαίρι-Υ3</v>
       </c>
     </row>
@@ -16606,11 +16923,11 @@
         <v>καραφερίκ̇ου</v>
       </c>
       <c r="G378" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καραφερίκ̇ου-καταφέρνω</v>
       </c>
       <c r="H378" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καραφερίκ̇ου-καταφέρνω-Ρ</v>
       </c>
     </row>
@@ -16633,11 +16950,11 @@
         <v>καρβούνι</v>
       </c>
       <c r="G379" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καρβούνι-άνθρακα</v>
       </c>
       <c r="H379" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καρβούνι-άνθρακα-Υ</v>
       </c>
     </row>
@@ -16660,11 +16977,11 @@
         <v>καρδία</v>
       </c>
       <c r="G380" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καρδία-καρδιά</v>
       </c>
       <c r="H380" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καρδία-καρδιά-Θ1</v>
       </c>
     </row>
@@ -16687,11 +17004,11 @@
         <v>καρδιάζου</v>
       </c>
       <c r="G381" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καρδιάζου-κρυώνω</v>
       </c>
       <c r="H381" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καρδιάζου-κρυώνω-Ρ</v>
       </c>
     </row>
@@ -16714,11 +17031,11 @@
         <v>καρναμπίτσ̇ι</v>
       </c>
       <c r="G382" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καρναμπίτσ̇ι-κουνουπίδι</v>
       </c>
       <c r="H382" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καρναμπίτσ̇ι-κουνουπίδι-Υ</v>
       </c>
     </row>
@@ -16739,11 +17056,11 @@
         <v>καρτερεμό</v>
       </c>
       <c r="G383" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>καρτερεμό-υπομονή, συγκράτηση</v>
       </c>
       <c r="H383" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>καρτερεμό-υπομονή, συγκράτηση-</v>
       </c>
     </row>
@@ -16766,11 +17083,11 @@
         <v>κασίου</v>
       </c>
       <c r="G384" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>κασίου-κοιμάμαι</v>
       </c>
       <c r="H384" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>κασίου-κοιμάμαι-Ρ</v>
       </c>
     </row>
@@ -16793,11 +17110,11 @@
         <v>κασημένε</v>
       </c>
       <c r="G385" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>κασημένε-κάθομαι</v>
       </c>
       <c r="H385" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>κασημένε-κάθομαι-Ρ</v>
       </c>
     </row>
@@ -16820,11 +17137,11 @@
         <v>κατ͡σίνου</v>
       </c>
       <c r="G386" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>κατ͡σίνου-δαγκώνω</v>
       </c>
       <c r="H386" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>κατ͡σίνου-δαγκώνω-ΡΑ1</v>
       </c>
     </row>
@@ -16847,11 +17164,11 @@
         <v>κατάβα</v>
       </c>
       <c r="G387" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>κατάβα-κατήφορος</v>
       </c>
       <c r="H387" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>κατάβα-κατήφορος-Α</v>
       </c>
     </row>
@@ -16874,11 +17191,11 @@
         <v>καταβαίνου</v>
       </c>
       <c r="G388" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="G388:G451" si="19">_xlfn.CONCAT(B388,"-",C388)</f>
         <v>καταβαίνου-καταλαβαίνω</v>
       </c>
       <c r="H388" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="H388:H451" si="20">_xlfn.CONCAT(B388,"-",C388,"-",D388)</f>
         <v>καταβαίνου-καταλαβαίνω-Ρ</v>
       </c>
     </row>
@@ -17944,11 +18261,11 @@
         <v>κοτρόνα</v>
       </c>
       <c r="G428" s="3" t="str">
-        <f t="shared" ref="G428:G491" si="22">_xlfn.CONCAT(B428,"-",C428)</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">κοτρόνα-πέτρα </v>
       </c>
       <c r="H428" s="3" t="str">
-        <f t="shared" ref="H428:H491" si="23">_xlfn.CONCAT(B428,"-",C428,"-",D428)</f>
+        <f t="shared" si="20"/>
         <v>κοτρόνα-πέτρα -</v>
       </c>
     </row>
@@ -17971,11 +18288,11 @@
         <v>κοτσ̌οφό</v>
       </c>
       <c r="G429" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κοτσ̌οφό-κοτσύφι</v>
       </c>
       <c r="H429" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κοτσ̌οφό-κοτσύφι-Α1</v>
       </c>
     </row>
@@ -17998,11 +18315,11 @@
         <v>κοτσινέ</v>
       </c>
       <c r="G430" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κοτσινέ-κόκκινος</v>
       </c>
       <c r="H430" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κοτσινέ-κόκκινος-Ε</v>
       </c>
     </row>
@@ -18025,11 +18342,11 @@
         <v>κουβάλ̣ημα</v>
       </c>
       <c r="G431" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουβάλ̣ημα-μεταφορά</v>
       </c>
       <c r="H431" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουβάλ̣ημα-μεταφορά-Υ2</v>
       </c>
     </row>
@@ -18042,7 +18359,7 @@
         <v>847</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E432" s="3">
         <v>1</v>
@@ -18052,12 +18369,12 @@
         <v>κουβανέ</v>
       </c>
       <c r="G432" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουβανέ-μαύρος</v>
       </c>
       <c r="H432" s="3" t="str">
-        <f t="shared" si="23"/>
-        <v>κουβανέ-μαύρος-Ε</v>
+        <f t="shared" si="20"/>
+        <v>κουβανέ-μαύρος-Ε2</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -18079,11 +18396,11 @@
         <v>κουβαού</v>
       </c>
       <c r="G433" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουβαού-κουβαλώ</v>
       </c>
       <c r="H433" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουβαού-κουβαλώ-Ρ</v>
       </c>
     </row>
@@ -18106,11 +18423,11 @@
         <v>κουβεγκιάζου</v>
       </c>
       <c r="G434" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουβεγκιάζου-κουβεντιάζω</v>
       </c>
       <c r="H434" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουβεγκιάζου-κουβεντιάζω-Ρ</v>
       </c>
     </row>
@@ -18133,11 +18450,11 @@
         <v>κουγκί</v>
       </c>
       <c r="G435" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουγκί-κουμπί</v>
       </c>
       <c r="H435" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουγκί-κουμπί-Υ</v>
       </c>
     </row>
@@ -18160,11 +18477,11 @@
         <v>κουκί</v>
       </c>
       <c r="G436" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουκί-κουτί</v>
       </c>
       <c r="H436" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουκί-κουτί-Υ</v>
       </c>
     </row>
@@ -18187,11 +18504,11 @@
         <v>κουκί</v>
       </c>
       <c r="G437" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουκί-κουπί</v>
       </c>
       <c r="H437" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουκί-κουπί-Υ</v>
       </c>
     </row>
@@ -18214,11 +18531,11 @@
         <v>κουκουτσία</v>
       </c>
       <c r="G438" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουκουτσία-κουτσουπιά</v>
       </c>
       <c r="H438" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουκουτσία-κουτσουπιά-Θ1</v>
       </c>
     </row>
@@ -18239,11 +18556,11 @@
         <v>κουλίντζου</v>
       </c>
       <c r="G439" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουλίντζου-είδος ζυμαρικού</v>
       </c>
       <c r="H439" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουλίντζου-είδος ζυμαρικού-</v>
       </c>
     </row>
@@ -18266,11 +18583,11 @@
         <v>κουμούτσι</v>
       </c>
       <c r="G440" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουμούτσι-κομμάτι</v>
       </c>
       <c r="H440" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουμούτσι-κομμάτι-Υ</v>
       </c>
     </row>
@@ -18293,11 +18610,11 @@
         <v>κουμπάνι</v>
       </c>
       <c r="G441" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουμπάνι-προμήθεια</v>
       </c>
       <c r="H441" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουμπάνι-προμήθεια-Υ</v>
       </c>
     </row>
@@ -18320,11 +18637,11 @@
         <v>κουνάρι</v>
       </c>
       <c r="G442" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουνάρι-σκυλάκι</v>
       </c>
       <c r="H442" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουνάρι-σκυλάκι-Υ3</v>
       </c>
     </row>
@@ -18347,11 +18664,11 @@
         <v>κουνία</v>
       </c>
       <c r="G443" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουνία-στάμνα</v>
       </c>
       <c r="H443" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουνία-στάμνα-Θ</v>
       </c>
     </row>
@@ -18374,11 +18691,11 @@
         <v>κουνίντου</v>
       </c>
       <c r="G444" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουνίντου-ζητώ</v>
       </c>
       <c r="H444" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουνίντου-ζητώ-ΡΑ4</v>
       </c>
     </row>
@@ -18401,11 +18718,11 @@
         <v>κουνια</v>
       </c>
       <c r="G445" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουνια-στάμνα</v>
       </c>
       <c r="H445" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουνια-στάμνα-Θ2</v>
       </c>
     </row>
@@ -18428,11 +18745,11 @@
         <v>κουράζομαι</v>
       </c>
       <c r="G446" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουράζομαι-ακισταινούμενε</v>
       </c>
       <c r="H446" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουράζομαι-ακισταινούμενε-Ρ</v>
       </c>
     </row>
@@ -18455,11 +18772,11 @@
         <v>κουρασμένος</v>
       </c>
       <c r="G447" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουρασμένος-ακιστατέ</v>
       </c>
       <c r="H447" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουρασμένος-ακιστατέ-Ε</v>
       </c>
     </row>
@@ -18482,11 +18799,11 @@
         <v>κουφό</v>
       </c>
       <c r="G448" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κουφό-κουφός</v>
       </c>
       <c r="H448" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κουφό-κουφός-Ε6</v>
       </c>
     </row>
@@ -18509,11 +18826,11 @@
         <v>κοϊθίνι</v>
       </c>
       <c r="G449" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κοϊθίνι-κοφίνι</v>
       </c>
       <c r="H449" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κοϊθίνι-κοφίνι-Υ3</v>
       </c>
     </row>
@@ -18536,11 +18853,11 @@
         <v>κούβελε</v>
       </c>
       <c r="G450" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κούβελε-σκαφίδι</v>
       </c>
       <c r="H450" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κούβελε-σκαφίδι-Α1</v>
       </c>
     </row>
@@ -18563,11 +18880,11 @@
         <v>κούε</v>
       </c>
       <c r="G451" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>κούε-σκύλος</v>
       </c>
       <c r="H451" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>κούε-σκύλος-Α0</v>
       </c>
     </row>
@@ -18590,11 +18907,11 @@
         <v>ιστορία</v>
       </c>
       <c r="G452" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="G452:G515" si="22">_xlfn.CONCAT(B452,"-",C452)</f>
         <v>ιστορία-ιστορία</v>
       </c>
       <c r="H452" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H452:H515" si="23">_xlfn.CONCAT(B452,"-",C452,"-",D452)</f>
         <v>ιστορία-ιστορία-Θ</v>
       </c>
     </row>
@@ -19666,11 +19983,11 @@
         <v>λύχινε</v>
       </c>
       <c r="G492" s="3" t="str">
-        <f t="shared" ref="G492:G555" si="25">_xlfn.CONCAT(B492,"-",C492)</f>
+        <f t="shared" si="22"/>
         <v>λύχινε-λυχνάρι</v>
       </c>
       <c r="H492" s="3" t="str">
-        <f t="shared" ref="H492:H555" si="26">_xlfn.CONCAT(B492,"-",C492,"-",D492)</f>
+        <f t="shared" si="23"/>
         <v>λύχινε-λυχνάρι-Α1</v>
       </c>
     </row>
@@ -19693,11 +20010,11 @@
         <v>μ'έκεινι όλιου</v>
       </c>
       <c r="G493" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μ'έκεινι όλιου-παρ'όλα αυτά</v>
       </c>
       <c r="H493" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μ'έκεινι όλιου-παρ'όλα αυτά-Ζ</v>
       </c>
     </row>
@@ -19718,11 +20035,11 @@
         <v>μ'έν̇'αρέσουντα</v>
       </c>
       <c r="G494" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μ'έν̇'αρέσουντα-μ'αρέσει</v>
       </c>
       <c r="H494" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μ'έν̇'αρέσουντα-μ'αρέσει-</v>
       </c>
     </row>
@@ -19743,11 +20060,11 @@
         <v>μ'έτ̇ε συχωρούντε</v>
       </c>
       <c r="G495" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μ'έτ̇ε συχωρούντε-με συγχορείτε</v>
       </c>
       <c r="H495" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μ'έτ̇ε συχωρούντε-με συγχορείτε-</v>
       </c>
     </row>
@@ -19770,11 +20087,11 @@
         <v>μάγουλε</v>
       </c>
       <c r="G496" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μάγουλε-μάγουλο</v>
       </c>
       <c r="H496" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μάγουλε-μάγουλο-Υ1</v>
       </c>
     </row>
@@ -19797,11 +20114,11 @@
         <v>μάθημα</v>
       </c>
       <c r="G497" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μάθημα-μάθημα</v>
       </c>
       <c r="H497" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μάθημα-μάθημα-Υ</v>
       </c>
     </row>
@@ -19824,11 +20141,11 @@
         <v>μάλ̣ι</v>
       </c>
       <c r="G498" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μάλ̣ι-μήλο</v>
       </c>
       <c r="H498" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μάλ̣ι-μήλο-Υ0</v>
       </c>
     </row>
@@ -19849,11 +20166,11 @@
         <v>μάρμαρε</v>
       </c>
       <c r="G499" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μάρμαρε-μάρμαρο</v>
       </c>
       <c r="H499" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μάρμαρε-μάρμαρο-</v>
       </c>
     </row>
@@ -19874,11 +20191,11 @@
         <v>μάτζη</v>
       </c>
       <c r="G500" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μάτζη-μάρτης</v>
       </c>
       <c r="H500" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μάτζη-μάρτης-</v>
       </c>
     </row>
@@ -19901,11 +20218,11 @@
         <v>μάτη</v>
       </c>
       <c r="G501" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μάτη-μητέρα</v>
       </c>
       <c r="H501" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μάτη-μητέρα-Θ0</v>
       </c>
     </row>
@@ -19928,11 +20245,11 @@
         <v>μάτουκα</v>
       </c>
       <c r="G502" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μάτουκα-τσάπα</v>
       </c>
       <c r="H502" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μάτουκα-τσάπα-Θ1</v>
       </c>
     </row>
@@ -19955,11 +20272,11 @@
         <v>μέλι</v>
       </c>
       <c r="G503" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μέλι-μέλι</v>
       </c>
       <c r="H503" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μέλι-μέλι-Υ</v>
       </c>
     </row>
@@ -19980,11 +20297,11 @@
         <v>μέχρι</v>
       </c>
       <c r="G504" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μέχρι-μέχρι</v>
       </c>
       <c r="H504" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μέχρι-μέχρι-</v>
       </c>
     </row>
@@ -20007,11 +20324,11 @@
         <v>μαγαζί</v>
       </c>
       <c r="G505" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μαγαζί-μαγαζί</v>
       </c>
       <c r="H505" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μαγαζί-μαγαζί-Υ</v>
       </c>
     </row>
@@ -20034,11 +20351,11 @@
         <v>μαζούκ̇ου</v>
       </c>
       <c r="G506" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μαζούκ̇ου-μαζεύω</v>
       </c>
       <c r="H506" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μαζούκ̇ου-μαζεύω-ΡΑ3</v>
       </c>
     </row>
@@ -20061,11 +20378,11 @@
         <v>μαθαίνου</v>
       </c>
       <c r="G507" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μαθαίνου-μαθαίνω</v>
       </c>
       <c r="H507" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μαθαίνου-μαθαίνω-ΡΑ1</v>
       </c>
     </row>
@@ -20088,11 +20405,11 @@
         <v>μακίχου</v>
       </c>
       <c r="G508" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μακίχου-ματίζω, ενώνω</v>
       </c>
       <c r="H508" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μακίχου-ματίζω, ενώνω-ΡΑ4</v>
       </c>
     </row>
@@ -20115,11 +20432,11 @@
         <v>μακουνία</v>
       </c>
       <c r="G509" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μακουνία-παπαρούνα</v>
       </c>
       <c r="H509" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μακουνία-παπαρούνα-Θ1</v>
       </c>
     </row>
@@ -20142,11 +20459,11 @@
         <v>μακούκ̇ου</v>
       </c>
       <c r="G510" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μακούκ̇ου-μαλακώνω</v>
       </c>
       <c r="H510" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μακούκ̇ου-μαλακώνω-Ρ</v>
       </c>
     </row>
@@ -20167,11 +20484,11 @@
         <v>μακρία</v>
       </c>
       <c r="G511" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μακρία-μακριά</v>
       </c>
       <c r="H511" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μακρία-μακριά-</v>
       </c>
     </row>
@@ -20194,11 +20511,11 @@
         <v>μακό</v>
       </c>
       <c r="G512" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μακό-μαλακός</v>
       </c>
       <c r="H512" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μακό-μαλακός-Ε</v>
       </c>
     </row>
@@ -20221,11 +20538,11 @@
         <v>μαμού</v>
       </c>
       <c r="G513" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μαμού-γιαγιά</v>
       </c>
       <c r="H513" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μαμού-γιαγιά-Θ5</v>
       </c>
     </row>
@@ -20248,11 +20565,11 @@
         <v>μανάβικο</v>
       </c>
       <c r="G514" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μανάβικο-μανάβικο</v>
       </c>
       <c r="H514" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μανάβικο-μανάβικο-Υ</v>
       </c>
     </row>
@@ -20275,11 +20592,11 @@
         <v>μαντρί</v>
       </c>
       <c r="G515" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>μαντρί-μαντρί</v>
       </c>
       <c r="H515" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>μαντρί-μαντρί-Υ</v>
       </c>
     </row>
@@ -20302,11 +20619,11 @@
         <v>μαργουτέ</v>
       </c>
       <c r="G516" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="G516:G579" si="25">_xlfn.CONCAT(B516,"-",C516)</f>
         <v>μαργουτέ-παγωμένος</v>
       </c>
       <c r="H516" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="H516:H579" si="26">_xlfn.CONCAT(B516,"-",C516,"-",D516)</f>
         <v>μαργουτέ-παγωμένος-Ε</v>
       </c>
     </row>
@@ -21370,11 +21687,11 @@
         <v>μυσ̌ί</v>
       </c>
       <c r="G556" s="3" t="str">
-        <f t="shared" ref="G556:G619" si="28">_xlfn.CONCAT(B556,"-",C556)</f>
+        <f t="shared" si="25"/>
         <v>μυσ̌ί-κουταλάκι</v>
       </c>
       <c r="H556" s="3" t="str">
-        <f t="shared" ref="H556:H619" si="29">_xlfn.CONCAT(B556,"-",C556,"-",D556)</f>
+        <f t="shared" si="26"/>
         <v>μυσ̌ί-κουταλάκι-Υ1</v>
       </c>
     </row>
@@ -21397,11 +21714,11 @@
         <v>μόκ̇ο</v>
       </c>
       <c r="G557" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>μόκ̇ο-μοσχάρι</v>
       </c>
       <c r="H557" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>μόκ̇ο-μοσχάρι-Α1</v>
       </c>
     </row>
@@ -21422,11 +21739,11 @@
         <v>μόλις</v>
       </c>
       <c r="G558" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>μόλις-μόλις</v>
       </c>
       <c r="H558" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>μόλις-μόλις-</v>
       </c>
     </row>
@@ -21449,11 +21766,11 @@
         <v>μόνο</v>
       </c>
       <c r="G559" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>μόνο-μόνο</v>
       </c>
       <c r="H559" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>μόνο-μόνο-Ζ</v>
       </c>
     </row>
@@ -21476,11 +21793,11 @@
         <v>μύλε</v>
       </c>
       <c r="G560" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>μύλε-μύλο</v>
       </c>
       <c r="H560" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>μύλε-μύλο-Υ</v>
       </c>
     </row>
@@ -21503,11 +21820,11 @@
         <v>μύσ̌α</v>
       </c>
       <c r="G561" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>μύσ̌α-κουτάλι</v>
       </c>
       <c r="H561" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>μύσ̌α-κουτάλι-Θ1</v>
       </c>
     </row>
@@ -21528,11 +21845,11 @@
         <v>νάκια</v>
       </c>
       <c r="G562" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νάκια-αν</v>
       </c>
       <c r="H562" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νάκια-αν-</v>
       </c>
     </row>
@@ -21555,11 +21872,11 @@
         <v>νέμου</v>
       </c>
       <c r="G563" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νέμου-βοσκώ</v>
       </c>
       <c r="H563" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νέμου-βοσκώ-Ρ</v>
       </c>
     </row>
@@ -21582,11 +21899,11 @@
         <v>νίγδαλε</v>
       </c>
       <c r="G564" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νίγδαλε-μύγδαλο</v>
       </c>
       <c r="H564" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νίγδαλε-μύγδαλο-Υ0</v>
       </c>
     </row>
@@ -21609,11 +21926,11 @@
         <v>νίου</v>
       </c>
       <c r="G565" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νίου-ακούω</v>
       </c>
       <c r="H565" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νίου-ακούω-Ρ</v>
       </c>
     </row>
@@ -21636,11 +21953,11 @@
         <v>νίφου</v>
       </c>
       <c r="G566" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νίφου-πλένω το πρόσωπο</v>
       </c>
       <c r="H566" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νίφου-πλένω το πρόσωπο-Ρ</v>
       </c>
     </row>
@@ -21661,11 +21978,11 @@
         <v>να</v>
       </c>
       <c r="G567" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>να-να</v>
       </c>
       <c r="H567" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>να-να-</v>
       </c>
     </row>
@@ -21686,11 +22003,11 @@
         <v>ναι</v>
       </c>
       <c r="G568" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>ναι-ναι</v>
       </c>
       <c r="H568" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>ναι-ναι-Ζ</v>
       </c>
     </row>
@@ -21713,11 +22030,11 @@
         <v>νεμά</v>
       </c>
       <c r="G569" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νεμά-βοσκή</v>
       </c>
       <c r="H569" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νεμά-βοσκή-Θ</v>
       </c>
     </row>
@@ -21740,11 +22057,11 @@
         <v>νησί</v>
       </c>
       <c r="G570" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νησί-νησί</v>
       </c>
       <c r="H570" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νησί-νησί-Υ</v>
       </c>
     </row>
@@ -21767,11 +22084,11 @@
         <v>νικού</v>
       </c>
       <c r="G571" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νικού-νικώ</v>
       </c>
       <c r="H571" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νικού-νικώ-Ρ</v>
       </c>
     </row>
@@ -21794,11 +22111,11 @@
         <v>νιλία</v>
       </c>
       <c r="G572" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νιλία-μιλιά</v>
       </c>
       <c r="H572" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νιλία-μιλιά-Θ</v>
       </c>
     </row>
@@ -21821,11 +22138,11 @@
         <v>νιουρίζου</v>
       </c>
       <c r="G573" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νιουρίζου-γνωρίζω</v>
       </c>
       <c r="H573" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νιουρίζου-γνωρίζω-Ρ</v>
       </c>
     </row>
@@ -21848,11 +22165,11 @@
         <v>νιού</v>
       </c>
       <c r="G574" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νιού-μηλάω</v>
       </c>
       <c r="H574" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νιού-μηλάω-Ρ</v>
       </c>
     </row>
@@ -21875,11 +22192,11 @@
         <v>νιούτ̇α</v>
       </c>
       <c r="G575" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νιούτ̇α-νύχτα</v>
       </c>
       <c r="H575" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νιούτ̇α-νύχτα-Θ1</v>
       </c>
     </row>
@@ -21900,11 +22217,11 @@
         <v>νοέμπρη</v>
       </c>
       <c r="G576" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νοέμπρη-νοέμβριος</v>
       </c>
       <c r="H576" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νοέμπρη-νοέμβριος-</v>
       </c>
     </row>
@@ -21927,11 +22244,11 @@
         <v>νοητέ</v>
       </c>
       <c r="G577" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νοητέ-έξυπνος, μυαλωμένος</v>
       </c>
       <c r="H577" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νοητέ-έξυπνος, μυαλωμένος-Ε</v>
       </c>
     </row>
@@ -21952,11 +22269,11 @@
         <v>νοκία</v>
       </c>
       <c r="G578" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νοκία-νοτιάς</v>
       </c>
       <c r="H578" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νοκία-νοτιάς-</v>
       </c>
     </row>
@@ -21979,11 +22296,11 @@
         <v>νοκίχου</v>
       </c>
       <c r="G579" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>νοκίχου-νοτίζω, υγραίνομαι</v>
       </c>
       <c r="H579" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>νοκίχου-νοτίζω, υγραίνομαι-ΡΑ4</v>
       </c>
     </row>
@@ -22006,11 +22323,11 @@
         <v>νονά</v>
       </c>
       <c r="G580" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="G580:G643" si="28">_xlfn.CONCAT(B580,"-",C580)</f>
         <v>νονά-νονά</v>
       </c>
       <c r="H580" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="H580:H643" si="29">_xlfn.CONCAT(B580,"-",C580,"-",D580)</f>
         <v>νονά-νονά-Θ1</v>
       </c>
     </row>
@@ -22694,7 +23011,9 @@
         <v>1145</v>
       </c>
       <c r="D606" s="3"/>
-      <c r="E606" s="3"/>
+      <c r="E606" s="3">
+        <v>1</v>
+      </c>
       <c r="F606" s="3" t="str">
         <f t="shared" si="27"/>
         <v>ο</v>
@@ -23076,11 +23395,11 @@
         <v>π̇έλεχα</v>
       </c>
       <c r="G620" s="3" t="str">
-        <f t="shared" ref="G620:G683" si="31">_xlfn.CONCAT(B620,"-",C620)</f>
+        <f t="shared" si="28"/>
         <v>π̇έλεχα-αρουραίος</v>
       </c>
       <c r="H620" s="3" t="str">
-        <f t="shared" ref="H620:H683" si="32">_xlfn.CONCAT(B620,"-",C620,"-",D620)</f>
+        <f t="shared" si="29"/>
         <v>π̇έλεχα-αρουραίος-Α1</v>
       </c>
     </row>
@@ -23103,11 +23422,11 @@
         <v>π̇έντζικα</v>
       </c>
       <c r="G621" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>π̇έντζικα-πέρδικα</v>
       </c>
       <c r="H621" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>π̇έντζικα-πέρδικα-Θ1</v>
       </c>
     </row>
@@ -23128,11 +23447,11 @@
         <v>π̇ίτια</v>
       </c>
       <c r="G622" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>π̇ίτια-χυλοπίτες</v>
       </c>
       <c r="H622" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>π̇ίτια-χυλοπίτες-</v>
       </c>
     </row>
@@ -23153,11 +23472,11 @@
         <v>π̇είρου</v>
       </c>
       <c r="G623" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>π̇είρου-σπείρω</v>
       </c>
       <c r="H623" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>π̇είρου-σπείρω-Ρ</v>
       </c>
     </row>
@@ -23180,11 +23499,11 @@
         <v>π̇η</v>
       </c>
       <c r="G624" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>π̇η-που</v>
       </c>
       <c r="H624" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>π̇η-που-Ζ</v>
       </c>
     </row>
@@ -23207,11 +23526,11 @@
         <v>π̇ιτόκαλε</v>
       </c>
       <c r="G625" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>π̇ιτόκαλε-πλάστης</v>
       </c>
       <c r="H625" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>π̇ιτόκαλε-πλάστης-Υ1</v>
       </c>
     </row>
@@ -23234,11 +23553,11 @@
         <v>π̇ογκικό</v>
       </c>
       <c r="G626" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>π̇ογκικό-ποντικός</v>
       </c>
       <c r="H626" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>π̇ογκικό-ποντικός-Α1</v>
       </c>
     </row>
@@ -23261,11 +23580,11 @@
         <v>π̇ουντέχου</v>
       </c>
       <c r="G627" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>π̇ουντέχου-σβήνω</v>
       </c>
       <c r="H627" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>π̇ουντέχου-σβήνω-Ρ</v>
       </c>
     </row>
@@ -23288,11 +23607,11 @@
         <v>πάκα</v>
       </c>
       <c r="G628" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>πάκα-μεταλλική πλάκα</v>
       </c>
       <c r="H628" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>πάκα-μεταλλική πλάκα-Θ1</v>
       </c>
     </row>
@@ -23315,11 +23634,11 @@
         <v>πάλι</v>
       </c>
       <c r="G629" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>πάλι-πάλι</v>
       </c>
       <c r="H629" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>πάλι-πάλι-Ζ</v>
       </c>
     </row>
@@ -23342,11 +23661,11 @@
         <v>πάπουμα</v>
       </c>
       <c r="G630" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>πάπουμα-πάπλωμα</v>
       </c>
       <c r="H630" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>πάπουμα-πάπλωμα-Υ</v>
       </c>
     </row>
@@ -23369,11 +23688,11 @@
         <v>πάσ̌ου</v>
       </c>
       <c r="G631" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>πάσ̌ου-πολύ</v>
       </c>
       <c r="H631" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>πάσ̌ου-πολύ-Ζ</v>
       </c>
     </row>
@@ -23394,11 +23713,11 @@
         <v>πάσα μέρα</v>
       </c>
       <c r="G632" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>πάσα μέρα-καθημερινά</v>
       </c>
       <c r="H632" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>πάσα μέρα-καθημερινά-</v>
       </c>
     </row>
@@ -23421,11 +23740,11 @@
         <v>πάφου</v>
       </c>
       <c r="G633" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>πάφου-παύω,σταματάω</v>
       </c>
       <c r="H633" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>πάφου-παύω,σταματάω-ΡΑ6</v>
       </c>
     </row>
@@ -23448,11 +23767,11 @@
         <v>πέντανε</v>
       </c>
       <c r="G634" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>πέντανε-πέμπτος</v>
       </c>
       <c r="H634" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>πέντανε-πέμπτος-Ε3</v>
       </c>
     </row>
@@ -23475,11 +23794,11 @@
         <v>πέρε</v>
       </c>
       <c r="G635" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>πέρε-πέρα</v>
       </c>
       <c r="H635" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>πέρε-πέρα-Ζ</v>
       </c>
     </row>
@@ -23500,11 +23819,11 @@
         <v>πέφτα</v>
       </c>
       <c r="G636" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>πέφτα-Πέμπτη</v>
       </c>
       <c r="H636" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>πέφτα-Πέμπτη-</v>
       </c>
     </row>
@@ -23527,11 +23846,11 @@
         <v>παιχνίδι</v>
       </c>
       <c r="G637" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>παιχνίδι-παιχνίδι</v>
       </c>
       <c r="H637" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>παιχνίδι-παιχνίδι-Υ</v>
       </c>
     </row>
@@ -23554,11 +23873,11 @@
         <v>παναθούρι</v>
       </c>
       <c r="G638" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>παναθούρι-παράθυρο</v>
       </c>
       <c r="H638" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>παναθούρι-παράθυρο-Υ3</v>
       </c>
     </row>
@@ -23581,11 +23900,11 @@
         <v>παντέχου</v>
       </c>
       <c r="G639" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>παντέχου-περιμένω</v>
       </c>
       <c r="H639" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>παντέχου-περιμένω-Ρ</v>
       </c>
     </row>
@@ -23608,11 +23927,11 @@
         <v>παντελόνι</v>
       </c>
       <c r="G640" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>παντελόνι-παντελόνι</v>
       </c>
       <c r="H640" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>παντελόνι-παντελόνι-Υ</v>
       </c>
     </row>
@@ -23633,11 +23952,11 @@
         <v>παξιμάδι</v>
       </c>
       <c r="G641" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>παξιμάδι-παξιμάδι</v>
       </c>
       <c r="H641" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>παξιμάδι-παξιμάδι-</v>
       </c>
     </row>
@@ -23658,11 +23977,11 @@
         <v>παπά</v>
       </c>
       <c r="G642" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>παπά-παπάς</v>
       </c>
       <c r="H642" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>παπά-παπάς-Α</v>
       </c>
     </row>
@@ -23685,11 +24004,11 @@
         <v>παππού</v>
       </c>
       <c r="G643" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>παππού-παππούς</v>
       </c>
       <c r="H643" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>παππού-παππούς-Α5</v>
       </c>
     </row>
@@ -23710,11 +24029,11 @@
         <v>παράστσι</v>
       </c>
       <c r="G644" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="G644:G707" si="31">_xlfn.CONCAT(B644,"-",C644)</f>
         <v>παράστσι-Παρασκευή</v>
       </c>
       <c r="H644" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="H644:H707" si="32">_xlfn.CONCAT(B644,"-",C644,"-",D644)</f>
         <v>παράστσι-Παρασκευή-</v>
       </c>
     </row>
@@ -24237,7 +24556,9 @@
       <c r="C664" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="D664" s="3"/>
+      <c r="D664" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E664" s="3">
         <v>1</v>
       </c>
@@ -24251,7 +24572,7 @@
       </c>
       <c r="H664" s="3" t="str">
         <f t="shared" si="32"/>
-        <v>πλέτερε-περισσότερος-</v>
+        <v>πλέτερε-περισσότερος-Ε4</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.25">
@@ -24780,11 +25101,11 @@
         <v>πουρτέσε</v>
       </c>
       <c r="G684" s="3" t="str">
-        <f t="shared" ref="G684:G747" si="34">_xlfn.CONCAT(B684,"-",C684)</f>
+        <f t="shared" si="31"/>
         <v>πουρτέσε-μπροστά</v>
       </c>
       <c r="H684" s="3" t="str">
-        <f t="shared" ref="H684:H747" si="35">_xlfn.CONCAT(B684,"-",C684,"-",D684)</f>
+        <f t="shared" si="32"/>
         <v>πουρτέσε-μπροστά-Ζ</v>
       </c>
     </row>
@@ -24807,11 +25128,11 @@
         <v>πούα</v>
       </c>
       <c r="G685" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πούα-πόδι</v>
       </c>
       <c r="H685" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πούα-πόδι-Α2</v>
       </c>
     </row>
@@ -24834,11 +25155,11 @@
         <v>πράμα</v>
       </c>
       <c r="G686" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πράμα-πράγμα</v>
       </c>
       <c r="H686" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πράμα-πράγμα-Υ2</v>
       </c>
     </row>
@@ -24861,11 +25182,11 @@
         <v>πράνα</v>
       </c>
       <c r="G687" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πράνα-κόπανος</v>
       </c>
       <c r="H687" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πράνα-κόπανος-Θ1</v>
       </c>
     </row>
@@ -24886,11 +25207,11 @@
         <v>πρέσ̌ου</v>
       </c>
       <c r="G688" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πρέσ̌ου-πολύ</v>
       </c>
       <c r="H688" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πρέσ̌ου-πολύ-</v>
       </c>
     </row>
@@ -24913,11 +25234,11 @@
         <v>πρίγγου</v>
       </c>
       <c r="G689" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πρίγγου-πνίγω</v>
       </c>
       <c r="H689" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πρίγγου-πνίγω-Ρ</v>
       </c>
     </row>
@@ -24940,11 +25261,11 @@
         <v>πρίνε</v>
       </c>
       <c r="G690" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πρίνε-πουρνάρι</v>
       </c>
       <c r="H690" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πρίνε-πουρνάρι-Α3</v>
       </c>
     </row>
@@ -24967,11 +25288,11 @@
         <v>πρακιού</v>
       </c>
       <c r="G691" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πρακιού-πλατύς</v>
       </c>
       <c r="H691" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πρακιού-πλατύς-Ε7</v>
       </c>
     </row>
@@ -24994,11 +25315,11 @@
         <v>πρακτορείε</v>
       </c>
       <c r="G692" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πρακτορείε-πρακτορείο</v>
       </c>
       <c r="H692" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πρακτορείε-πρακτορείο-Υ</v>
       </c>
     </row>
@@ -25021,11 +25342,11 @@
         <v>πρεσ̌ού</v>
       </c>
       <c r="G693" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πρεσ̌ού-πολύ</v>
       </c>
       <c r="H693" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πρεσ̌ού-πολύ-Ζ</v>
       </c>
     </row>
@@ -25048,11 +25369,11 @@
         <v>πρεσσέ</v>
       </c>
       <c r="G694" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πρεσσέ-πολύς</v>
       </c>
       <c r="H694" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πρεσσέ-πολύς-Ε1</v>
       </c>
     </row>
@@ -25075,11 +25396,11 @@
         <v>προίκα</v>
       </c>
       <c r="G695" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>προίκα-προίκα</v>
       </c>
       <c r="H695" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>προίκα-προίκα-Θ</v>
       </c>
     </row>
@@ -25102,11 +25423,11 @@
         <v>προφορά</v>
       </c>
       <c r="G696" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>προφορά-προφορά</v>
       </c>
       <c r="H696" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>προφορά-προφορά-Θ</v>
       </c>
     </row>
@@ -25127,11 +25448,11 @@
         <v>προχωρού</v>
       </c>
       <c r="G697" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>προχωρού-προχωράω</v>
       </c>
       <c r="H697" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>προχωρού-προχωράω-Ρ</v>
       </c>
     </row>
@@ -25154,11 +25475,11 @@
         <v>προϊόν</v>
       </c>
       <c r="G698" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>προϊόν-προϊόν</v>
       </c>
       <c r="H698" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>προϊόν-προϊόν-Υ6</v>
       </c>
     </row>
@@ -25181,11 +25502,11 @@
         <v>προύατε</v>
       </c>
       <c r="G699" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>προύατε-πρόβατο</v>
       </c>
       <c r="H699" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>προύατε-πρόβατο-Υ1</v>
       </c>
     </row>
@@ -25206,11 +25527,11 @@
         <v>πρόσφορα</v>
       </c>
       <c r="G700" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πρόσφορα-πρόσφορα</v>
       </c>
       <c r="H700" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πρόσφορα-πρόσφορα-Θ</v>
       </c>
     </row>
@@ -25233,11 +25554,11 @@
         <v>πρώτε</v>
       </c>
       <c r="G701" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πρώτε-πρότος</v>
       </c>
       <c r="H701" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πρώτε-πρότος-Ε2</v>
       </c>
     </row>
@@ -25260,11 +25581,11 @@
         <v>πόρε</v>
       </c>
       <c r="G702" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πόρε-πόρτα</v>
       </c>
       <c r="H702" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πόρε-πόρτα-Α3</v>
       </c>
     </row>
@@ -25285,11 +25606,11 @@
         <v>πόσ̌ου</v>
       </c>
       <c r="G703" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>πόσ̌ου-πόσο</v>
       </c>
       <c r="H703" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>πόσ̌ου-πόσο-</v>
       </c>
     </row>
@@ -25312,11 +25633,11 @@
         <v>ράτ͡σι</v>
       </c>
       <c r="G704" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>ράτ͡σι-ρέμα</v>
       </c>
       <c r="H704" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>ράτ͡σι-ρέμα-Υ</v>
       </c>
     </row>
@@ -25339,11 +25660,11 @@
         <v>ριάζου</v>
       </c>
       <c r="G705" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>ριάζου-ωριμάζω</v>
       </c>
       <c r="H705" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>ριάζου-ωριμάζω-ΡΑ5</v>
       </c>
     </row>
@@ -25366,11 +25687,11 @@
         <v>ροΐδι</v>
       </c>
       <c r="G706" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>ροΐδι-ρόδι</v>
       </c>
       <c r="H706" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>ροΐδι-ρόδι-Υ</v>
       </c>
     </row>
@@ -25393,11 +25714,11 @@
         <v>ρολόγι</v>
       </c>
       <c r="G707" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>ρολόγι-ρολοϊ</v>
       </c>
       <c r="H707" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>ρολόγι-ρολοϊ-Υ</v>
       </c>
     </row>
@@ -25420,11 +25741,11 @@
         <v>ρουφάλι</v>
       </c>
       <c r="G708" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="G708:G771" si="34">_xlfn.CONCAT(B708,"-",C708)</f>
         <v>ρουφάλι-κατσικάκι</v>
       </c>
       <c r="H708" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="H708:H771" si="35">_xlfn.CONCAT(B708,"-",C708,"-",D708)</f>
         <v>ρουφάλι-κατσικάκι-Υ3</v>
       </c>
     </row>
@@ -26488,11 +26809,11 @@
         <v>σκούντι</v>
       </c>
       <c r="G748" s="3" t="str">
-        <f t="shared" ref="G748:G811" si="37">_xlfn.CONCAT(B748,"-",C748)</f>
+        <f t="shared" si="34"/>
         <v>σκούντι-σκόρδο</v>
       </c>
       <c r="H748" s="3" t="str">
-        <f t="shared" ref="H748:H811" si="38">_xlfn.CONCAT(B748,"-",C748,"-",D748)</f>
+        <f t="shared" si="35"/>
         <v>σκούντι-σκόρδο-Υ1</v>
       </c>
     </row>
@@ -26515,11 +26836,11 @@
         <v>σκωρού</v>
       </c>
       <c r="G749" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σκωρού-συγχωρώ</v>
       </c>
       <c r="H749" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σκωρού-συγχωρώ-Ρ</v>
       </c>
     </row>
@@ -26542,11 +26863,11 @@
         <v>σκόπουλε</v>
       </c>
       <c r="G750" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σκόπουλε-τουλούμι</v>
       </c>
       <c r="H750" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σκόπουλε-τουλούμι-Υ1</v>
       </c>
     </row>
@@ -26569,11 +26890,11 @@
         <v>σοβαρέ</v>
       </c>
       <c r="G751" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σοβαρέ-σοβαρός</v>
       </c>
       <c r="H751" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σοβαρέ-σοβαρός-Ε</v>
       </c>
     </row>
@@ -26596,11 +26917,11 @@
         <v>σουσκούμενε</v>
       </c>
       <c r="G752" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σουσκούμενε-τελειώνω</v>
       </c>
       <c r="H752" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σουσκούμενε-τελειώνω-Ρ</v>
       </c>
     </row>
@@ -26623,11 +26944,11 @@
         <v>σοφρά</v>
       </c>
       <c r="G753" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σοφρά-χαμηλό τραπέζι</v>
       </c>
       <c r="H753" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σοφρά-χαμηλό τραπέζι-Α5</v>
       </c>
     </row>
@@ -26650,11 +26971,11 @@
         <v>σούκο</v>
       </c>
       <c r="G754" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σούκο-σύκο</v>
       </c>
       <c r="H754" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σούκο-σύκο-Υ1</v>
       </c>
     </row>
@@ -26677,11 +26998,11 @@
         <v>σούνου</v>
       </c>
       <c r="G755" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σούνου-φτάνω; σώζω</v>
       </c>
       <c r="H755" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σούνου-φτάνω; σώζω-Ρ</v>
       </c>
     </row>
@@ -26704,11 +27025,11 @@
         <v>σούπα</v>
       </c>
       <c r="G756" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σούπα-σούπα</v>
       </c>
       <c r="H756" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σούπα-σούπα-Θ</v>
       </c>
     </row>
@@ -26731,11 +27052,11 @@
         <v>σπήλ̣ι</v>
       </c>
       <c r="G757" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σπήλ̣ι-σπηλιά</v>
       </c>
       <c r="H757" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σπήλ̣ι-σπηλιά-Υ</v>
       </c>
     </row>
@@ -26758,11 +27079,11 @@
         <v>σπίθα</v>
       </c>
       <c r="G758" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σπίθα-σπίθα</v>
       </c>
       <c r="H758" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σπίθα-σπίθα-Θ</v>
       </c>
     </row>
@@ -26785,11 +27106,11 @@
         <v>σπιθαμιά</v>
       </c>
       <c r="G759" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σπιθαμιά-πιθαμή</v>
       </c>
       <c r="H759" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σπιθαμιά-πιθαμή-Θ</v>
       </c>
     </row>
@@ -26812,11 +27133,11 @@
         <v>στέφανα</v>
       </c>
       <c r="G760" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>στέφανα-στέφανα</v>
       </c>
       <c r="H760" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>στέφανα-στέφανα-Θ</v>
       </c>
     </row>
@@ -26839,11 +27160,11 @@
         <v>σταγόνι</v>
       </c>
       <c r="G761" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σταγόνι-σαγόνι</v>
       </c>
       <c r="H761" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σταγόνι-σαγόνι-Υ3</v>
       </c>
     </row>
@@ -26866,11 +27187,11 @@
         <v>σταμοδέρου</v>
       </c>
       <c r="G762" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>σταμοδέρου-πιέζω, ταλαιπωρώ</v>
       </c>
       <c r="H762" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>σταμοδέρου-πιέζω, ταλαιπωρώ-Ρ</v>
       </c>
     </row>
@@ -26893,11 +27214,11 @@
         <v>στενοχωρέγγου</v>
       </c>
       <c r="G763" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>στενοχωρέγγου-στενοχωρώ</v>
       </c>
       <c r="H763" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>στενοχωρέγγου-στενοχωρώ-Ρ</v>
       </c>
     </row>
@@ -26920,11 +27241,11 @@
         <v>στενοχωρού</v>
       </c>
       <c r="G764" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>στενοχωρού-στενοχωρώ</v>
       </c>
       <c r="H764" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>στενοχωρού-στενοχωρώ-Ρ</v>
       </c>
     </row>
@@ -26947,11 +27268,11 @@
         <v>στερέουση</v>
       </c>
       <c r="G765" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>στερέουση-στερέωση</v>
       </c>
       <c r="H765" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>στερέουση-στερέωση-Θ</v>
       </c>
     </row>
@@ -26974,11 +27295,11 @@
         <v>στοίχημα</v>
       </c>
       <c r="G766" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>στοίχημα-στοίχημα</v>
       </c>
       <c r="H766" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>στοίχημα-στοίχημα-Υ2</v>
       </c>
     </row>
@@ -27001,11 +27322,11 @@
         <v>στομάχι</v>
       </c>
       <c r="G767" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>στομάχι-στομάχι</v>
       </c>
       <c r="H767" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>στομάχι-στομάχι-Υ</v>
       </c>
     </row>
@@ -27028,11 +27349,11 @@
         <v>στρέμμα</v>
       </c>
       <c r="G768" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>στρέμμα-στρέμμα</v>
       </c>
       <c r="H768" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>στρέμμα-στρέμμα-Υ</v>
       </c>
     </row>
@@ -27055,11 +27376,11 @@
         <v>στραντζίχου</v>
       </c>
       <c r="G769" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>στραντζίχου-στραγγίζω</v>
       </c>
       <c r="H769" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>στραντζίχου-στραγγίζω-ΡΑ4</v>
       </c>
     </row>
@@ -27080,11 +27401,11 @@
         <v>στσεγκουμένε</v>
       </c>
       <c r="G770" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>στσεγκουμένε-σκέφτομαι</v>
       </c>
       <c r="H770" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>στσεγκουμένε-σκέφτομαι-Ρ</v>
       </c>
     </row>
@@ -27107,11 +27428,11 @@
         <v>στσεπή</v>
       </c>
       <c r="G771" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>στσεπή-σκεπή</v>
       </c>
       <c r="H771" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>στσεπή-σκεπή-Θ1</v>
       </c>
     </row>
@@ -27132,11 +27453,11 @@
         <v>συγγενήδε</v>
       </c>
       <c r="G772" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="G772:G835" si="37">_xlfn.CONCAT(B772,"-",C772)</f>
         <v>συγγενήδε-συγγενείς</v>
       </c>
       <c r="H772" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="H772:H835" si="38">_xlfn.CONCAT(B772,"-",C772,"-",D772)</f>
         <v>συγγενήδε-συγγενείς-</v>
       </c>
     </row>
@@ -28202,11 +28523,11 @@
         <v>τεμπελία</v>
       </c>
       <c r="G812" s="3" t="str">
-        <f t="shared" ref="G812:G875" si="40">_xlfn.CONCAT(B812,"-",C812)</f>
+        <f t="shared" si="37"/>
         <v>τεμπελία-τεμπελιά</v>
       </c>
       <c r="H812" s="3" t="str">
-        <f t="shared" ref="H812:H875" si="41">_xlfn.CONCAT(B812,"-",C812,"-",D812)</f>
+        <f t="shared" si="38"/>
         <v>τεμπελία-τεμπελιά-Θ</v>
       </c>
     </row>
@@ -28229,11 +28550,11 @@
         <v>τεσσάρατε</v>
       </c>
       <c r="G813" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τεσσάρατε-τέταρτος</v>
       </c>
       <c r="H813" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τεσσάρατε-τέταρτος-Ε3</v>
       </c>
     </row>
@@ -28256,11 +28577,11 @@
         <v>τεσσεράδιπλε</v>
       </c>
       <c r="G814" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τεσσεράδιπλε-τετραπλός</v>
       </c>
       <c r="H814" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τεσσεράδιπλε-τετραπλός-Ε3</v>
       </c>
     </row>
@@ -28283,11 +28604,11 @@
         <v>τιμωρού</v>
       </c>
       <c r="G815" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τιμωρού-τιμωρώ</v>
       </c>
       <c r="H815" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τιμωρού-τιμωρώ-Ρ</v>
       </c>
     </row>
@@ -28308,11 +28629,11 @@
         <v>το</v>
       </c>
       <c r="G816" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>το-το</v>
       </c>
       <c r="H816" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>το-το-</v>
       </c>
     </row>
@@ -28335,11 +28656,11 @@
         <v>το πέρατσε</v>
       </c>
       <c r="G817" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>το πέρατσε-πέρυσι</v>
       </c>
       <c r="H817" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>το πέρατσε-πέρυσι-Ζ</v>
       </c>
     </row>
@@ -28362,11 +28683,11 @@
         <v>τοίχο</v>
       </c>
       <c r="G818" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τοίχο-τοίχος</v>
       </c>
       <c r="H818" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τοίχο-τοίχος-Υ</v>
       </c>
     </row>
@@ -28389,11 +28710,11 @@
         <v>του τσαιρού</v>
       </c>
       <c r="G819" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>του τσαιρού-του χρόνου</v>
       </c>
       <c r="H819" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>του τσαιρού-του χρόνου-Ζ</v>
       </c>
     </row>
@@ -28414,11 +28735,11 @@
         <v>τουρισμό</v>
       </c>
       <c r="G820" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τουρισμό-τουρισμός</v>
       </c>
       <c r="H820" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τουρισμό-τουρισμός-</v>
       </c>
     </row>
@@ -28441,11 +28762,11 @@
         <v>τρίδιπλε</v>
       </c>
       <c r="G821" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τρίδιπλε-τριπλός</v>
       </c>
       <c r="H821" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τρίδιπλε-τριπλός-Ε3</v>
       </c>
     </row>
@@ -28468,11 +28789,11 @@
         <v>τρίτε</v>
       </c>
       <c r="G822" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τρίτε-τρίτος</v>
       </c>
       <c r="H822" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τρίτε-τρίτος-Ε3</v>
       </c>
     </row>
@@ -28495,11 +28816,11 @@
         <v>τραβίντου</v>
       </c>
       <c r="G823" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τραβίντου-τραβάω</v>
       </c>
       <c r="H823" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τραβίντου-τραβάω-Ρ</v>
       </c>
     </row>
@@ -28522,11 +28843,11 @@
         <v>τραγούδι</v>
       </c>
       <c r="G824" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τραγούδι-τραγούδι</v>
       </c>
       <c r="H824" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τραγούδι-τραγούδι-Υ</v>
       </c>
     </row>
@@ -28549,11 +28870,11 @@
         <v>τραπέζι</v>
       </c>
       <c r="G825" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τραπέζι-τραπέζι</v>
       </c>
       <c r="H825" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τραπέζι-τραπέζι-Υ</v>
       </c>
     </row>
@@ -28576,11 +28897,11 @@
         <v>τραχανά</v>
       </c>
       <c r="G826" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τραχανά-τραχανάς</v>
       </c>
       <c r="H826" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τραχανά-τραχανάς-Α</v>
       </c>
     </row>
@@ -28603,11 +28924,11 @@
         <v>τριχία</v>
       </c>
       <c r="G827" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τριχία-τριχιά</v>
       </c>
       <c r="H827" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τριχία-τριχιά-Θ2</v>
       </c>
     </row>
@@ -28630,11 +28951,11 @@
         <v>τρόπο</v>
       </c>
       <c r="G828" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τρόπο-τρόπος</v>
       </c>
       <c r="H828" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τρόπο-τρόπος-Α</v>
       </c>
     </row>
@@ -28657,11 +28978,11 @@
         <v>τσ̌άο</v>
       </c>
       <c r="G829" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τσ̌άο-τραγί</v>
       </c>
       <c r="H829" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τσ̌άο-τραγί-Α2</v>
       </c>
     </row>
@@ -28684,11 +29005,11 @@
         <v>τσ̌άχημα</v>
       </c>
       <c r="G830" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τσ̌άχημα-περπάτημα, τρέξιμο</v>
       </c>
       <c r="H830" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τσ̌άχημα-περπάτημα, τρέξιμο-Υ2</v>
       </c>
     </row>
@@ -28711,11 +29032,11 @@
         <v>τσ̌άχου</v>
       </c>
       <c r="G831" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τσ̌άχου-τρέχω</v>
       </c>
       <c r="H831" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τσ̌άχου-τρέχω-Ρ</v>
       </c>
     </row>
@@ -28738,11 +29059,11 @@
         <v>τσ̌έρβουλε</v>
       </c>
       <c r="G832" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τσ̌έρβουλε-παπούτσι</v>
       </c>
       <c r="H832" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τσ̌έρβουλε-παπούτσι-Υ0</v>
       </c>
     </row>
@@ -28763,11 +29084,11 @@
         <v>τσ̌ίτα</v>
       </c>
       <c r="G833" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τσ̌ίτα-Τρίτη</v>
       </c>
       <c r="H833" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τσ̌ίτα-Τρίτη-</v>
       </c>
     </row>
@@ -28790,11 +29111,11 @@
         <v>τσ̌ίφου</v>
       </c>
       <c r="G834" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τσ̌ίφου-τρίβω</v>
       </c>
       <c r="H834" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τσ̌ίφου-τρίβω-Ρ</v>
       </c>
     </row>
@@ -28817,11 +29138,11 @@
         <v>τσ̌ίχα</v>
       </c>
       <c r="G835" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>τσ̌ίχα-τρίχα</v>
       </c>
       <c r="H835" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>τσ̌ίχα-τρίχα-Θ1</v>
       </c>
     </row>
@@ -28842,11 +29163,11 @@
         <v>τσ̌αγκά</v>
       </c>
       <c r="G836" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="G836:G899" si="40">_xlfn.CONCAT(B836,"-",C836)</f>
         <v>τσ̌αγκά-κρυφά, ύπουλα</v>
       </c>
       <c r="H836" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="H836:H899" si="41">_xlfn.CONCAT(B836,"-",C836,"-",D836)</f>
         <v>τσ̌αγκά-κρυφά, ύπουλα-</v>
       </c>
     </row>
@@ -29918,11 +30239,11 @@
         <v>φορτακά</v>
       </c>
       <c r="G876" s="3" t="str">
-        <f t="shared" ref="G876:G939" si="43">_xlfn.CONCAT(B876,"-",C876)</f>
+        <f t="shared" si="40"/>
         <v>φορτακά-βάτραχος</v>
       </c>
       <c r="H876" s="3" t="str">
-        <f t="shared" ref="H876:H939" si="44">_xlfn.CONCAT(B876,"-",C876,"-",D876)</f>
+        <f t="shared" si="41"/>
         <v>φορτακά-βάτραχος-Α5</v>
       </c>
     </row>
@@ -29945,11 +30266,11 @@
         <v>φουκίχου</v>
       </c>
       <c r="G877" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φουκίχου-φωτίζω</v>
       </c>
       <c r="H877" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φουκίχου-φωτίζω-ΡΑ4</v>
       </c>
     </row>
@@ -29972,11 +30293,11 @@
         <v>φουλέρα</v>
       </c>
       <c r="G878" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φουλέρα-φέτα</v>
       </c>
       <c r="H878" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φουλέρα-φέτα-Θ</v>
       </c>
     </row>
@@ -29999,11 +30320,11 @@
         <v>φουρτούνα</v>
       </c>
       <c r="G879" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φουρτούνα-φουρτούνα</v>
       </c>
       <c r="H879" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φουρτούνα-φουρτούνα-Θ</v>
       </c>
     </row>
@@ -30026,11 +30347,11 @@
         <v>φουσού</v>
       </c>
       <c r="G880" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φουσού-φυσάω</v>
       </c>
       <c r="H880" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φουσού-φυσάω-Ρ</v>
       </c>
     </row>
@@ -30053,11 +30374,11 @@
         <v>φουστάνι</v>
       </c>
       <c r="G881" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φουστάνι-φόρεμα</v>
       </c>
       <c r="H881" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φουστάνι-φόρεμα-Υ</v>
       </c>
     </row>
@@ -30080,11 +30401,11 @@
         <v>φούκ̇α</v>
       </c>
       <c r="G882" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φούκ̇α-κοιλιά</v>
       </c>
       <c r="H882" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φούκ̇α-κοιλιά-Θ1</v>
       </c>
     </row>
@@ -30107,11 +30428,11 @@
         <v>φούρνε</v>
       </c>
       <c r="G883" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φούρνε-φόυρνος</v>
       </c>
       <c r="H883" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φούρνε-φόυρνος-Α</v>
       </c>
     </row>
@@ -30134,11 +30455,11 @@
         <v>φρύδι</v>
       </c>
       <c r="G884" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φρύδι-φρύδι</v>
       </c>
       <c r="H884" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φρύδι-φρύδι-Υ1</v>
       </c>
     </row>
@@ -30161,11 +30482,11 @@
         <v>φταίνου</v>
       </c>
       <c r="G885" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φταίνου-ψήνω</v>
       </c>
       <c r="H885" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φταίνου-ψήνω-Ρ</v>
       </c>
     </row>
@@ -30188,11 +30509,11 @@
         <v>φταίου</v>
       </c>
       <c r="G886" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φταίου-φταίω</v>
       </c>
       <c r="H886" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φταίου-φταίω-Ρ</v>
       </c>
     </row>
@@ -30215,11 +30536,11 @@
         <v>φταινούμενε</v>
       </c>
       <c r="G887" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φταινούμενε-ψήνομαι</v>
       </c>
       <c r="H887" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φταινούμενε-ψήνομαι-Ρ</v>
       </c>
     </row>
@@ -30242,11 +30563,11 @@
         <v>φτερένισε</v>
       </c>
       <c r="G888" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φτερένισε-κοκορεβιθιά</v>
       </c>
       <c r="H888" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φτερένισε-κοκορεβιθιά-Α3</v>
       </c>
     </row>
@@ -30269,11 +30590,11 @@
         <v>φυού</v>
       </c>
       <c r="G889" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φυού-φεύγω</v>
       </c>
       <c r="H889" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φυού-φεύγω-ΡΑ3</v>
       </c>
     </row>
@@ -30296,11 +30617,11 @@
         <v>φωλ̣ία</v>
       </c>
       <c r="G890" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φωλ̣ία-φωλιά</v>
       </c>
       <c r="H890" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φωλ̣ία-φωλιά-Θ</v>
       </c>
     </row>
@@ -30323,11 +30644,11 @@
         <v>φωνά</v>
       </c>
       <c r="G891" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φωνά-φωνή</v>
       </c>
       <c r="H891" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φωνά-φωνή-Θ</v>
       </c>
     </row>
@@ -30350,11 +30671,11 @@
         <v>φωνιάντου</v>
       </c>
       <c r="G892" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φωνιάντου-φωνάζω</v>
       </c>
       <c r="H892" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φωνιάντου-φωνάζω-Ρ</v>
       </c>
     </row>
@@ -30375,11 +30696,11 @@
         <v>φόλα</v>
       </c>
       <c r="G893" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φόλα-φόλα</v>
       </c>
       <c r="H893" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φόλα-φόλα-Θ</v>
       </c>
     </row>
@@ -30402,11 +30723,11 @@
         <v>φύου</v>
       </c>
       <c r="G894" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>φύου-φεύγω</v>
       </c>
       <c r="H894" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>φύου-φεύγω-Ρ</v>
       </c>
     </row>
@@ -30429,11 +30750,11 @@
         <v>χάμου</v>
       </c>
       <c r="G895" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>χάμου-κάτω</v>
       </c>
       <c r="H895" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>χάμου-κάτω-Ζ</v>
       </c>
     </row>
@@ -30456,11 +30777,11 @@
         <v>χάνου</v>
       </c>
       <c r="G896" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>χάνου-χάνω</v>
       </c>
       <c r="H896" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>χάνου-χάνω-Ρ</v>
       </c>
     </row>
@@ -30483,11 +30804,11 @@
         <v>χέρα</v>
       </c>
       <c r="G897" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>χέρα-χέρι</v>
       </c>
       <c r="H897" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>χέρα-χέρι-Θ1</v>
       </c>
     </row>
@@ -30510,11 +30831,11 @@
         <v>χαμελέ</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>χαμελέ-χαμηλός</v>
       </c>
       <c r="H898" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>χαμελέ-χαμηλός-Ε1</v>
       </c>
     </row>
@@ -30537,11 +30858,11 @@
         <v>χαμεούκ̇ου</v>
       </c>
       <c r="G899" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>χαμεούκ̇ου-χαμηλώνω</v>
       </c>
       <c r="H899" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>χαμεούκ̇ου-χαμηλώνω-Ρ</v>
       </c>
     </row>
@@ -30564,11 +30885,11 @@
         <v>χαμεούκ̇ου</v>
       </c>
       <c r="G900" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="G900:G963" si="43">_xlfn.CONCAT(B900,"-",C900)</f>
         <v>χαμεούκ̇ου-λευκαίνω</v>
       </c>
       <c r="H900" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="H900:H963" si="44">_xlfn.CONCAT(B900,"-",C900,"-",D900)</f>
         <v>χαμεούκ̇ου-λευκαίνω-ΡΑ1</v>
       </c>
     </row>
@@ -31636,11 +31957,11 @@
         <v>ύπρε</v>
       </c>
       <c r="G940" s="3" t="str">
-        <f t="shared" ref="G940:G1003" si="46">_xlfn.CONCAT(B940,"-",C940)</f>
+        <f t="shared" si="43"/>
         <v>ύπρε-ύπνος</v>
       </c>
       <c r="H940" s="3" t="str">
-        <f t="shared" ref="H940:H1003" si="47">_xlfn.CONCAT(B940,"-",C940,"-",D940)</f>
+        <f t="shared" si="44"/>
         <v>ύπρε-ύπνος-Υ</v>
       </c>
     </row>
@@ -31663,11 +31984,11 @@
         <v>κόκ̇ο</v>
       </c>
       <c r="G941" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>κόκ̇ο-κουκί</v>
       </c>
       <c r="H941" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>κόκ̇ο-κουκί-Α4</v>
       </c>
     </row>
@@ -31690,11 +32011,11 @@
         <v>κείμενο</v>
       </c>
       <c r="G942" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>κείμενο-κείμενο</v>
       </c>
       <c r="H942" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>κείμενο-κείμενο-Υ1</v>
       </c>
     </row>
@@ -31717,11 +32038,11 @@
         <v>σάζου</v>
       </c>
       <c r="G943" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>σάζου-φτιάχνω</v>
       </c>
       <c r="H943" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>σάζου-φτιάχνω-Ρ</v>
       </c>
     </row>
@@ -31744,11 +32065,11 @@
         <v>σερίντου</v>
       </c>
       <c r="G944" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>σερίντου-θερίζω</v>
       </c>
       <c r="H944" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>σερίντου-θερίζω-Ρ</v>
       </c>
     </row>
@@ -31771,11 +32092,11 @@
         <v>κ̇αμπαίνου</v>
       </c>
       <c r="G945" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>κ̇αμπαίνου-κατεβαίνω</v>
       </c>
       <c r="H945" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>κ̇αμπαίνου-κατεβαίνω-Ρ</v>
       </c>
     </row>
@@ -31796,11 +32117,11 @@
         <v>όπ̇ακα</v>
       </c>
       <c r="G946" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>όπ̇ακα-αγουρίδα</v>
       </c>
       <c r="H946" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>όπ̇ακα-αγουρίδα-</v>
       </c>
     </row>
@@ -31821,11 +32142,11 @@
         <v>γροτ̇ία</v>
       </c>
       <c r="G947" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>γροτ̇ία-γροθιά</v>
       </c>
       <c r="H947" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>γροτ̇ία-γροθιά-</v>
       </c>
     </row>
@@ -31837,7 +32158,9 @@
       <c r="C948" s="3" t="s">
         <v>1769</v>
       </c>
-      <c r="D948" s="3"/>
+      <c r="D948" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E948" s="3">
         <v>3</v>
       </c>
@@ -31846,12 +32169,12 @@
         <v>σ̌ούκ̇ο</v>
       </c>
       <c r="G948" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>σ̌ούκ̇ο-μύτη</v>
       </c>
       <c r="H948" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>σ̌ούκ̇ο-μύτη-</v>
+        <f t="shared" si="44"/>
+        <v>σ̌ούκ̇ο-μύτη-Υ1</v>
       </c>
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.25">
@@ -31873,11 +32196,11 @@
         <v>κινή</v>
       </c>
       <c r="G949" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>κινή-τιμή</v>
       </c>
       <c r="H949" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>κινή-τιμή-Θ</v>
       </c>
     </row>
@@ -31900,11 +32223,11 @@
         <v>νύθη</v>
       </c>
       <c r="G950" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>νύθη-νύφη</v>
       </c>
       <c r="H950" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>νύθη-νύφη-Θ4</v>
       </c>
     </row>
@@ -31925,11 +32248,11 @@
         <v>κιουρέ</v>
       </c>
       <c r="G951" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>κιουρέ-κεφαλοτύρι</v>
       </c>
       <c r="H951" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>κιουρέ-κεφαλοτύρι-</v>
       </c>
     </row>
@@ -31950,11 +32273,11 @@
         <v>χκηνέ</v>
       </c>
       <c r="G952" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>χκηνέ-γίδι</v>
       </c>
       <c r="H952" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>χκηνέ-γίδι-</v>
       </c>
     </row>
@@ -31977,11 +32300,11 @@
         <v>ουρανέ</v>
       </c>
       <c r="G953" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>ουρανέ-ουρανός</v>
       </c>
       <c r="H953" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>ουρανέ-ουρανός-Α</v>
       </c>
     </row>
@@ -32002,11 +32325,11 @@
         <v>ορατέ</v>
       </c>
       <c r="G954" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>ορατέ-ιδωμένος</v>
       </c>
       <c r="H954" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>ορατέ-ιδωμένος-</v>
       </c>
     </row>
@@ -32027,11 +32350,11 @@
         <v>μακάζ̌ι</v>
       </c>
       <c r="G955" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>μακάζ̌ι-μακάρι</v>
       </c>
       <c r="H955" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>μακάζ̌ι-μακάρι-</v>
       </c>
     </row>
@@ -32052,11 +32375,11 @@
         <v>ζ̌άτ͡σι</v>
       </c>
       <c r="G956" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>ζ̌άτ͡σι-ρυάκι</v>
       </c>
       <c r="H956" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>ζ̌άτ͡σι-ρυάκι-</v>
       </c>
     </row>
@@ -32079,11 +32402,11 @@
         <v>γείτονα</v>
       </c>
       <c r="G957" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>γείτονα-γείτονας</v>
       </c>
       <c r="H957" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>γείτονα-γείτονας-Α1</v>
       </c>
     </row>
@@ -32106,11 +32429,11 @@
         <v>απαδάτα</v>
       </c>
       <c r="G958" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>απαδάτα-βοηθός</v>
       </c>
       <c r="H958" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>απαδάτα-βοηθός-Α1</v>
       </c>
     </row>
@@ -32133,11 +32456,11 @@
         <v>δεργάτα</v>
       </c>
       <c r="G959" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>δεργάτα-δραγάτης</v>
       </c>
       <c r="H959" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>δεργάτα-δραγάτης-Α1</v>
       </c>
     </row>
@@ -32160,11 +32483,11 @@
         <v>εργάτα</v>
       </c>
       <c r="G960" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>εργάτα-εργάτης</v>
       </c>
       <c r="H960" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>εργάτα-εργάτης-Α1</v>
       </c>
     </row>
@@ -32187,11 +32510,11 @@
         <v>έμπορα</v>
       </c>
       <c r="G961" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>έμπορα-έμπορος</v>
       </c>
       <c r="H961" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>έμπορα-έμπορος-Α1</v>
       </c>
     </row>
@@ -32214,11 +32537,11 @@
         <v>λεβέτα</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>λεβέτα-λεβέτι</v>
       </c>
       <c r="H962" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>λεβέτα-λεβέτι-Α1</v>
       </c>
     </row>
@@ -32241,11 +32564,11 @@
         <v>ρεύτα</v>
       </c>
       <c r="G963" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>ρεύτα-υδρορροή</v>
       </c>
       <c r="H963" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>ρεύτα-υδρορροή-Α1</v>
       </c>
     </row>
@@ -32268,11 +32591,11 @@
         <v>ψεύτα</v>
       </c>
       <c r="G964" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="G964:G1027" si="46">_xlfn.CONCAT(B964,"-",C964)</f>
         <v>ψεύτα-ψεύτης</v>
       </c>
       <c r="H964" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="H964:H1027" si="47">_xlfn.CONCAT(B964,"-",C964,"-",D964)</f>
         <v>ψεύτα-ψεύτης-Α1</v>
       </c>
     </row>
@@ -33348,11 +33671,11 @@
         <v>κορνιαχτέ</v>
       </c>
       <c r="G1004" s="3" t="str">
-        <f t="shared" ref="G1004:G1057" si="49">_xlfn.CONCAT(B1004,"-",C1004)</f>
+        <f t="shared" si="46"/>
         <v>κορνιαχτέ-σκόνη</v>
       </c>
       <c r="H1004" s="3" t="str">
-        <f t="shared" ref="H1004:H1057" si="50">_xlfn.CONCAT(B1004,"-",C1004,"-",D1004)</f>
+        <f t="shared" si="47"/>
         <v>κορνιαχτέ-σκόνη-Α1</v>
       </c>
     </row>
@@ -33375,11 +33698,11 @@
         <v>ψύλλε</v>
       </c>
       <c r="G1005" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>ψύλλε-ψύλλος</v>
       </c>
       <c r="H1005" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>ψύλλε-ψύλλος-Α1</v>
       </c>
     </row>
@@ -33402,11 +33725,11 @@
         <v>ακόρβατε</v>
       </c>
       <c r="G1006" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>ακόρβατε-βάτος</v>
       </c>
       <c r="H1006" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>ακόρβατε-βάτος-Α3</v>
       </c>
     </row>
@@ -33429,11 +33752,11 @@
         <v>ατσίμντανε</v>
       </c>
       <c r="G1007" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>ατσίμντανε-σφενδάμι</v>
       </c>
       <c r="H1007" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>ατσίμντανε-σφενδάμι-Α3</v>
       </c>
     </row>
@@ -33456,11 +33779,11 @@
         <v>ανήφορε</v>
       </c>
       <c r="G1008" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>ανήφορε-ανήφορος</v>
       </c>
       <c r="H1008" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>ανήφορε-ανήφορος-Α3</v>
       </c>
     </row>
@@ -33483,11 +33806,11 @@
         <v>δήσε</v>
       </c>
       <c r="G1009" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>δήσε-παράσιτο αιγοπροβάτων</v>
       </c>
       <c r="H1009" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>δήσε-παράσιτο αιγοπροβάτων-Α0</v>
       </c>
     </row>
@@ -33510,11 +33833,11 @@
         <v>έατε</v>
       </c>
       <c r="G1010" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>έατε-έλατο</v>
       </c>
       <c r="H1010" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>έατε-έλατο-Α3</v>
       </c>
     </row>
@@ -33537,11 +33860,11 @@
         <v>κούλικα</v>
       </c>
       <c r="G1011" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>κούλικα-αγελάδα</v>
       </c>
       <c r="H1011" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>κούλικα-αγελάδα-Θ1</v>
       </c>
     </row>
@@ -33564,11 +33887,11 @@
         <v>βαϊτέ</v>
       </c>
       <c r="G1012" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>βαϊτέ-κλάμα</v>
       </c>
       <c r="H1012" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>βαϊτέ-κλάμα-Α3</v>
       </c>
     </row>
@@ -33591,11 +33914,11 @@
         <v>κουϊτέ</v>
       </c>
       <c r="G1013" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>κουϊτέ-σκούξιμο</v>
       </c>
       <c r="H1013" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>κουϊτέ-σκούξιμο-Α3</v>
       </c>
     </row>
@@ -33618,11 +33941,11 @@
         <v>κάλυε</v>
       </c>
       <c r="G1014" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>κάλυε-καλύβι</v>
       </c>
       <c r="H1014" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>κάλυε-καλύβι-Α0</v>
       </c>
     </row>
@@ -33645,11 +33968,11 @@
         <v>πέτσ̌ε</v>
       </c>
       <c r="G1015" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>πέτσ̌ε-πέτρα</v>
       </c>
       <c r="H1015" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>πέτσ̌ε-πέτρα-Α4</v>
       </c>
     </row>
@@ -33672,11 +33995,11 @@
         <v>κούλικα</v>
       </c>
       <c r="G1016" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>κούλικα-αγελάδα</v>
       </c>
       <c r="H1016" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>κούλικα-αγελάδα-Θ1</v>
       </c>
     </row>
@@ -33699,11 +34022,11 @@
         <v>ιτ̇έ</v>
       </c>
       <c r="G1017" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>ιτ̇έ-πανί</v>
       </c>
       <c r="H1017" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>ιτ̇έ-πανί-Α4</v>
       </c>
     </row>
@@ -33726,11 +34049,11 @@
         <v>κ̇ομπό</v>
       </c>
       <c r="G1018" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>κ̇ομπό-κόμπος</v>
       </c>
       <c r="H1018" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>κ̇ομπό-κόμπος-Α1</v>
       </c>
     </row>
@@ -33753,11 +34076,11 @@
         <v>άτσ̌ωπο</v>
       </c>
       <c r="G1019" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>άτσ̌ωπο-άνθροπος</v>
       </c>
       <c r="H1019" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>άτσ̌ωπο-άνθροπος-Α0</v>
       </c>
     </row>
@@ -33780,11 +34103,11 @@
         <v>άθρωπο</v>
       </c>
       <c r="G1020" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>άθρωπο-άνδρας, σύζυγος</v>
       </c>
       <c r="H1020" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>άθρωπο-άνδρας, σύζυγος-Α0</v>
       </c>
     </row>
@@ -33807,11 +34130,11 @@
         <v>ζ̌ογγό</v>
       </c>
       <c r="G1021" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>ζ̌ογγό-ζοχός</v>
       </c>
       <c r="H1021" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>ζ̌ογγό-ζοχός-Α0</v>
       </c>
     </row>
@@ -33834,11 +34157,11 @@
         <v>βρούχο</v>
       </c>
       <c r="G1022" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>βρούχο-είδος αρκίδας</v>
       </c>
       <c r="H1022" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>βρούχο-είδος αρκίδας-Α1</v>
       </c>
     </row>
@@ -33861,11 +34184,11 @@
         <v>καμό</v>
       </c>
       <c r="G1023" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>καμό-κλάδος</v>
       </c>
       <c r="H1023" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>καμό-κλάδος-Α1</v>
       </c>
     </row>
@@ -33888,11 +34211,11 @@
         <v>κροκό</v>
       </c>
       <c r="G1024" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>κροκό-κροκός</v>
       </c>
       <c r="H1024" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>κροκό-κροκός-Α1</v>
       </c>
     </row>
@@ -33915,11 +34238,11 @@
         <v>καρπό</v>
       </c>
       <c r="G1025" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>καρπό-καρπός, σιτάρι</v>
       </c>
       <c r="H1025" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>καρπό-καρπός, σιτάρι-Α1</v>
       </c>
     </row>
@@ -33942,11 +34265,11 @@
         <v>καημό</v>
       </c>
       <c r="G1026" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>καημό-καημός</v>
       </c>
       <c r="H1026" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>καημό-καημός-Α1</v>
       </c>
     </row>
@@ -33969,11 +34292,11 @@
         <v>κιαμό</v>
       </c>
       <c r="G1027" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>κιαμό-ελονοσία</v>
       </c>
       <c r="H1027" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>κιαμό-ελονοσία-Α1</v>
       </c>
     </row>
@@ -33996,11 +34319,11 @@
         <v>κορμό</v>
       </c>
       <c r="G1028" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="G1028:G1091" si="49">_xlfn.CONCAT(B1028,"-",C1028)</f>
         <v>κορμό-κορμί</v>
       </c>
       <c r="H1028" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="H1028:H1091" si="50">_xlfn.CONCAT(B1028,"-",C1028,"-",D1028)</f>
         <v>κορμό-κορμί-Α1</v>
       </c>
     </row>
@@ -34806,11 +35129,11 @@
         <v>τσ̌αγκά</v>
       </c>
       <c r="G1058" s="3" t="str">
-        <f t="shared" ref="G1058:G1075" si="52">_xlfn.CONCAT(B1058,"-",C1058)</f>
+        <f t="shared" si="49"/>
         <v>τσ̌αγκά-γίδα που έχει αποβάλει</v>
       </c>
       <c r="H1058" s="3" t="str">
-        <f t="shared" ref="H1058:H1075" si="53">_xlfn.CONCAT(B1058,"-",C1058,"-",D1058)</f>
+        <f t="shared" si="50"/>
         <v>τσ̌αγκά-γίδα που έχει αποβάλει-Θ3</v>
       </c>
     </row>
@@ -34833,11 +35156,11 @@
         <v>τσ̌ηνά</v>
       </c>
       <c r="G1059" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>τσ̌ηνά-σφήκα</v>
       </c>
       <c r="H1059" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>τσ̌ηνά-σφήκα-Θ3</v>
       </c>
     </row>
@@ -34860,11 +35183,11 @@
         <v>γιορτά</v>
       </c>
       <c r="G1060" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>γιορτά-γιορτή</v>
       </c>
       <c r="H1060" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>γιορτά-γιορτή-Θ4</v>
       </c>
     </row>
@@ -34887,11 +35210,11 @@
         <v>γρία</v>
       </c>
       <c r="G1061" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>γρία-γριά</v>
       </c>
       <c r="H1061" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>γρία-γριά-Θ4</v>
       </c>
     </row>
@@ -34914,11 +35237,11 @@
         <v>τσία</v>
       </c>
       <c r="G1062" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>τσία-θεία</v>
       </c>
       <c r="H1062" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>τσία-θεία-Θ1</v>
       </c>
     </row>
@@ -34941,11 +35264,11 @@
         <v>αγάκη</v>
       </c>
       <c r="G1063" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>αγάκη-αγάπη</v>
       </c>
       <c r="H1063" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>αγάκη-αγάπη-Θ1</v>
       </c>
     </row>
@@ -34968,11 +35291,11 @@
         <v>αλοιθή</v>
       </c>
       <c r="G1064" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>αλοιθή-αλοιφή</v>
       </c>
       <c r="H1064" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>αλοιθή-αλοιφή-Θ1</v>
       </c>
     </row>
@@ -34995,11 +35318,11 @@
         <v>ανάντζη</v>
       </c>
       <c r="G1065" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>ανάντζη-ανάγκη</v>
       </c>
       <c r="H1065" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>ανάντζη-ανάγκη-Θ1</v>
       </c>
     </row>
@@ -35022,11 +35345,11 @@
         <v>αρχή</v>
       </c>
       <c r="G1066" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>αρχή-αρχή</v>
       </c>
       <c r="H1066" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>αρχή-αρχή-Θ1</v>
       </c>
     </row>
@@ -35049,11 +35372,11 @@
         <v>βρύση</v>
       </c>
       <c r="G1067" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>βρύση-βρύση</v>
       </c>
       <c r="H1067" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>βρύση-βρύση-Θ4</v>
       </c>
     </row>
@@ -35076,11 +35399,11 @@
         <v>σκόλη</v>
       </c>
       <c r="G1068" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>σκόλη-γιορτή, αργία</v>
       </c>
       <c r="H1068" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>σκόλη-γιορτή, αργία-Θ4</v>
       </c>
     </row>
@@ -35103,11 +35426,11 @@
         <v>μαϊμού</v>
       </c>
       <c r="G1069" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>μαϊμού-μαϊμού</v>
       </c>
       <c r="H1069" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>μαϊμού-μαϊμού-Θ5</v>
       </c>
     </row>
@@ -35130,11 +35453,11 @@
         <v>άμπελε</v>
       </c>
       <c r="G1070" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>άμπελε-αμπέλι</v>
       </c>
       <c r="H1070" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>άμπελε-αμπέλι-Θ0</v>
       </c>
     </row>
@@ -35157,11 +35480,11 @@
         <v>κρόπο</v>
       </c>
       <c r="G1071" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>κρόπο-κοπριά</v>
       </c>
       <c r="H1071" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>κρόπο-κοπριά-Θ0</v>
       </c>
     </row>
@@ -35184,11 +35507,11 @@
         <v>καμάρα</v>
       </c>
       <c r="G1072" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>καμάρα-καμάρα</v>
       </c>
       <c r="H1072" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>καμάρα-καμάρα-Θ</v>
       </c>
     </row>
@@ -35211,11 +35534,11 @@
         <v>κοπέα</v>
       </c>
       <c r="G1073" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>κοπέα-κοπέλα</v>
       </c>
       <c r="H1073" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>κοπέα-κοπέλα-Θ</v>
       </c>
     </row>
@@ -35238,11 +35561,11 @@
         <v>προβάτα</v>
       </c>
       <c r="G1074" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>προβάτα-προβατίνα</v>
       </c>
       <c r="H1074" s="3" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>προβάτα-προβατίνα-Θ</v>
       </c>
     </row>
@@ -35265,12 +35588,2539 @@
         <v>στέρνα</v>
       </c>
       <c r="G1075" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>στέρνα-στέρνα</v>
+      </c>
+      <c r="H1075" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>στέρνα-στέρνα-Θ</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1076" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C1076" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1076" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1076" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1076" s="6" t="str">
+        <f t="shared" ref="F1076:F1139" si="52">_xlfn.CONCAT(B1076)</f>
+        <v>άρτουμα</v>
+      </c>
+      <c r="G1076" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>άρτουμα-τυρί</v>
+      </c>
+      <c r="H1076" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>άρτουμα-τυρί-Υ2</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1077" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C1077" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D1077" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1077" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1077" s="6" t="str">
         <f t="shared" si="52"/>
-        <v>στέρνα-στέρνα</v>
-      </c>
-      <c r="H1075" s="6" t="str">
+        <v>κράμα</v>
+      </c>
+      <c r="G1077" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>κράμα-κλήμα</v>
+      </c>
+      <c r="H1077" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>κράμα-κλήμα-Υ2</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1078" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1078" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D1078" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1078" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1078" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>σ̌άψιμο</v>
+      </c>
+      <c r="G1078" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>σ̌άψιμο-ράψιμο</v>
+      </c>
+      <c r="H1078" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>σ̌άψιμο-ράψιμο-Υ2</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1079" s="5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1079" s="5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D1079" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1079" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1079" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>γράψιμο</v>
+      </c>
+      <c r="G1079" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>γράψιμο-γράψιμο</v>
+      </c>
+      <c r="H1079" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>γράψιμο-γράψιμο-Υ2</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1080" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1080" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D1080" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1080" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1080" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>άχουρε</v>
+      </c>
+      <c r="G1080" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>άχουρε-άχυρο</v>
+      </c>
+      <c r="H1080" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>άχουρε-άχυρο-Υ1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1081" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C1081" s="5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D1081" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1081" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1081" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>δοχύρι</v>
+      </c>
+      <c r="G1081" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>δοχύρι-γεφύρι</v>
+      </c>
+      <c r="H1081" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>δοχύρι-γεφύρι-Υ3</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1082" s="5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C1082" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D1082" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1082" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1082" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>καμπζί</v>
+      </c>
+      <c r="G1082" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>καμπζί-παιδί</v>
+      </c>
+      <c r="H1082" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>καμπζί-παιδί-Υ3</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1083" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1083" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1083" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1083" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1083" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>άσ̌ι</v>
+      </c>
+      <c r="G1083" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>άσ̌ι-άστρο</v>
+      </c>
+      <c r="H1083" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>άσ̌ι-άστρο-Υ1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1084" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1084" s="5" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D1084" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E1084" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1084" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>βάρι</v>
+      </c>
+      <c r="G1084" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>βάρι-βάρος</v>
+      </c>
+      <c r="H1084" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>βάρι-βάρος-Υ4</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1085" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C1085" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D1085" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E1085" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1085" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>θάρρι</v>
+      </c>
+      <c r="G1085" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>θάρρι-θάρρος</v>
+      </c>
+      <c r="H1085" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>θάρρι-θάρρος-Υ4</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1086" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C1086" s="5" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D1086" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E1086" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1086" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>όνειρε</v>
+      </c>
+      <c r="G1086" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>όνειρε-όνειρος</v>
+      </c>
+      <c r="H1086" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>όνειρε-όνειρος-Υ5</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1087" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1087" s="5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D1087" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E1087" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1087" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>βούκιουρε</v>
+      </c>
+      <c r="G1087" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>βούκιουρε-βούτυρο</v>
+      </c>
+      <c r="H1087" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>βούκιουρε-βούτυρο-Υ5</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1088" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1088" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D1088" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1088" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1088" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>κρέμμου</v>
+      </c>
+      <c r="G1088" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>κρέμμου-κρεμμίδι</v>
+      </c>
+      <c r="H1088" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>κρέμμου-κρεμμίδι-Υ1</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1089" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1089" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1089" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1089" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1089" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>κάζ̌ου</v>
+      </c>
+      <c r="G1089" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>κάζ̌ου-καρύδι</v>
+      </c>
+      <c r="H1089" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>κάζ̌ου-καρύδι-Υ1</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1090" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1090" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D1090" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1090" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1090" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>π̇ιτόκαλε</v>
+      </c>
+      <c r="G1090" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>π̇ιτόκαλε-πλάστης</v>
+      </c>
+      <c r="H1090" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>π̇ιτόκαλε-πλάστης-Υ0</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1091" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1091" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D1091" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E1091" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1091" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>λίγο</v>
+      </c>
+      <c r="G1091" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>λίγο-λίγος</v>
+      </c>
+      <c r="H1091" s="6" t="str">
+        <f t="shared" si="50"/>
+        <v>λίγο-λίγος-Ε5</v>
+      </c>
+    </row>
+    <row r="1092" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1092" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C1092" s="5" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D1092" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E1092" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1092" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>κακό</v>
+      </c>
+      <c r="G1092" s="6" t="str">
+        <f t="shared" ref="G1092:G1155" si="53">_xlfn.CONCAT(B1092,"-",C1092)</f>
+        <v>κακό-κακός</v>
+      </c>
+      <c r="H1092" s="6" t="str">
+        <f t="shared" ref="H1092:H1155" si="54">_xlfn.CONCAT(B1092,"-",C1092,"-",D1092)</f>
+        <v>κακό-κακός-Ε5</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1093" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C1093" s="5" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D1093" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1093" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1093" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>ξένε</v>
+      </c>
+      <c r="G1093" s="6" t="str">
         <f t="shared" si="53"/>
-        <v>στέρνα-στέρνα-Θ</v>
+        <v>ξένε-ξένος</v>
+      </c>
+      <c r="H1093" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>ξένε-ξένος-Ε2</v>
+      </c>
+    </row>
+    <row r="1094" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1094" s="5" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C1094" s="5" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D1094" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1094" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1094" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>άραχλε</v>
+      </c>
+      <c r="G1094" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>άραχλε-κακός</v>
+      </c>
+      <c r="H1094" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>άραχλε-κακός-Ε3</v>
+      </c>
+    </row>
+    <row r="1095" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1095" s="5" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C1095" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D1095" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1095" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1095" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>άδεξε</v>
+      </c>
+      <c r="G1095" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>άδεξε-άσχημος</v>
+      </c>
+      <c r="H1095" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>άδεξε-άσχημος-Ε3</v>
+      </c>
+    </row>
+    <row r="1096" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1096" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C1096" s="5" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D1096" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E1096" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1096" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>άδικο</v>
+      </c>
+      <c r="G1096" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>άδικο-άδικος</v>
+      </c>
+      <c r="H1096" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>άδικο-άδικος-Ε6</v>
+      </c>
+    </row>
+    <row r="1097" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1097" s="5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C1097" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D1097" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E1097" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1097" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>ανέφταιγο</v>
+      </c>
+      <c r="G1097" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>ανέφταιγο-αθώος</v>
+      </c>
+      <c r="H1097" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>ανέφταιγο-αθώος-Ε6</v>
+      </c>
+    </row>
+    <row r="1098" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1098" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C1098" s="5" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1098" s="5" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E1098" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1098" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>γρινιάρη</v>
+      </c>
+      <c r="G1098" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>γρινιάρη-γρινιάρης</v>
+      </c>
+      <c r="H1098" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>γρινιάρη-γρινιάρης-Ε8</v>
+      </c>
+    </row>
+    <row r="1099" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1099" s="5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1099" s="5" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D1099" s="5" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E1099" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1099" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>ζηλιάρη</v>
+      </c>
+      <c r="G1099" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>ζηλιάρη-ζηλιάρης</v>
+      </c>
+      <c r="H1099" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>ζηλιάρη-ζηλιάρης-Ε8</v>
+      </c>
+    </row>
+    <row r="1100" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1100" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1100" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D1100" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1100" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1100" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>πρώτε</v>
+      </c>
+      <c r="G1100" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>πρώτε-πρότος</v>
+      </c>
+      <c r="H1100" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>πρώτε-πρότος-Ε2</v>
+      </c>
+    </row>
+    <row r="1101" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1101" s="5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1101" s="5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D1101" s="5"/>
+      <c r="E1101" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1101" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>μαζί</v>
+      </c>
+      <c r="G1101" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>μαζί-μαζί</v>
+      </c>
+      <c r="H1101" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>μαζί-μαζί-</v>
+      </c>
+    </row>
+    <row r="1102" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1102" s="5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C1102" s="5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D1102" s="5"/>
+      <c r="E1102" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1102" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>όχι</v>
+      </c>
+      <c r="G1102" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>όχι-όχι</v>
+      </c>
+      <c r="H1102" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>όχι-όχι-</v>
+      </c>
+    </row>
+    <row r="1103" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1103" s="5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1103" s="5" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D1103" s="5"/>
+      <c r="E1103" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1103" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>έντεν̇ι</v>
+      </c>
+      <c r="G1103" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>έντεν̇ι-αυτός</v>
+      </c>
+      <c r="H1103" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>έντεν̇ι-αυτός-</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1104" s="5" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1104" s="5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D1104" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1104" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1104" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>δώρι</v>
+      </c>
+      <c r="G1104" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>δώρι-δώρο</v>
+      </c>
+      <c r="H1104" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>δώρι-δώρο-Υ</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1105" s="5" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1105" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D1105" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1105" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1105" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>κ̇αρίχου</v>
+      </c>
+      <c r="G1105" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>κ̇αρίχου-ζητάω</v>
+      </c>
+      <c r="H1105" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>κ̇αρίχου-ζητάω-Ρ</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1106" s="5" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C1106" s="5" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D1106" s="5"/>
+      <c r="E1106" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1106" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>θάκια</v>
+      </c>
+      <c r="G1106" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>θάκια-υποθετικό μόριο</v>
+      </c>
+      <c r="H1106" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>θάκια-υποθετικό μόριο-</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1107" s="5" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1107" s="5" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D1107" s="5"/>
+      <c r="E1107" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1107" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αλλά</v>
+      </c>
+      <c r="G1107" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αλλά-αλλά</v>
+      </c>
+      <c r="H1107" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αλλά-αλλά-</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1108" s="5" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C1108" s="5" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D1108" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1108" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1108" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αγαπού</v>
+      </c>
+      <c r="G1108" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αγαπού-αγαπάω</v>
+      </c>
+      <c r="H1108" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αγαπού-αγαπάω-ΡΒ2</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1109" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C1109" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D1109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1109" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1109" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αβάλ̣ητε</v>
+      </c>
+      <c r="G1109" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αβάλ̣ητε-άβαλτος, αφόρετος</v>
+      </c>
+      <c r="H1109" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αβάλ̣ητε-άβαλτος, αφόρετος-Ε</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1110" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1110" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D1110" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1110" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1110" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αβαν̇ία</v>
+      </c>
+      <c r="G1110" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αβαν̇ία-αβάνης</v>
+      </c>
+      <c r="H1110" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αβαν̇ία-αβάνης-Θ</v>
+      </c>
+    </row>
+    <row r="1111" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1111" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C1111" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D1111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1111" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1111" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αβάρετε</v>
+      </c>
+      <c r="G1111" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αβάρετε-ακούραστος, αεικίνητος</v>
+      </c>
+      <c r="H1111" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αβάρετε-ακούραστος, αεικίνητος-Ε</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1112" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C1112" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D1112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1112" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1112" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αβάσταχτε</v>
+      </c>
+      <c r="G1112" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αβάσταχτε-αβάσταχτος, ακράτητος, ανυπόφορος</v>
+      </c>
+      <c r="H1112" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αβάσταχτε-αβάσταχτος, ακράτητος, ανυπόφορος-Ε</v>
+      </c>
+    </row>
+    <row r="1113" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1113" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C1113" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D1113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1113" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1113" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αβαστήμητε</v>
+      </c>
+      <c r="G1113" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αβαστήμητε-αβλαστήμητος</v>
+      </c>
+      <c r="H1113" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αβαστήμητε-αβλαστήμητος-Ε</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1114" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1114" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D1114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1114" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1114" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αβούτανα</v>
+      </c>
+      <c r="G1114" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αβούτανα-αφτί</v>
+      </c>
+      <c r="H1114" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αβούτανα-αφτί-Θ</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1115" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C1115" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E1115" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1115" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>άβρετ̇ε</v>
+      </c>
+      <c r="G1115" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>άβρετ̇ε-άβρεχτος, στεγνός</v>
+      </c>
+      <c r="H1115" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>άβρετ̇ε-άβρεχτος, στεγνός-</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1116" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1116" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1116" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1116" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αγαθέ</v>
+      </c>
+      <c r="G1116" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αγαθέ-αγαθός</v>
+      </c>
+      <c r="H1116" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αγαθέ-αγαθός-Ε</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1117" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C1117" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E1117" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1117" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αγάλι</v>
+      </c>
+      <c r="G1117" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αγάλι-αργά, σιγά</v>
+      </c>
+      <c r="H1117" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αγάλι-αργά, σιγά-</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1118" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C1118" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D1118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1118" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1118" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αγγούρι</v>
+      </c>
+      <c r="G1118" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αγγούρι-αγγούρι</v>
+      </c>
+      <c r="H1118" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αγγούρι-αγγούρι-Υ1</v>
+      </c>
+    </row>
+    <row r="1119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1119" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C1119" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D1119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1119" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1119" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αγγουρία</v>
+      </c>
+      <c r="G1119" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αγγουρία-αγγουρία</v>
+      </c>
+      <c r="H1119" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αγγουρία-αγγουρία-Θ1</v>
+      </c>
+    </row>
+    <row r="1120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1120" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C1120" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E1120" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1120" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>φοζούμενε</v>
+      </c>
+      <c r="G1120" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>φοζούμενε-φοβάμαι</v>
+      </c>
+      <c r="H1120" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>φοζούμενε-φοβάμαι-</v>
+      </c>
+    </row>
+    <row r="1121" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1121" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C1121" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E1121" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1121" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>ντίνου</v>
+      </c>
+      <c r="G1121" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>ντίνου-χτυπάω</v>
+      </c>
+      <c r="H1121" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>ντίνου-χτυπάω-</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1122" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1122" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D1122" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1122" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1122" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>καμαρούνου</v>
+      </c>
+      <c r="G1122" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>καμαρούνου-καμαρώνω</v>
+      </c>
+      <c r="H1122" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>καμαρούνου-καμαρώνω-Ρ</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1123" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C1123" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D1123" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1123" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1123" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>κειράζου</v>
+      </c>
+      <c r="G1123" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>κειράζου-πειράζω</v>
+      </c>
+      <c r="H1123" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>κειράζου-πειράζω-Ρ</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1124" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C1124" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F1124" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>τροκή</v>
+      </c>
+      <c r="G1124" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>τροκή-δροπή</v>
+      </c>
+      <c r="H1124" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>τροκή-δροπή-</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1125" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1125" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D1125" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1125" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1125" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>όψι</v>
+      </c>
+      <c r="G1125" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>όψι-πρόσωπος</v>
+      </c>
+      <c r="H1125" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>όψι-πρόσωπος-Θ</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1126" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1126" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F1126" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>άμα</v>
+      </c>
+      <c r="G1126" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>άμα-όταν</v>
+      </c>
+      <c r="H1126" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>άμα-όταν-</v>
+      </c>
+    </row>
+    <row r="1127" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1127" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C1127" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F1127" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>γιουρίζου</v>
+      </c>
+      <c r="G1127" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>γιουρίζου-γυρίζω</v>
+      </c>
+      <c r="H1127" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>γιουρίζου-γυρίζω-</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1128" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C1128" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D1128" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1128" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>παραμονή</v>
+      </c>
+      <c r="G1128" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>παραμονή-παραμονή</v>
+      </c>
+      <c r="H1128" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>παραμονή-παραμονή-Θ</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1129" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C1129" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D1129" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1129" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>χορέγγου</v>
+      </c>
+      <c r="G1129" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>χορέγγου-χορεύω</v>
+      </c>
+      <c r="H1129" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>χορέγγου-χορεύω-Ρ</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1130" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C1130" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F1130" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>καθούς</v>
+      </c>
+      <c r="G1130" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>καθούς-καθώς</v>
+      </c>
+      <c r="H1130" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>καθούς-καθώς-</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1131" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C1131" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D1131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1131" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>ψιουχρέ</v>
+      </c>
+      <c r="G1131" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>ψιουχρέ-κρύος</v>
+      </c>
+      <c r="H1131" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>ψιουχρέ-κρύος-Ε</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1132" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C1132" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1132" s="6" t="str">
+        <f>_xlfn.CONCAT(B1132)</f>
+        <v>παστρισκό</v>
+      </c>
+      <c r="G1132" s="6" t="str">
+        <f>_xlfn.CONCAT(B1132,"-",C1132)</f>
+        <v>παστρισκό-καθαρός</v>
+      </c>
+      <c r="H1132" s="6" t="str">
+        <f>_xlfn.CONCAT(B1132,"-",C1132,"-",D1133)</f>
+        <v>παστρισκό-καθαρός-</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1133" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1133" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F1133" s="6" t="str">
+        <f>_xlfn.CONCAT(B1133)</f>
+        <v>προ πάντω</v>
+      </c>
+      <c r="G1133" s="6" t="str">
+        <f>_xlfn.CONCAT(B1133,"-",C1133)</f>
+        <v>προ πάντω-προ πάντω</v>
+      </c>
+      <c r="H1133" s="6" t="str">
+        <f>_xlfn.CONCAT(B1133,"-",C1133,"-",D1134)</f>
+        <v>προ πάντω-προ πάντω-</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1134" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C1134" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F1134" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>κοτρόνι</v>
+      </c>
+      <c r="G1134" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>κοτρόνι-κοτρόνι</v>
+      </c>
+      <c r="H1134" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>κοτρόνι-κοτρόνι-</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1135" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C1135" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F1135" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>χαμομήλι</v>
+      </c>
+      <c r="G1135" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>χαμομήλι-χαμομήλι</v>
+      </c>
+      <c r="H1135" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>χαμομήλι-χαμομήλι-</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1136" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1136" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D1136" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1136" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>ρώμι</v>
+      </c>
+      <c r="G1136" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>ρώμι-ρούμι</v>
+      </c>
+      <c r="H1136" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>ρώμι-ρούμι-Υ</v>
+      </c>
+    </row>
+    <row r="1137" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1137" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C1137" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1137" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>τσινήνου</v>
+      </c>
+      <c r="G1137" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>τσινήνου-αρχίζω</v>
+      </c>
+      <c r="H1137" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>τσινήνου-αρχίζω-</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1138" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C1138" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F1138" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v>αλάργα</v>
+      </c>
+      <c r="G1138" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>αλάργα-μακρία</v>
+      </c>
+      <c r="H1138" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>αλάργα-μακρία-</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1139" s="6" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="G1139" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1139" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1140" s="6" t="str">
+        <f t="shared" ref="F1140:F1203" si="55">_xlfn.CONCAT(B1140)</f>
+        <v/>
+      </c>
+      <c r="G1140" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1140" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1141" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1141" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1141" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1141" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1142" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1142" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1142" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1142" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1143" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1143" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1143" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1144" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1144" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1144" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1145" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1145" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1145" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1145" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1146" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1146" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1146" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1146" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1147" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1147" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1147" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1147" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1148" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1148" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1148" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1149" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1149" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1149" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1149" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1150" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1150" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1150" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1150" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1151" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1151" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1151" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1151" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1152" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1152" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1152" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1152" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1153" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1153" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1153" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1153" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1154" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1154" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1154" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1154" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1155" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1155" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1155" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
+      <c r="H1155" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1156" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1156" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1156" s="6" t="str">
+        <f t="shared" ref="G1156:G1208" si="56">_xlfn.CONCAT(B1156,"-",C1156)</f>
+        <v>-</v>
+      </c>
+      <c r="H1156" s="6" t="str">
+        <f t="shared" ref="H1156:H1208" si="57">_xlfn.CONCAT(B1156,"-",C1156,"-",D1156)</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1157" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1157" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1157" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1157" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1158" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1158" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1158" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1158" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1159" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1159" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1159" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1159" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1160" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1160" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1160" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1160" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1161" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1161" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1161" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1161" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1162" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1162" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1162" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1162" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1163" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1163" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1163" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1163" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1164" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1164" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1164" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1164" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1165" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1165" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1165" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1165" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1166" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1166" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1166" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1166" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1167" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1167" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1167" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1167" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1168" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1168" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1168" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1168" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1169" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1169" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1169" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1169" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1170" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1170" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1170" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1170" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1171" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1171" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1171" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1171" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1172" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1172" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1172" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1172" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1173" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1173" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1173" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1173" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1174" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1174" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1174" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1174" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1175" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1175" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1175" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1175" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1176" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1176" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1176" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1176" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1177" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1177" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1177" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1177" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1178" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1178" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1178" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1178" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1179" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1179" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1179" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1179" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1180" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1180" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1180" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1180" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1181" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1181" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1181" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1181" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1182" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1182" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1182" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1182" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1183" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1183" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1183" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1183" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1184" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1184" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1184" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1184" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1185" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1185" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1185" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1185" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1186" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1186" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1186" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1186" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1187" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1187" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1187" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1187" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1188" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1188" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1188" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1188" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1189" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1189" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1189" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1189" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1190" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1190" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1190" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1190" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1191" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1191" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1191" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1191" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1192" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1192" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1192" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1192" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1193" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1193" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1193" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1193" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1194" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1194" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1194" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1194" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1195" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1195" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1195" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1195" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1196" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1196" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1196" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1196" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1197" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1197" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1197" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1197" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1198" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1198" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1198" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1198" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1199" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1199" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1199" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1199" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1200" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1200" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1200" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1200" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1201" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1201" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1201" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1201" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1202" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1202" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1202" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1202" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1203" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1203" s="6" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G1203" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1203" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1204" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1204" s="6" t="str">
+        <f t="shared" ref="F1204:F1208" si="58">_xlfn.CONCAT(B1204)</f>
+        <v/>
+      </c>
+      <c r="G1204" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1204" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1205" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1205" s="6" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="G1205" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1205" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1206" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1206" s="6" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="G1206" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1206" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1207" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1207" s="6" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="G1207" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1207" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="1208" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1208" s="6" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="G1208" s="6" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="H1208" s="6" t="str">
+        <f t="shared" si="57"/>
+        <v>--</v>
       </c>
     </row>
   </sheetData>
@@ -35285,5 +38135,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>